--- a/rawdata/supplementary_material_V3.xlsx
+++ b/rawdata/supplementary_material_V3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45870C37-822B-4309-96BD-F397C077F130}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3D8AD2-090D-45B3-AACD-11B1DE0AB0BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="765" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -986,7 +986,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11368" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9946" uniqueCount="977">
   <si>
     <t>Score</t>
   </si>
@@ -5627,63 +5627,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5697,6 +5640,63 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6121,14 +6121,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
     </row>
     <row r="3" spans="1:6" ht="192.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -6143,10 +6143,10 @@
       <c r="D3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="121" t="s">
         <v>630</v>
       </c>
-      <c r="F3" s="114" t="s">
+      <c r="F3" s="121" t="s">
         <v>631</v>
       </c>
     </row>
@@ -6163,8 +6163,8 @@
       <c r="D4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -6267,14 +6267,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
     </row>
     <row r="11" spans="1:6" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
@@ -6289,10 +6289,10 @@
       <c r="D11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="114" t="s">
+      <c r="E11" s="121" t="s">
         <v>640</v>
       </c>
-      <c r="F11" s="114" t="s">
+      <c r="F11" s="121" t="s">
         <v>641</v>
       </c>
     </row>
@@ -6309,8 +6309,8 @@
       <c r="D12" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
     </row>
     <row r="13" spans="1:6" ht="211.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -6325,8 +6325,8 @@
       <c r="D13" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
     </row>
     <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -6429,14 +6429,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
     </row>
     <row r="20" spans="1:6" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -6451,10 +6451,10 @@
       <c r="D20" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="114" t="s">
+      <c r="E20" s="121" t="s">
         <v>644</v>
       </c>
-      <c r="F20" s="114" t="s">
+      <c r="F20" s="121" t="s">
         <v>645</v>
       </c>
     </row>
@@ -6471,8 +6471,8 @@
       <c r="D21" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
     </row>
     <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -6695,14 +6695,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
     </row>
     <row r="34" spans="1:6" ht="211.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -6905,14 +6905,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
@@ -7095,14 +7095,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="108" t="s">
+      <c r="A54" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="108"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
@@ -7265,14 +7265,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="108" t="s">
+      <c r="A63" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="108"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="108"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="108"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="113"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
@@ -7375,14 +7375,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="108" t="s">
+      <c r="A69" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="108"/>
-      <c r="C69" s="108"/>
-      <c r="D69" s="108"/>
-      <c r="E69" s="108"/>
-      <c r="F69" s="108"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="113"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="113"/>
     </row>
     <row r="70" spans="1:6" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
@@ -7397,10 +7397,10 @@
       <c r="D70" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="114" t="s">
+      <c r="E70" s="121" t="s">
         <v>651</v>
       </c>
-      <c r="F70" s="114" t="s">
+      <c r="F70" s="121" t="s">
         <v>652</v>
       </c>
     </row>
@@ -7417,8 +7417,8 @@
       <c r="D71" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="114"/>
-      <c r="F71" s="114"/>
+      <c r="E71" s="121"/>
+      <c r="F71" s="121"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -7621,14 +7621,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="108" t="s">
+      <c r="A82" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="108"/>
-      <c r="C82" s="108"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="108"/>
-      <c r="F82" s="108"/>
+      <c r="B82" s="113"/>
+      <c r="C82" s="113"/>
+      <c r="D82" s="113"/>
+      <c r="E82" s="113"/>
+      <c r="F82" s="113"/>
     </row>
     <row r="83" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
@@ -7703,10 +7703,10 @@
       <c r="D86" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E86" s="111" t="s">
+      <c r="E86" s="114" t="s">
         <v>658</v>
       </c>
-      <c r="F86" s="111" t="s">
+      <c r="F86" s="114" t="s">
         <v>659</v>
       </c>
     </row>
@@ -7723,8 +7723,8 @@
       <c r="D87" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E87" s="111"/>
-      <c r="F87" s="111"/>
+      <c r="E87" s="114"/>
+      <c r="F87" s="114"/>
     </row>
     <row r="88" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A88" s="24" t="s">
@@ -7739,8 +7739,8 @@
       <c r="D88" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="111"/>
-      <c r="F88" s="111"/>
+      <c r="E88" s="114"/>
+      <c r="F88" s="114"/>
     </row>
     <row r="89" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A89" s="24" t="s">
@@ -7783,14 +7783,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="108" t="s">
+      <c r="A91" s="113" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="108"/>
-      <c r="F91" s="108"/>
+      <c r="B91" s="113"/>
+      <c r="C91" s="113"/>
+      <c r="D91" s="113"/>
+      <c r="E91" s="113"/>
+      <c r="F91" s="113"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
@@ -7993,14 +7993,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="108" t="s">
+      <c r="A102" s="113" t="s">
         <v>280</v>
       </c>
-      <c r="B102" s="108"/>
-      <c r="C102" s="108"/>
-      <c r="D102" s="108"/>
-      <c r="E102" s="108"/>
-      <c r="F102" s="108"/>
+      <c r="B102" s="113"/>
+      <c r="C102" s="113"/>
+      <c r="D102" s="113"/>
+      <c r="E102" s="113"/>
+      <c r="F102" s="113"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
@@ -8203,14 +8203,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="108" t="s">
+      <c r="A113" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="B113" s="108"/>
-      <c r="C113" s="108"/>
-      <c r="D113" s="108"/>
-      <c r="E113" s="108"/>
-      <c r="F113" s="108"/>
+      <c r="B113" s="113"/>
+      <c r="C113" s="113"/>
+      <c r="D113" s="113"/>
+      <c r="E113" s="113"/>
+      <c r="F113" s="113"/>
     </row>
     <row r="114" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
@@ -8225,10 +8225,10 @@
       <c r="D114" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="114" t="s">
+      <c r="E114" s="121" t="s">
         <v>662</v>
       </c>
-      <c r="F114" s="114" t="s">
+      <c r="F114" s="121" t="s">
         <v>308</v>
       </c>
     </row>
@@ -8245,8 +8245,8 @@
       <c r="D115" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="114"/>
-      <c r="F115" s="114"/>
+      <c r="E115" s="121"/>
+      <c r="F115" s="121"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -8427,14 +8427,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="108" t="s">
+      <c r="A125" s="113" t="s">
         <v>332</v>
       </c>
-      <c r="B125" s="108"/>
-      <c r="C125" s="108"/>
-      <c r="D125" s="108"/>
-      <c r="E125" s="108"/>
-      <c r="F125" s="108"/>
+      <c r="B125" s="113"/>
+      <c r="C125" s="113"/>
+      <c r="D125" s="113"/>
+      <c r="E125" s="113"/>
+      <c r="F125" s="113"/>
     </row>
     <row r="126" spans="1:6" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
@@ -8449,10 +8449,10 @@
       <c r="D126" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="125" t="s">
+      <c r="E126" s="130" t="s">
         <v>689</v>
       </c>
-      <c r="F126" s="125" t="s">
+      <c r="F126" s="130" t="s">
         <v>692</v>
       </c>
     </row>
@@ -8469,8 +8469,8 @@
       <c r="D127" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="126"/>
-      <c r="F127" s="126"/>
+      <c r="E127" s="131"/>
+      <c r="F127" s="131"/>
     </row>
     <row r="128" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -8531,14 +8531,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="108" t="s">
+      <c r="A131" s="113" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="108"/>
-      <c r="C131" s="108"/>
-      <c r="D131" s="108"/>
-      <c r="E131" s="108"/>
-      <c r="F131" s="108"/>
+      <c r="B131" s="113"/>
+      <c r="C131" s="113"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="113"/>
+      <c r="F131" s="113"/>
     </row>
     <row r="132" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
@@ -8737,14 +8737,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="108" t="s">
+      <c r="A142" s="113" t="s">
         <v>368</v>
       </c>
-      <c r="B142" s="108"/>
-      <c r="C142" s="108"/>
-      <c r="D142" s="108"/>
-      <c r="E142" s="108"/>
-      <c r="F142" s="108"/>
+      <c r="B142" s="113"/>
+      <c r="C142" s="113"/>
+      <c r="D142" s="113"/>
+      <c r="E142" s="113"/>
+      <c r="F142" s="113"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
@@ -8987,14 +8987,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="108" t="s">
+      <c r="A155" s="113" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="108"/>
-      <c r="C155" s="108"/>
-      <c r="D155" s="108"/>
-      <c r="E155" s="108"/>
-      <c r="F155" s="108"/>
+      <c r="B155" s="113"/>
+      <c r="C155" s="113"/>
+      <c r="D155" s="113"/>
+      <c r="E155" s="113"/>
+      <c r="F155" s="113"/>
     </row>
     <row r="156" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
@@ -9009,10 +9009,10 @@
       <c r="D156" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E156" s="114" t="s">
+      <c r="E156" s="121" t="s">
         <v>681</v>
       </c>
-      <c r="F156" s="114" t="s">
+      <c r="F156" s="121" t="s">
         <v>657</v>
       </c>
     </row>
@@ -9029,8 +9029,8 @@
       <c r="D157" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E157" s="114"/>
-      <c r="F157" s="114"/>
+      <c r="E157" s="121"/>
+      <c r="F157" s="121"/>
     </row>
     <row r="158" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A158" s="24" t="s">
@@ -9234,12 +9234,19 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="F156:F157"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
     <mergeCell ref="E86:E88"/>
     <mergeCell ref="F86:F88"/>
     <mergeCell ref="A19:F19"/>
@@ -9253,19 +9260,12 @@
     <mergeCell ref="E70:E71"/>
     <mergeCell ref="F70:F71"/>
     <mergeCell ref="A82:F82"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="F156:F157"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9306,14 +9306,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
     </row>
     <row r="3" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -9456,14 +9456,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
     </row>
     <row r="11" spans="1:6" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
@@ -9478,10 +9478,10 @@
       <c r="D11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="111" t="s">
+      <c r="E11" s="114" t="s">
         <v>729</v>
       </c>
-      <c r="F11" s="112" t="s">
+      <c r="F11" s="115" t="s">
         <v>730</v>
       </c>
     </row>
@@ -9498,8 +9498,8 @@
       <c r="D12" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="111"/>
-      <c r="F12" s="113"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="116"/>
     </row>
     <row r="13" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -9622,14 +9622,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
     </row>
     <row r="20" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -9892,14 +9892,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -10102,14 +10102,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
@@ -10292,14 +10292,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="108" t="s">
+      <c r="A54" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="108"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
@@ -10462,14 +10462,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="108" t="s">
+      <c r="A63" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="108"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="108"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="108"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="113"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
@@ -10572,14 +10572,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="108" t="s">
+      <c r="A69" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="108"/>
-      <c r="C69" s="108"/>
-      <c r="D69" s="108"/>
-      <c r="E69" s="108"/>
-      <c r="F69" s="108"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="113"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="113"/>
     </row>
     <row r="70" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
@@ -10822,14 +10822,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="108" t="s">
+      <c r="A82" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="108"/>
-      <c r="C82" s="108"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="108"/>
-      <c r="F82" s="108"/>
+      <c r="B82" s="113"/>
+      <c r="C82" s="113"/>
+      <c r="D82" s="113"/>
+      <c r="E82" s="113"/>
+      <c r="F82" s="113"/>
     </row>
     <row r="83" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
@@ -10992,14 +10992,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="108" t="s">
+      <c r="A91" s="113" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="108"/>
-      <c r="F91" s="108"/>
+      <c r="B91" s="113"/>
+      <c r="C91" s="113"/>
+      <c r="D91" s="113"/>
+      <c r="E91" s="113"/>
+      <c r="F91" s="113"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
@@ -11202,14 +11202,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="108" t="s">
+      <c r="A102" s="113" t="s">
         <v>280</v>
       </c>
-      <c r="B102" s="108"/>
-      <c r="C102" s="108"/>
-      <c r="D102" s="108"/>
-      <c r="E102" s="108"/>
-      <c r="F102" s="108"/>
+      <c r="B102" s="113"/>
+      <c r="C102" s="113"/>
+      <c r="D102" s="113"/>
+      <c r="E102" s="113"/>
+      <c r="F102" s="113"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
@@ -11412,14 +11412,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="108" t="s">
+      <c r="A113" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="B113" s="108"/>
-      <c r="C113" s="108"/>
-      <c r="D113" s="108"/>
-      <c r="E113" s="108"/>
-      <c r="F113" s="108"/>
+      <c r="B113" s="113"/>
+      <c r="C113" s="113"/>
+      <c r="D113" s="113"/>
+      <c r="E113" s="113"/>
+      <c r="F113" s="113"/>
     </row>
     <row r="114" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
@@ -11640,14 +11640,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="108" t="s">
+      <c r="A125" s="113" t="s">
         <v>332</v>
       </c>
-      <c r="B125" s="108"/>
-      <c r="C125" s="108"/>
-      <c r="D125" s="108"/>
-      <c r="E125" s="108"/>
-      <c r="F125" s="108"/>
+      <c r="B125" s="113"/>
+      <c r="C125" s="113"/>
+      <c r="D125" s="113"/>
+      <c r="E125" s="113"/>
+      <c r="F125" s="113"/>
     </row>
     <row r="126" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
@@ -11662,10 +11662,10 @@
       <c r="D126" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="125" t="s">
+      <c r="E126" s="130" t="s">
         <v>715</v>
       </c>
-      <c r="F126" s="125" t="s">
+      <c r="F126" s="130" t="s">
         <v>716</v>
       </c>
     </row>
@@ -11682,8 +11682,8 @@
       <c r="D127" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="126"/>
-      <c r="F127" s="126"/>
+      <c r="E127" s="131"/>
+      <c r="F127" s="131"/>
     </row>
     <row r="128" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -11744,14 +11744,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="108" t="s">
+      <c r="A131" s="113" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="108"/>
-      <c r="C131" s="108"/>
-      <c r="D131" s="108"/>
-      <c r="E131" s="108"/>
-      <c r="F131" s="108"/>
+      <c r="B131" s="113"/>
+      <c r="C131" s="113"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="113"/>
+      <c r="F131" s="113"/>
     </row>
     <row r="132" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
@@ -11950,14 +11950,14 @@
       <c r="F141" s="33"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="108" t="s">
+      <c r="A142" s="113" t="s">
         <v>368</v>
       </c>
-      <c r="B142" s="108"/>
-      <c r="C142" s="108"/>
-      <c r="D142" s="108"/>
-      <c r="E142" s="108"/>
-      <c r="F142" s="108"/>
+      <c r="B142" s="113"/>
+      <c r="C142" s="113"/>
+      <c r="D142" s="113"/>
+      <c r="E142" s="113"/>
+      <c r="F142" s="113"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
@@ -12200,14 +12200,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="108" t="s">
+      <c r="A155" s="113" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="108"/>
-      <c r="C155" s="108"/>
-      <c r="D155" s="108"/>
-      <c r="E155" s="108"/>
-      <c r="F155" s="108"/>
+      <c r="B155" s="113"/>
+      <c r="C155" s="113"/>
+      <c r="D155" s="113"/>
+      <c r="E155" s="113"/>
+      <c r="F155" s="113"/>
     </row>
     <row r="156" spans="1:6" ht="168.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
@@ -12451,6 +12451,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A10:F10"/>
@@ -12463,14 +12471,6 @@
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A69:F69"/>
     <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12513,14 +12513,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
     </row>
     <row r="3" spans="1:6" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -12661,14 +12661,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
     </row>
     <row r="11" spans="1:6" ht="198.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
@@ -12683,10 +12683,10 @@
       <c r="D11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="116" t="s">
+      <c r="E11" s="119" t="s">
         <v>735</v>
       </c>
-      <c r="F11" s="116" t="s">
+      <c r="F11" s="119" t="s">
         <v>736</v>
       </c>
     </row>
@@ -12703,8 +12703,8 @@
       <c r="D12" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
     </row>
     <row r="13" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -12825,14 +12825,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
     </row>
     <row r="20" spans="1:6" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -12847,10 +12847,10 @@
       <c r="D20" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="116" t="s">
+      <c r="E20" s="119" t="s">
         <v>737</v>
       </c>
-      <c r="F20" s="116" t="s">
+      <c r="F20" s="119" t="s">
         <v>738</v>
       </c>
     </row>
@@ -12867,8 +12867,8 @@
       <c r="D21" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
     </row>
     <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -13091,14 +13091,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -13301,14 +13301,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
@@ -13491,14 +13491,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="108" t="s">
+      <c r="A54" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="108"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
@@ -13661,14 +13661,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="108" t="s">
+      <c r="A63" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="108"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="108"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="108"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="113"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
@@ -13771,14 +13771,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="108" t="s">
+      <c r="A69" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="108"/>
-      <c r="C69" s="108"/>
-      <c r="D69" s="108"/>
-      <c r="E69" s="108"/>
-      <c r="F69" s="108"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="113"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="113"/>
     </row>
     <row r="70" spans="1:6" ht="171.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
@@ -13793,10 +13793,10 @@
       <c r="D70" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="116" t="s">
+      <c r="E70" s="119" t="s">
         <v>745</v>
       </c>
-      <c r="F70" s="116" t="s">
+      <c r="F70" s="119" t="s">
         <v>746</v>
       </c>
     </row>
@@ -13813,8 +13813,8 @@
       <c r="D71" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="117"/>
-      <c r="F71" s="117"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="120"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -14017,14 +14017,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="108" t="s">
+      <c r="A82" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="108"/>
-      <c r="C82" s="108"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="108"/>
-      <c r="F82" s="108"/>
+      <c r="B82" s="113"/>
+      <c r="C82" s="113"/>
+      <c r="D82" s="113"/>
+      <c r="E82" s="113"/>
+      <c r="F82" s="113"/>
     </row>
     <row r="83" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
@@ -14187,14 +14187,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="108" t="s">
+      <c r="A91" s="113" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="108"/>
-      <c r="F91" s="108"/>
+      <c r="B91" s="113"/>
+      <c r="C91" s="113"/>
+      <c r="D91" s="113"/>
+      <c r="E91" s="113"/>
+      <c r="F91" s="113"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
@@ -14397,14 +14397,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="108" t="s">
+      <c r="A102" s="113" t="s">
         <v>280</v>
       </c>
-      <c r="B102" s="108"/>
-      <c r="C102" s="108"/>
-      <c r="D102" s="108"/>
-      <c r="E102" s="108"/>
-      <c r="F102" s="108"/>
+      <c r="B102" s="113"/>
+      <c r="C102" s="113"/>
+      <c r="D102" s="113"/>
+      <c r="E102" s="113"/>
+      <c r="F102" s="113"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
@@ -14607,14 +14607,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="108" t="s">
+      <c r="A113" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="B113" s="108"/>
-      <c r="C113" s="108"/>
-      <c r="D113" s="108"/>
-      <c r="E113" s="108"/>
-      <c r="F113" s="108"/>
+      <c r="B113" s="113"/>
+      <c r="C113" s="113"/>
+      <c r="D113" s="113"/>
+      <c r="E113" s="113"/>
+      <c r="F113" s="113"/>
     </row>
     <row r="114" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
@@ -14835,14 +14835,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="108" t="s">
+      <c r="A125" s="113" t="s">
         <v>332</v>
       </c>
-      <c r="B125" s="108"/>
-      <c r="C125" s="108"/>
-      <c r="D125" s="108"/>
-      <c r="E125" s="108"/>
-      <c r="F125" s="108"/>
+      <c r="B125" s="113"/>
+      <c r="C125" s="113"/>
+      <c r="D125" s="113"/>
+      <c r="E125" s="113"/>
+      <c r="F125" s="113"/>
     </row>
     <row r="126" spans="1:6" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
@@ -14857,10 +14857,10 @@
       <c r="D126" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="125" t="s">
+      <c r="E126" s="130" t="s">
         <v>753</v>
       </c>
-      <c r="F126" s="125" t="s">
+      <c r="F126" s="130" t="s">
         <v>754</v>
       </c>
     </row>
@@ -14877,8 +14877,8 @@
       <c r="D127" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="126"/>
-      <c r="F127" s="126"/>
+      <c r="E127" s="131"/>
+      <c r="F127" s="131"/>
     </row>
     <row r="128" spans="1:6" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -14937,14 +14937,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="108" t="s">
+      <c r="A131" s="113" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="108"/>
-      <c r="C131" s="108"/>
-      <c r="D131" s="108"/>
-      <c r="E131" s="108"/>
-      <c r="F131" s="108"/>
+      <c r="B131" s="113"/>
+      <c r="C131" s="113"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="113"/>
+      <c r="F131" s="113"/>
     </row>
     <row r="132" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
@@ -15019,10 +15019,10 @@
       <c r="D135" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E135" s="116" t="s">
+      <c r="E135" s="119" t="s">
         <v>758</v>
       </c>
-      <c r="F135" s="116" t="s">
+      <c r="F135" s="119" t="s">
         <v>748</v>
       </c>
     </row>
@@ -15039,8 +15039,8 @@
       <c r="D136" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E136" s="117"/>
-      <c r="F136" s="117"/>
+      <c r="E136" s="120"/>
+      <c r="F136" s="120"/>
     </row>
     <row r="137" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A137" s="24" t="s">
@@ -15143,14 +15143,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="108" t="s">
+      <c r="A142" s="113" t="s">
         <v>368</v>
       </c>
-      <c r="B142" s="108"/>
-      <c r="C142" s="108"/>
-      <c r="D142" s="108"/>
-      <c r="E142" s="108"/>
-      <c r="F142" s="108"/>
+      <c r="B142" s="113"/>
+      <c r="C142" s="113"/>
+      <c r="D142" s="113"/>
+      <c r="E142" s="113"/>
+      <c r="F142" s="113"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
@@ -15393,14 +15393,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="108" t="s">
+      <c r="A155" s="113" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="108"/>
-      <c r="C155" s="108"/>
-      <c r="D155" s="108"/>
-      <c r="E155" s="108"/>
-      <c r="F155" s="108"/>
+      <c r="B155" s="113"/>
+      <c r="C155" s="113"/>
+      <c r="D155" s="113"/>
+      <c r="E155" s="113"/>
+      <c r="F155" s="113"/>
     </row>
     <row r="156" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
@@ -15644,11 +15644,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="A33:F33"/>
@@ -15663,13 +15665,11 @@
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A113:F113"/>
     <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15711,14 +15711,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
     </row>
     <row r="3" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -15861,14 +15861,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
     </row>
     <row r="11" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
@@ -16031,14 +16031,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
     </row>
     <row r="20" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -16301,14 +16301,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -16511,14 +16511,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
@@ -16701,14 +16701,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="108" t="s">
+      <c r="A54" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="108"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
@@ -16871,14 +16871,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="108" t="s">
+      <c r="A63" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="108"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="108"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="108"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="113"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
@@ -16981,14 +16981,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="108" t="s">
+      <c r="A69" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="108"/>
-      <c r="C69" s="108"/>
-      <c r="D69" s="108"/>
-      <c r="E69" s="108"/>
-      <c r="F69" s="108"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="113"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="113"/>
     </row>
     <row r="70" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
@@ -17231,14 +17231,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="108" t="s">
+      <c r="A82" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="108"/>
-      <c r="C82" s="108"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="108"/>
-      <c r="F82" s="108"/>
+      <c r="B82" s="113"/>
+      <c r="C82" s="113"/>
+      <c r="D82" s="113"/>
+      <c r="E82" s="113"/>
+      <c r="F82" s="113"/>
     </row>
     <row r="83" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
@@ -17401,14 +17401,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="108" t="s">
+      <c r="A91" s="113" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="108"/>
-      <c r="F91" s="108"/>
+      <c r="B91" s="113"/>
+      <c r="C91" s="113"/>
+      <c r="D91" s="113"/>
+      <c r="E91" s="113"/>
+      <c r="F91" s="113"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
@@ -17611,14 +17611,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="108" t="s">
+      <c r="A102" s="113" t="s">
         <v>280</v>
       </c>
-      <c r="B102" s="108"/>
-      <c r="C102" s="108"/>
-      <c r="D102" s="108"/>
-      <c r="E102" s="108"/>
-      <c r="F102" s="108"/>
+      <c r="B102" s="113"/>
+      <c r="C102" s="113"/>
+      <c r="D102" s="113"/>
+      <c r="E102" s="113"/>
+      <c r="F102" s="113"/>
     </row>
     <row r="103" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
@@ -17819,14 +17819,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="108" t="s">
+      <c r="A113" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="B113" s="108"/>
-      <c r="C113" s="108"/>
-      <c r="D113" s="108"/>
-      <c r="E113" s="108"/>
-      <c r="F113" s="108"/>
+      <c r="B113" s="113"/>
+      <c r="C113" s="113"/>
+      <c r="D113" s="113"/>
+      <c r="E113" s="113"/>
+      <c r="F113" s="113"/>
     </row>
     <row r="114" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
@@ -18049,14 +18049,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="108" t="s">
+      <c r="A125" s="113" t="s">
         <v>332</v>
       </c>
-      <c r="B125" s="108"/>
-      <c r="C125" s="108"/>
-      <c r="D125" s="108"/>
-      <c r="E125" s="108"/>
-      <c r="F125" s="108"/>
+      <c r="B125" s="113"/>
+      <c r="C125" s="113"/>
+      <c r="D125" s="113"/>
+      <c r="E125" s="113"/>
+      <c r="F125" s="113"/>
     </row>
     <row r="126" spans="1:6" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
@@ -18071,10 +18071,10 @@
       <c r="D126" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="111" t="s">
+      <c r="E126" s="114" t="s">
         <v>469</v>
       </c>
-      <c r="F126" s="112" t="s">
+      <c r="F126" s="115" t="s">
         <v>470</v>
       </c>
     </row>
@@ -18091,8 +18091,8 @@
       <c r="D127" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="111"/>
-      <c r="F127" s="113"/>
+      <c r="E127" s="114"/>
+      <c r="F127" s="116"/>
     </row>
     <row r="128" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -18155,14 +18155,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="108" t="s">
+      <c r="A131" s="113" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="108"/>
-      <c r="C131" s="108"/>
-      <c r="D131" s="108"/>
-      <c r="E131" s="108"/>
-      <c r="F131" s="108"/>
+      <c r="B131" s="113"/>
+      <c r="C131" s="113"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="113"/>
+      <c r="F131" s="113"/>
     </row>
     <row r="132" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
@@ -18365,14 +18365,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="108" t="s">
+      <c r="A142" s="113" t="s">
         <v>368</v>
       </c>
-      <c r="B142" s="108"/>
-      <c r="C142" s="108"/>
-      <c r="D142" s="108"/>
-      <c r="E142" s="108"/>
-      <c r="F142" s="108"/>
+      <c r="B142" s="113"/>
+      <c r="C142" s="113"/>
+      <c r="D142" s="113"/>
+      <c r="E142" s="113"/>
+      <c r="F142" s="113"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
@@ -18615,14 +18615,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="108" t="s">
+      <c r="A155" s="113" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="108"/>
-      <c r="C155" s="108"/>
-      <c r="D155" s="108"/>
-      <c r="E155" s="108"/>
-      <c r="F155" s="108"/>
+      <c r="B155" s="113"/>
+      <c r="C155" s="113"/>
+      <c r="D155" s="113"/>
+      <c r="E155" s="113"/>
+      <c r="F155" s="113"/>
     </row>
     <row r="156" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
@@ -18866,6 +18866,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A69:F69"/>
@@ -18878,12 +18884,6 @@
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="A131:F131"/>
     <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18925,14 +18925,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
     </row>
     <row r="3" spans="1:6" ht="197.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -18947,10 +18947,10 @@
       <c r="D3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="114" t="s">
         <v>28</v>
       </c>
     </row>
@@ -18967,8 +18967,8 @@
       <c r="D4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
     </row>
     <row r="5" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -19071,14 +19071,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
     </row>
     <row r="11" spans="1:6" ht="173.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
@@ -19093,10 +19093,10 @@
       <c r="D11" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="114" t="s">
+      <c r="E11" s="121" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="114" t="s">
+      <c r="F11" s="121" t="s">
         <v>53</v>
       </c>
     </row>
@@ -19113,8 +19113,8 @@
       <c r="D12" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
     </row>
     <row r="13" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -19129,8 +19129,8 @@
       <c r="D13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
     </row>
     <row r="14" spans="1:6" ht="228.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -19233,14 +19233,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
     </row>
     <row r="20" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -19495,14 +19495,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
     </row>
     <row r="34" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -19705,14 +19705,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
     </row>
     <row r="45" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
@@ -19895,14 +19895,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="108" t="s">
+      <c r="A54" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="108"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
     </row>
     <row r="55" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
@@ -20065,14 +20065,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="108" t="s">
+      <c r="A63" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="108"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="108"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="108"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="113"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
@@ -20175,14 +20175,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="108" t="s">
+      <c r="A69" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="108"/>
-      <c r="C69" s="108"/>
-      <c r="D69" s="108"/>
-      <c r="E69" s="108"/>
-      <c r="F69" s="108"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="113"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="113"/>
     </row>
     <row r="70" spans="1:6" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
@@ -20197,10 +20197,10 @@
       <c r="D70" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="111" t="s">
+      <c r="E70" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="F70" s="111" t="s">
+      <c r="F70" s="114" t="s">
         <v>202</v>
       </c>
     </row>
@@ -20217,8 +20217,8 @@
       <c r="D71" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="111"/>
-      <c r="F71" s="111"/>
+      <c r="E71" s="114"/>
+      <c r="F71" s="114"/>
     </row>
     <row r="72" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -20421,14 +20421,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="108" t="s">
+      <c r="A82" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="108"/>
-      <c r="C82" s="108"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="108"/>
-      <c r="F82" s="108"/>
+      <c r="B82" s="113"/>
+      <c r="C82" s="113"/>
+      <c r="D82" s="113"/>
+      <c r="E82" s="113"/>
+      <c r="F82" s="113"/>
     </row>
     <row r="83" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
@@ -20591,14 +20591,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="108" t="s">
+      <c r="A91" s="113" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="108"/>
-      <c r="F91" s="108"/>
+      <c r="B91" s="113"/>
+      <c r="C91" s="113"/>
+      <c r="D91" s="113"/>
+      <c r="E91" s="113"/>
+      <c r="F91" s="113"/>
     </row>
     <row r="92" spans="1:6" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
@@ -20801,14 +20801,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="108" t="s">
+      <c r="A102" s="113" t="s">
         <v>280</v>
       </c>
-      <c r="B102" s="108"/>
-      <c r="C102" s="108"/>
-      <c r="D102" s="108"/>
-      <c r="E102" s="108"/>
-      <c r="F102" s="108"/>
+      <c r="B102" s="113"/>
+      <c r="C102" s="113"/>
+      <c r="D102" s="113"/>
+      <c r="E102" s="113"/>
+      <c r="F102" s="113"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
@@ -21011,14 +21011,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="108" t="s">
+      <c r="A113" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="B113" s="108"/>
-      <c r="C113" s="108"/>
-      <c r="D113" s="108"/>
-      <c r="E113" s="108"/>
-      <c r="F113" s="108"/>
+      <c r="B113" s="113"/>
+      <c r="C113" s="113"/>
+      <c r="D113" s="113"/>
+      <c r="E113" s="113"/>
+      <c r="F113" s="113"/>
     </row>
     <row r="114" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
@@ -21033,10 +21033,10 @@
       <c r="D114" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="114" t="s">
+      <c r="E114" s="121" t="s">
         <v>307</v>
       </c>
-      <c r="F114" s="114" t="s">
+      <c r="F114" s="121" t="s">
         <v>308</v>
       </c>
     </row>
@@ -21053,8 +21053,8 @@
       <c r="D115" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="114"/>
-      <c r="F115" s="114"/>
+      <c r="E115" s="121"/>
+      <c r="F115" s="121"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -21237,14 +21237,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="108" t="s">
+      <c r="A125" s="113" t="s">
         <v>332</v>
       </c>
-      <c r="B125" s="108"/>
-      <c r="C125" s="108"/>
-      <c r="D125" s="108"/>
-      <c r="E125" s="108"/>
-      <c r="F125" s="108"/>
+      <c r="B125" s="113"/>
+      <c r="C125" s="113"/>
+      <c r="D125" s="113"/>
+      <c r="E125" s="113"/>
+      <c r="F125" s="113"/>
     </row>
     <row r="126" spans="1:6" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
@@ -21259,10 +21259,10 @@
       <c r="D126" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="114" t="s">
+      <c r="E126" s="121" t="s">
         <v>335</v>
       </c>
-      <c r="F126" s="114" t="s">
+      <c r="F126" s="121" t="s">
         <v>336</v>
       </c>
     </row>
@@ -21279,8 +21279,8 @@
       <c r="D127" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="114"/>
-      <c r="F127" s="114"/>
+      <c r="E127" s="121"/>
+      <c r="F127" s="121"/>
     </row>
     <row r="128" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -21343,14 +21343,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="108" t="s">
+      <c r="A131" s="113" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="108"/>
-      <c r="C131" s="108"/>
-      <c r="D131" s="108"/>
-      <c r="E131" s="108"/>
-      <c r="F131" s="108"/>
+      <c r="B131" s="113"/>
+      <c r="C131" s="113"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="113"/>
+      <c r="F131" s="113"/>
     </row>
     <row r="132" spans="1:6" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
@@ -21365,10 +21365,10 @@
       <c r="D132" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="114" t="s">
+      <c r="E132" s="121" t="s">
         <v>348</v>
       </c>
-      <c r="F132" s="114" t="s">
+      <c r="F132" s="121" t="s">
         <v>349</v>
       </c>
     </row>
@@ -21385,8 +21385,8 @@
       <c r="D133" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="114"/>
-      <c r="F133" s="114"/>
+      <c r="E133" s="121"/>
+      <c r="F133" s="121"/>
     </row>
     <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="24" t="s">
@@ -21549,14 +21549,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="108" t="s">
+      <c r="A142" s="113" t="s">
         <v>368</v>
       </c>
-      <c r="B142" s="108"/>
-      <c r="C142" s="108"/>
-      <c r="D142" s="108"/>
-      <c r="E142" s="108"/>
-      <c r="F142" s="108"/>
+      <c r="B142" s="113"/>
+      <c r="C142" s="113"/>
+      <c r="D142" s="113"/>
+      <c r="E142" s="113"/>
+      <c r="F142" s="113"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
@@ -21751,10 +21751,10 @@
       <c r="D152" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="115" t="s">
+      <c r="E152" s="122" t="s">
         <v>400</v>
       </c>
-      <c r="F152" s="115" t="s">
+      <c r="F152" s="122" t="s">
         <v>401</v>
       </c>
     </row>
@@ -21771,8 +21771,8 @@
       <c r="D153" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="115"/>
-      <c r="F153" s="115"/>
+      <c r="E153" s="122"/>
+      <c r="F153" s="122"/>
     </row>
     <row r="154" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="24" t="s">
@@ -21795,14 +21795,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="108" t="s">
+      <c r="A155" s="113" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="108"/>
-      <c r="C155" s="108"/>
-      <c r="D155" s="108"/>
-      <c r="E155" s="108"/>
-      <c r="F155" s="108"/>
+      <c r="B155" s="113"/>
+      <c r="C155" s="113"/>
+      <c r="D155" s="113"/>
+      <c r="E155" s="113"/>
+      <c r="F155" s="113"/>
     </row>
     <row r="156" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
@@ -21817,10 +21817,10 @@
       <c r="D156" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E156" s="116" t="s">
+      <c r="E156" s="119" t="s">
         <v>410</v>
       </c>
-      <c r="F156" s="116" t="s">
+      <c r="F156" s="119" t="s">
         <v>411</v>
       </c>
     </row>
@@ -21837,8 +21837,8 @@
       <c r="D157" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E157" s="117"/>
-      <c r="F157" s="117"/>
+      <c r="E157" s="120"/>
+      <c r="F157" s="120"/>
     </row>
     <row r="158" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A158" s="24" t="s">
@@ -22042,6 +22042,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="F152:F153"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="F156:F157"/>
     <mergeCell ref="E156:E157"/>
@@ -22058,22 +22074,6 @@
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="A125:F125"/>
     <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A82:F82"/>
   </mergeCells>
   <conditionalFormatting sqref="E109">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -22124,14 +22124,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
     </row>
     <row r="3" spans="1:6" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -22146,10 +22146,10 @@
       <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="121" t="s">
         <v>482</v>
       </c>
-      <c r="F3" s="114" t="s">
+      <c r="F3" s="121" t="s">
         <v>483</v>
       </c>
     </row>
@@ -22166,8 +22166,8 @@
       <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -22270,14 +22270,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
     </row>
     <row r="11" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
@@ -22292,10 +22292,10 @@
       <c r="D11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="114" t="s">
+      <c r="E11" s="121" t="s">
         <v>487</v>
       </c>
-      <c r="F11" s="114" t="s">
+      <c r="F11" s="121" t="s">
         <v>488</v>
       </c>
     </row>
@@ -22312,8 +22312,8 @@
       <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
     </row>
     <row r="13" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -22328,8 +22328,8 @@
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
     </row>
     <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -22432,14 +22432,14 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
     </row>
     <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -22701,14 +22701,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -22911,14 +22911,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
@@ -23101,14 +23101,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="108" t="s">
+      <c r="A54" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="108"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
     </row>
     <row r="55" spans="1:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
@@ -23271,14 +23271,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="108" t="s">
+      <c r="A63" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="108"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="108"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="108"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="113"/>
     </row>
     <row r="64" spans="1:6" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
@@ -23293,10 +23293,10 @@
       <c r="D64" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="114" t="s">
+      <c r="E64" s="121" t="s">
         <v>504</v>
       </c>
-      <c r="F64" s="114" t="s">
+      <c r="F64" s="121" t="s">
         <v>505</v>
       </c>
     </row>
@@ -23313,8 +23313,8 @@
       <c r="D65" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="114"/>
-      <c r="F65" s="114"/>
+      <c r="E65" s="121"/>
+      <c r="F65" s="121"/>
     </row>
     <row r="66" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
@@ -23377,14 +23377,14 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="108" t="s">
+      <c r="A69" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="108"/>
-      <c r="C69" s="108"/>
-      <c r="D69" s="108"/>
-      <c r="E69" s="108"/>
-      <c r="F69" s="108"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="113"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="113"/>
     </row>
     <row r="70" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
@@ -23399,10 +23399,10 @@
       <c r="D70" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="114" t="s">
+      <c r="E70" s="121" t="s">
         <v>506</v>
       </c>
-      <c r="F70" s="114" t="s">
+      <c r="F70" s="121" t="s">
         <v>507</v>
       </c>
       <c r="G70" s="63"/>
@@ -23420,8 +23420,8 @@
       <c r="D71" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="114"/>
-      <c r="F71" s="114"/>
+      <c r="E71" s="121"/>
+      <c r="F71" s="121"/>
       <c r="G71" s="63"/>
     </row>
     <row r="72" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -23626,14 +23626,14 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="108" t="s">
+      <c r="A82" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="108"/>
-      <c r="C82" s="108"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="108"/>
-      <c r="F82" s="108"/>
+      <c r="B82" s="113"/>
+      <c r="C82" s="113"/>
+      <c r="D82" s="113"/>
+      <c r="E82" s="113"/>
+      <c r="F82" s="113"/>
     </row>
     <row r="83" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
@@ -23797,14 +23797,14 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="108" t="s">
+      <c r="A91" s="113" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="108"/>
-      <c r="F91" s="108"/>
+      <c r="B91" s="113"/>
+      <c r="C91" s="113"/>
+      <c r="D91" s="113"/>
+      <c r="E91" s="113"/>
+      <c r="F91" s="113"/>
     </row>
     <row r="92" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
@@ -24007,14 +24007,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="108" t="s">
+      <c r="A102" s="113" t="s">
         <v>280</v>
       </c>
-      <c r="B102" s="108"/>
-      <c r="C102" s="108"/>
-      <c r="D102" s="108"/>
-      <c r="E102" s="108"/>
-      <c r="F102" s="108"/>
+      <c r="B102" s="113"/>
+      <c r="C102" s="113"/>
+      <c r="D102" s="113"/>
+      <c r="E102" s="113"/>
+      <c r="F102" s="113"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
@@ -24217,14 +24217,14 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="108" t="s">
+      <c r="A113" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="B113" s="108"/>
-      <c r="C113" s="108"/>
-      <c r="D113" s="108"/>
-      <c r="E113" s="108"/>
-      <c r="F113" s="108"/>
+      <c r="B113" s="113"/>
+      <c r="C113" s="113"/>
+      <c r="D113" s="113"/>
+      <c r="E113" s="113"/>
+      <c r="F113" s="113"/>
     </row>
     <row r="114" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
@@ -24239,10 +24239,10 @@
       <c r="D114" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="118" t="s">
+      <c r="E114" s="124" t="s">
         <v>513</v>
       </c>
-      <c r="F114" s="111" t="s">
+      <c r="F114" s="114" t="s">
         <v>514</v>
       </c>
     </row>
@@ -24259,8 +24259,8 @@
       <c r="D115" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="118"/>
-      <c r="F115" s="111"/>
+      <c r="E115" s="124"/>
+      <c r="F115" s="114"/>
     </row>
     <row r="116" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -24443,14 +24443,14 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="108" t="s">
+      <c r="A125" s="113" t="s">
         <v>332</v>
       </c>
-      <c r="B125" s="108"/>
-      <c r="C125" s="108"/>
-      <c r="D125" s="108"/>
-      <c r="E125" s="108"/>
-      <c r="F125" s="108"/>
+      <c r="B125" s="113"/>
+      <c r="C125" s="113"/>
+      <c r="D125" s="113"/>
+      <c r="E125" s="113"/>
+      <c r="F125" s="113"/>
     </row>
     <row r="126" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
@@ -24465,10 +24465,10 @@
       <c r="D126" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="111" t="s">
+      <c r="E126" s="114" t="s">
         <v>517</v>
       </c>
-      <c r="F126" s="112" t="s">
+      <c r="F126" s="115" t="s">
         <v>518</v>
       </c>
     </row>
@@ -24485,8 +24485,8 @@
       <c r="D127" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="111"/>
-      <c r="F127" s="113"/>
+      <c r="E127" s="114"/>
+      <c r="F127" s="116"/>
     </row>
     <row r="128" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -24548,14 +24548,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="108" t="s">
+      <c r="A131" s="113" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="108"/>
-      <c r="C131" s="108"/>
-      <c r="D131" s="108"/>
-      <c r="E131" s="108"/>
-      <c r="F131" s="108"/>
+      <c r="B131" s="113"/>
+      <c r="C131" s="113"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="113"/>
+      <c r="F131" s="113"/>
     </row>
     <row r="132" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
@@ -24570,10 +24570,10 @@
       <c r="D132" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="111" t="s">
+      <c r="E132" s="114" t="s">
         <v>519</v>
       </c>
-      <c r="F132" s="111" t="s">
+      <c r="F132" s="114" t="s">
         <v>520</v>
       </c>
     </row>
@@ -24590,8 +24590,8 @@
       <c r="D133" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="111"/>
-      <c r="F133" s="111"/>
+      <c r="E133" s="114"/>
+      <c r="F133" s="114"/>
     </row>
     <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="24" t="s">
@@ -24606,8 +24606,8 @@
       <c r="D134" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E134" s="111"/>
-      <c r="F134" s="111"/>
+      <c r="E134" s="114"/>
+      <c r="F134" s="114"/>
     </row>
     <row r="135" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A135" s="24" t="s">
@@ -24750,14 +24750,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="108" t="s">
+      <c r="A142" s="113" t="s">
         <v>368</v>
       </c>
-      <c r="B142" s="108"/>
-      <c r="C142" s="108"/>
-      <c r="D142" s="108"/>
-      <c r="E142" s="108"/>
-      <c r="F142" s="108"/>
+      <c r="B142" s="113"/>
+      <c r="C142" s="113"/>
+      <c r="D142" s="113"/>
+      <c r="E142" s="113"/>
+      <c r="F142" s="113"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
@@ -24775,7 +24775,7 @@
       <c r="E143" s="29" t="s">
         <v>521</v>
       </c>
-      <c r="F143" s="114" t="s">
+      <c r="F143" s="121" t="s">
         <v>379</v>
       </c>
     </row>
@@ -24795,7 +24795,7 @@
       <c r="E144" s="29" t="s">
         <v>522</v>
       </c>
-      <c r="F144" s="114"/>
+      <c r="F144" s="121"/>
     </row>
     <row r="145" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A145" s="24" t="s">
@@ -24910,10 +24910,10 @@
       <c r="D150" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E150" s="112" t="s">
+      <c r="E150" s="115" t="s">
         <v>528</v>
       </c>
-      <c r="F150" s="112" t="s">
+      <c r="F150" s="115" t="s">
         <v>529</v>
       </c>
       <c r="G150" s="68"/>
@@ -24931,8 +24931,8 @@
       <c r="D151" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E151" s="113"/>
-      <c r="F151" s="113"/>
+      <c r="E151" s="116"/>
+      <c r="F151" s="116"/>
       <c r="G151" s="63"/>
     </row>
     <row r="152" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -24948,10 +24948,10 @@
       <c r="D152" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="119" t="s">
+      <c r="E152" s="123" t="s">
         <v>530</v>
       </c>
-      <c r="F152" s="119" t="s">
+      <c r="F152" s="123" t="s">
         <v>502</v>
       </c>
     </row>
@@ -24968,8 +24968,8 @@
       <c r="D153" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="119"/>
-      <c r="F153" s="119"/>
+      <c r="E153" s="123"/>
+      <c r="F153" s="123"/>
     </row>
     <row r="154" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A154" s="24" t="s">
@@ -24992,14 +24992,14 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="108" t="s">
+      <c r="A155" s="113" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="108"/>
-      <c r="C155" s="108"/>
-      <c r="D155" s="108"/>
-      <c r="E155" s="108"/>
-      <c r="F155" s="108"/>
+      <c r="B155" s="113"/>
+      <c r="C155" s="113"/>
+      <c r="D155" s="113"/>
+      <c r="E155" s="113"/>
+      <c r="F155" s="113"/>
     </row>
     <row r="156" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
@@ -25243,22 +25243,12 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="F132:F134"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A33:F33"/>
@@ -25272,12 +25262,22 @@
     <mergeCell ref="F70:F71"/>
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="F132:F134"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="F150:F151"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25319,14 +25319,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
     </row>
     <row r="3" spans="1:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -25341,10 +25341,10 @@
       <c r="D3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="121" t="s">
         <v>532</v>
       </c>
-      <c r="F3" s="116" t="s">
+      <c r="F3" s="119" t="s">
         <v>533</v>
       </c>
     </row>
@@ -25361,8 +25361,8 @@
       <c r="D4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="117"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="120"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -25465,14 +25465,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
     </row>
     <row r="11" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
@@ -25487,10 +25487,10 @@
       <c r="D11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="116" t="s">
+      <c r="E11" s="119" t="s">
         <v>537</v>
       </c>
-      <c r="F11" s="116" t="s">
+      <c r="F11" s="119" t="s">
         <v>538</v>
       </c>
     </row>
@@ -25507,8 +25507,8 @@
       <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
     </row>
     <row r="13" spans="1:6" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -25523,8 +25523,8 @@
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
     </row>
     <row r="14" spans="1:6" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -25627,14 +25627,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
     </row>
     <row r="20" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -25895,14 +25895,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -26105,14 +26105,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
@@ -26295,14 +26295,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="108" t="s">
+      <c r="A54" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="108"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
     </row>
     <row r="55" spans="1:6" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
@@ -26457,14 +26457,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="108" t="s">
+      <c r="A63" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="108"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="108"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="108"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="113"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
@@ -26567,14 +26567,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="108" t="s">
+      <c r="A69" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="108"/>
-      <c r="C69" s="108"/>
-      <c r="D69" s="108"/>
-      <c r="E69" s="108"/>
-      <c r="F69" s="108"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="113"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="113"/>
     </row>
     <row r="70" spans="1:6" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
@@ -26589,10 +26589,10 @@
       <c r="D70" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="116" t="s">
+      <c r="E70" s="119" t="s">
         <v>548</v>
       </c>
-      <c r="F70" s="112" t="s">
+      <c r="F70" s="115" t="s">
         <v>549</v>
       </c>
     </row>
@@ -26609,8 +26609,8 @@
       <c r="D71" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="117"/>
-      <c r="F71" s="123"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="126"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -26813,14 +26813,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="108" t="s">
+      <c r="A82" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="108"/>
-      <c r="C82" s="108"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="108"/>
-      <c r="F82" s="108"/>
+      <c r="B82" s="113"/>
+      <c r="C82" s="113"/>
+      <c r="D82" s="113"/>
+      <c r="E82" s="113"/>
+      <c r="F82" s="113"/>
     </row>
     <row r="83" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
@@ -26983,14 +26983,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="108" t="s">
+      <c r="A91" s="113" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="108"/>
-      <c r="F91" s="108"/>
+      <c r="B91" s="113"/>
+      <c r="C91" s="113"/>
+      <c r="D91" s="113"/>
+      <c r="E91" s="113"/>
+      <c r="F91" s="113"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
@@ -27189,14 +27189,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="108" t="s">
+      <c r="A102" s="113" t="s">
         <v>280</v>
       </c>
-      <c r="B102" s="108"/>
-      <c r="C102" s="108"/>
-      <c r="D102" s="108"/>
-      <c r="E102" s="108"/>
-      <c r="F102" s="108"/>
+      <c r="B102" s="113"/>
+      <c r="C102" s="113"/>
+      <c r="D102" s="113"/>
+      <c r="E102" s="113"/>
+      <c r="F102" s="113"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
@@ -27399,14 +27399,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="108" t="s">
+      <c r="A113" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="B113" s="108"/>
-      <c r="C113" s="108"/>
-      <c r="D113" s="108"/>
-      <c r="E113" s="108"/>
-      <c r="F113" s="108"/>
+      <c r="B113" s="113"/>
+      <c r="C113" s="113"/>
+      <c r="D113" s="113"/>
+      <c r="E113" s="113"/>
+      <c r="F113" s="113"/>
     </row>
     <row r="114" spans="1:6" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
@@ -27629,14 +27629,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="108" t="s">
+      <c r="A125" s="113" t="s">
         <v>332</v>
       </c>
-      <c r="B125" s="108"/>
-      <c r="C125" s="108"/>
-      <c r="D125" s="108"/>
-      <c r="E125" s="108"/>
-      <c r="F125" s="108"/>
+      <c r="B125" s="113"/>
+      <c r="C125" s="113"/>
+      <c r="D125" s="113"/>
+      <c r="E125" s="113"/>
+      <c r="F125" s="113"/>
     </row>
     <row r="126" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
@@ -27651,10 +27651,10 @@
       <c r="D126" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="111" t="s">
+      <c r="E126" s="114" t="s">
         <v>558</v>
       </c>
-      <c r="F126" s="112" t="s">
+      <c r="F126" s="115" t="s">
         <v>559</v>
       </c>
     </row>
@@ -27671,8 +27671,8 @@
       <c r="D127" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="111"/>
-      <c r="F127" s="113"/>
+      <c r="E127" s="114"/>
+      <c r="F127" s="116"/>
     </row>
     <row r="128" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -27733,14 +27733,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="108" t="s">
+      <c r="A131" s="113" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="108"/>
-      <c r="C131" s="108"/>
-      <c r="D131" s="108"/>
-      <c r="E131" s="108"/>
-      <c r="F131" s="108"/>
+      <c r="B131" s="113"/>
+      <c r="C131" s="113"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="113"/>
+      <c r="F131" s="113"/>
     </row>
     <row r="132" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
@@ -27755,10 +27755,10 @@
       <c r="D132" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="111" t="s">
+      <c r="E132" s="114" t="s">
         <v>560</v>
       </c>
-      <c r="F132" s="112" t="s">
+      <c r="F132" s="115" t="s">
         <v>561</v>
       </c>
     </row>
@@ -27775,8 +27775,8 @@
       <c r="D133" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="111"/>
-      <c r="F133" s="113"/>
+      <c r="E133" s="114"/>
+      <c r="F133" s="116"/>
     </row>
     <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="24" t="s">
@@ -27939,14 +27939,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="108" t="s">
+      <c r="A142" s="113" t="s">
         <v>368</v>
       </c>
-      <c r="B142" s="108"/>
-      <c r="C142" s="108"/>
-      <c r="D142" s="108"/>
-      <c r="E142" s="108"/>
-      <c r="F142" s="108"/>
+      <c r="B142" s="113"/>
+      <c r="C142" s="113"/>
+      <c r="D142" s="113"/>
+      <c r="E142" s="113"/>
+      <c r="F142" s="113"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
@@ -28189,14 +28189,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="108" t="s">
+      <c r="A155" s="113" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="108"/>
-      <c r="C155" s="108"/>
-      <c r="D155" s="108"/>
-      <c r="E155" s="108"/>
-      <c r="F155" s="108"/>
+      <c r="B155" s="113"/>
+      <c r="C155" s="113"/>
+      <c r="D155" s="113"/>
+      <c r="E155" s="113"/>
+      <c r="F155" s="113"/>
     </row>
     <row r="156" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
@@ -28271,10 +28271,10 @@
       <c r="D159" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E159" s="120" t="s">
+      <c r="E159" s="127" t="s">
         <v>571</v>
       </c>
-      <c r="F159" s="121" t="s">
+      <c r="F159" s="128" t="s">
         <v>572</v>
       </c>
     </row>
@@ -28291,8 +28291,8 @@
       <c r="D160" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E160" s="120"/>
-      <c r="F160" s="122"/>
+      <c r="E160" s="127"/>
+      <c r="F160" s="129"/>
     </row>
     <row r="161" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A161" s="24" t="s">
@@ -28436,12 +28436,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
     <mergeCell ref="A113:F113"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A33:F33"/>
@@ -28454,16 +28458,12 @@
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28504,14 +28504,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
     </row>
     <row r="3" spans="1:6" ht="216" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -28654,14 +28654,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
     </row>
     <row r="11" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
@@ -28676,10 +28676,10 @@
       <c r="D11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="114" t="s">
+      <c r="E11" s="121" t="s">
         <v>889</v>
       </c>
-      <c r="F11" s="114" t="s">
+      <c r="F11" s="121" t="s">
         <v>890</v>
       </c>
     </row>
@@ -28696,8 +28696,8 @@
       <c r="D12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
     </row>
     <row r="13" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -28820,14 +28820,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
     </row>
     <row r="20" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -28842,10 +28842,10 @@
       <c r="D20" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="111" t="s">
+      <c r="E20" s="114" t="s">
         <v>895</v>
       </c>
-      <c r="F20" s="111" t="s">
+      <c r="F20" s="114" t="s">
         <v>896</v>
       </c>
     </row>
@@ -28862,8 +28862,8 @@
       <c r="D21" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
     </row>
     <row r="22" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -29084,14 +29084,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
     </row>
     <row r="34" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -29294,14 +29294,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
     </row>
     <row r="45" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
@@ -29484,14 +29484,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="108" t="s">
+      <c r="A54" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="108"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
     </row>
     <row r="55" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
@@ -29526,10 +29526,10 @@
       <c r="D56" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="114" t="s">
+      <c r="E56" s="121" t="s">
         <v>907</v>
       </c>
-      <c r="F56" s="114" t="s">
+      <c r="F56" s="121" t="s">
         <v>908</v>
       </c>
     </row>
@@ -29546,8 +29546,8 @@
       <c r="D57" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="114"/>
-      <c r="F57" s="114"/>
+      <c r="E57" s="121"/>
+      <c r="F57" s="121"/>
     </row>
     <row r="58" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
@@ -29650,14 +29650,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="108" t="s">
+      <c r="A63" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="108"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="108"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="108"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="113"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
@@ -29760,14 +29760,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="108" t="s">
+      <c r="A69" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="108"/>
-      <c r="C69" s="108"/>
-      <c r="D69" s="108"/>
-      <c r="E69" s="108"/>
-      <c r="F69" s="108"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="113"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="113"/>
     </row>
     <row r="70" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
@@ -29782,10 +29782,10 @@
       <c r="D70" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="114" t="s">
+      <c r="E70" s="121" t="s">
         <v>911</v>
       </c>
-      <c r="F70" s="114" t="s">
+      <c r="F70" s="121" t="s">
         <v>912</v>
       </c>
     </row>
@@ -29802,8 +29802,8 @@
       <c r="D71" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="114"/>
-      <c r="F71" s="114"/>
+      <c r="E71" s="121"/>
+      <c r="F71" s="121"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -29858,10 +29858,10 @@
       <c r="D74" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="111" t="s">
+      <c r="E74" s="114" t="s">
         <v>913</v>
       </c>
-      <c r="F74" s="111" t="s">
+      <c r="F74" s="114" t="s">
         <v>914</v>
       </c>
     </row>
@@ -29878,8 +29878,8 @@
       <c r="D75" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="111"/>
-      <c r="F75" s="111"/>
+      <c r="E75" s="114"/>
+      <c r="F75" s="114"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
@@ -30002,14 +30002,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="108" t="s">
+      <c r="A82" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="108"/>
-      <c r="C82" s="108"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="108"/>
-      <c r="F82" s="108"/>
+      <c r="B82" s="113"/>
+      <c r="C82" s="113"/>
+      <c r="D82" s="113"/>
+      <c r="E82" s="113"/>
+      <c r="F82" s="113"/>
     </row>
     <row r="83" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
@@ -30172,14 +30172,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="108" t="s">
+      <c r="A91" s="113" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="108"/>
-      <c r="F91" s="108"/>
+      <c r="B91" s="113"/>
+      <c r="C91" s="113"/>
+      <c r="D91" s="113"/>
+      <c r="E91" s="113"/>
+      <c r="F91" s="113"/>
     </row>
     <row r="92" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
@@ -30214,10 +30214,10 @@
       <c r="D93" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="112" t="s">
+      <c r="E93" s="115" t="s">
         <v>919</v>
       </c>
-      <c r="F93" s="112" t="s">
+      <c r="F93" s="115" t="s">
         <v>920</v>
       </c>
     </row>
@@ -30234,8 +30234,8 @@
       <c r="D94" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="113"/>
-      <c r="F94" s="113"/>
+      <c r="E94" s="116"/>
+      <c r="F94" s="116"/>
     </row>
     <row r="95" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A95" s="24" t="s">
@@ -30378,14 +30378,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="108" t="s">
+      <c r="A102" s="113" t="s">
         <v>280</v>
       </c>
-      <c r="B102" s="108"/>
-      <c r="C102" s="108"/>
-      <c r="D102" s="108"/>
-      <c r="E102" s="108"/>
-      <c r="F102" s="108"/>
+      <c r="B102" s="113"/>
+      <c r="C102" s="113"/>
+      <c r="D102" s="113"/>
+      <c r="E102" s="113"/>
+      <c r="F102" s="113"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
@@ -30588,14 +30588,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="108" t="s">
+      <c r="A113" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="B113" s="108"/>
-      <c r="C113" s="108"/>
-      <c r="D113" s="108"/>
-      <c r="E113" s="108"/>
-      <c r="F113" s="108"/>
+      <c r="B113" s="113"/>
+      <c r="C113" s="113"/>
+      <c r="D113" s="113"/>
+      <c r="E113" s="113"/>
+      <c r="F113" s="113"/>
     </row>
     <row r="114" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
@@ -30610,10 +30610,10 @@
       <c r="D114" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="111" t="s">
+      <c r="E114" s="114" t="s">
         <v>929</v>
       </c>
-      <c r="F114" s="111" t="s">
+      <c r="F114" s="114" t="s">
         <v>930</v>
       </c>
     </row>
@@ -30630,8 +30630,8 @@
       <c r="D115" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="111"/>
-      <c r="F115" s="111"/>
+      <c r="E115" s="114"/>
+      <c r="F115" s="114"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -30814,14 +30814,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="108" t="s">
+      <c r="A125" s="113" t="s">
         <v>332</v>
       </c>
-      <c r="B125" s="108"/>
-      <c r="C125" s="108"/>
-      <c r="D125" s="108"/>
-      <c r="E125" s="108"/>
-      <c r="F125" s="108"/>
+      <c r="B125" s="113"/>
+      <c r="C125" s="113"/>
+      <c r="D125" s="113"/>
+      <c r="E125" s="113"/>
+      <c r="F125" s="113"/>
     </row>
     <row r="126" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
@@ -30836,10 +30836,10 @@
       <c r="D126" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="125" t="s">
+      <c r="E126" s="130" t="s">
         <v>932</v>
       </c>
-      <c r="F126" s="125" t="s">
+      <c r="F126" s="130" t="s">
         <v>933</v>
       </c>
     </row>
@@ -30856,8 +30856,8 @@
       <c r="D127" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="126"/>
-      <c r="F127" s="126"/>
+      <c r="E127" s="131"/>
+      <c r="F127" s="131"/>
     </row>
     <row r="128" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -30920,14 +30920,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="108" t="s">
+      <c r="A131" s="113" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="108"/>
-      <c r="C131" s="108"/>
-      <c r="D131" s="108"/>
-      <c r="E131" s="108"/>
-      <c r="F131" s="108"/>
+      <c r="B131" s="113"/>
+      <c r="C131" s="113"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="113"/>
+      <c r="F131" s="113"/>
     </row>
     <row r="132" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
@@ -31130,14 +31130,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="108" t="s">
+      <c r="A142" s="113" t="s">
         <v>368</v>
       </c>
-      <c r="B142" s="108"/>
-      <c r="C142" s="108"/>
-      <c r="D142" s="108"/>
-      <c r="E142" s="108"/>
-      <c r="F142" s="108"/>
+      <c r="B142" s="113"/>
+      <c r="C142" s="113"/>
+      <c r="D142" s="113"/>
+      <c r="E142" s="113"/>
+      <c r="F142" s="113"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
@@ -31175,7 +31175,7 @@
       <c r="E144" s="86" t="s">
         <v>946</v>
       </c>
-      <c r="F144" s="114" t="s">
+      <c r="F144" s="121" t="s">
         <v>40</v>
       </c>
     </row>
@@ -31195,7 +31195,7 @@
       <c r="E145" s="86" t="s">
         <v>947</v>
       </c>
-      <c r="F145" s="114"/>
+      <c r="F145" s="121"/>
     </row>
     <row r="146" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A146" s="24" t="s">
@@ -31330,10 +31330,10 @@
       <c r="D152" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="125" t="s">
+      <c r="E152" s="130" t="s">
         <v>950</v>
       </c>
-      <c r="F152" s="125" t="s">
+      <c r="F152" s="130" t="s">
         <v>502</v>
       </c>
     </row>
@@ -31350,8 +31350,8 @@
       <c r="D153" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="126"/>
-      <c r="F153" s="126"/>
+      <c r="E153" s="131"/>
+      <c r="F153" s="131"/>
     </row>
     <row r="154" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A154" s="24" t="s">
@@ -31372,14 +31372,14 @@
       <c r="F154" s="88"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="108" t="s">
+      <c r="A155" s="113" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="108"/>
-      <c r="C155" s="108"/>
-      <c r="D155" s="108"/>
-      <c r="E155" s="108"/>
-      <c r="F155" s="108"/>
+      <c r="B155" s="113"/>
+      <c r="C155" s="113"/>
+      <c r="D155" s="113"/>
+      <c r="E155" s="113"/>
+      <c r="F155" s="113"/>
     </row>
     <row r="156" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
@@ -31619,15 +31619,19 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
     <mergeCell ref="E114:E115"/>
     <mergeCell ref="F114:F115"/>
     <mergeCell ref="A69:F69"/>
@@ -31641,19 +31645,15 @@
     <mergeCell ref="F93:F94"/>
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="F144:F145"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -31664,8 +31664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4716598-4E81-47BF-9B1B-F47650125005}">
   <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F123" sqref="F123"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31696,14 +31696,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
     </row>
     <row r="3" spans="1:6" ht="128.55000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -31846,14 +31846,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
     </row>
     <row r="11" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
@@ -31868,10 +31868,10 @@
       <c r="D11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="116" t="s">
+      <c r="E11" s="119" t="s">
         <v>835</v>
       </c>
-      <c r="F11" s="114" t="s">
+      <c r="F11" s="121" t="s">
         <v>836</v>
       </c>
     </row>
@@ -31888,8 +31888,8 @@
       <c r="D12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="117"/>
-      <c r="F12" s="114"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="121"/>
     </row>
     <row r="13" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -32012,14 +32012,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
     </row>
     <row r="20" spans="1:6" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -32034,10 +32034,10 @@
       <c r="D20" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="111" t="s">
+      <c r="E20" s="114" t="s">
         <v>970</v>
       </c>
-      <c r="F20" s="111" t="s">
+      <c r="F20" s="114" t="s">
         <v>971</v>
       </c>
     </row>
@@ -32054,8 +32054,8 @@
       <c r="D21" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
     </row>
     <row r="22" spans="1:6" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -32278,14 +32278,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -32488,14 +32488,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
@@ -32678,14 +32678,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="108" t="s">
+      <c r="A54" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="108"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="103" t="s">
@@ -32848,14 +32848,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="108" t="s">
+      <c r="A63" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="108"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="108"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="108"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="113"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
@@ -32958,14 +32958,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="108" t="s">
+      <c r="A69" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="108"/>
-      <c r="C69" s="108"/>
-      <c r="D69" s="108"/>
-      <c r="E69" s="108"/>
-      <c r="F69" s="108"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="113"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="113"/>
     </row>
     <row r="70" spans="1:6" ht="216" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
@@ -32980,10 +32980,10 @@
       <c r="D70" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="116" t="s">
+      <c r="E70" s="119" t="s">
         <v>848</v>
       </c>
-      <c r="F70" s="116" t="s">
+      <c r="F70" s="119" t="s">
         <v>849</v>
       </c>
     </row>
@@ -33000,8 +33000,8 @@
       <c r="D71" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="117"/>
-      <c r="F71" s="117"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="120"/>
     </row>
     <row r="72" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -33056,10 +33056,10 @@
       <c r="D74" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="112" t="s">
+      <c r="E74" s="115" t="s">
         <v>852</v>
       </c>
-      <c r="F74" s="112" t="s">
+      <c r="F74" s="115" t="s">
         <v>851</v>
       </c>
     </row>
@@ -33076,8 +33076,8 @@
       <c r="D75" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="113"/>
-      <c r="F75" s="113"/>
+      <c r="E75" s="116"/>
+      <c r="F75" s="116"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
@@ -33200,14 +33200,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="108" t="s">
+      <c r="A82" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="108"/>
-      <c r="C82" s="108"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="108"/>
-      <c r="F82" s="108"/>
+      <c r="B82" s="113"/>
+      <c r="C82" s="113"/>
+      <c r="D82" s="113"/>
+      <c r="E82" s="113"/>
+      <c r="F82" s="113"/>
     </row>
     <row r="83" spans="1:6" ht="98.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
@@ -33370,14 +33370,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="108" t="s">
+      <c r="A91" s="113" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="108"/>
-      <c r="F91" s="108"/>
+      <c r="B91" s="113"/>
+      <c r="C91" s="113"/>
+      <c r="D91" s="113"/>
+      <c r="E91" s="113"/>
+      <c r="F91" s="113"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
@@ -33580,14 +33580,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="108" t="s">
+      <c r="A102" s="113" t="s">
         <v>280</v>
       </c>
-      <c r="B102" s="108"/>
-      <c r="C102" s="108"/>
-      <c r="D102" s="108"/>
-      <c r="E102" s="108"/>
-      <c r="F102" s="108"/>
+      <c r="B102" s="113"/>
+      <c r="C102" s="113"/>
+      <c r="D102" s="113"/>
+      <c r="E102" s="113"/>
+      <c r="F102" s="113"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
@@ -33790,14 +33790,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="108" t="s">
+      <c r="A113" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="B113" s="108"/>
-      <c r="C113" s="108"/>
-      <c r="D113" s="108"/>
-      <c r="E113" s="108"/>
-      <c r="F113" s="108"/>
+      <c r="B113" s="113"/>
+      <c r="C113" s="113"/>
+      <c r="D113" s="113"/>
+      <c r="E113" s="113"/>
+      <c r="F113" s="113"/>
     </row>
     <row r="114" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
@@ -33812,10 +33812,10 @@
       <c r="D114" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="111" t="s">
+      <c r="E114" s="114" t="s">
         <v>861</v>
       </c>
-      <c r="F114" s="112" t="s">
+      <c r="F114" s="115" t="s">
         <v>862</v>
       </c>
     </row>
@@ -33832,8 +33832,8 @@
       <c r="D115" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="111"/>
-      <c r="F115" s="113"/>
+      <c r="E115" s="114"/>
+      <c r="F115" s="116"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -33976,22 +33976,22 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="127" t="s">
+      <c r="A123" s="108" t="s">
         <v>328</v>
       </c>
-      <c r="B123" s="128" t="s">
+      <c r="B123" s="109" t="s">
         <v>329</v>
       </c>
-      <c r="C123" s="129" t="s">
+      <c r="C123" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="D123" s="129" t="s">
-        <v>6</v>
-      </c>
-      <c r="E123" s="130" t="s">
+      <c r="D123" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="111" t="s">
         <v>972</v>
       </c>
-      <c r="F123" s="131" t="s">
+      <c r="F123" s="112" t="s">
         <v>973</v>
       </c>
     </row>
@@ -34016,14 +34016,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="108" t="s">
+      <c r="A125" s="113" t="s">
         <v>332</v>
       </c>
-      <c r="B125" s="108"/>
-      <c r="C125" s="108"/>
-      <c r="D125" s="108"/>
-      <c r="E125" s="108"/>
-      <c r="F125" s="108"/>
+      <c r="B125" s="113"/>
+      <c r="C125" s="113"/>
+      <c r="D125" s="113"/>
+      <c r="E125" s="113"/>
+      <c r="F125" s="113"/>
     </row>
     <row r="126" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
@@ -34038,10 +34038,10 @@
       <c r="D126" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="125" t="s">
+      <c r="E126" s="130" t="s">
         <v>865</v>
       </c>
-      <c r="F126" s="125" t="s">
+      <c r="F126" s="130" t="s">
         <v>866</v>
       </c>
     </row>
@@ -34058,8 +34058,8 @@
       <c r="D127" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="126"/>
-      <c r="F127" s="126"/>
+      <c r="E127" s="131"/>
+      <c r="F127" s="131"/>
     </row>
     <row r="128" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -34120,14 +34120,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="108" t="s">
+      <c r="A131" s="113" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="108"/>
-      <c r="C131" s="108"/>
-      <c r="D131" s="108"/>
-      <c r="E131" s="108"/>
-      <c r="F131" s="108"/>
+      <c r="B131" s="113"/>
+      <c r="C131" s="113"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="113"/>
+      <c r="F131" s="113"/>
     </row>
     <row r="132" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
@@ -34330,14 +34330,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="108" t="s">
+      <c r="A142" s="113" t="s">
         <v>368</v>
       </c>
-      <c r="B142" s="108"/>
-      <c r="C142" s="108"/>
-      <c r="D142" s="108"/>
-      <c r="E142" s="108"/>
-      <c r="F142" s="108"/>
+      <c r="B142" s="113"/>
+      <c r="C142" s="113"/>
+      <c r="D142" s="113"/>
+      <c r="E142" s="113"/>
+      <c r="F142" s="113"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
@@ -34532,10 +34532,10 @@
       <c r="D152" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="125" t="s">
+      <c r="E152" s="130" t="s">
         <v>878</v>
       </c>
-      <c r="F152" s="125" t="s">
+      <c r="F152" s="130" t="s">
         <v>502</v>
       </c>
     </row>
@@ -34552,8 +34552,8 @@
       <c r="D153" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="126"/>
-      <c r="F153" s="126"/>
+      <c r="E153" s="131"/>
+      <c r="F153" s="131"/>
     </row>
     <row r="154" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A154" s="24" t="s">
@@ -34576,14 +34576,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="108" t="s">
+      <c r="A155" s="113" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="108"/>
-      <c r="C155" s="108"/>
-      <c r="D155" s="108"/>
-      <c r="E155" s="108"/>
-      <c r="F155" s="108"/>
+      <c r="B155" s="113"/>
+      <c r="C155" s="113"/>
+      <c r="D155" s="113"/>
+      <c r="E155" s="113"/>
+      <c r="F155" s="113"/>
     </row>
     <row r="156" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
@@ -34827,6 +34827,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="E74:E75"/>
     <mergeCell ref="F152:F153"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="F114:F115"/>
@@ -34837,26 +34857,6 @@
     <mergeCell ref="E114:E115"/>
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="F70:F71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -34898,14 +34898,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
     </row>
     <row r="3" spans="1:6" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -34920,10 +34920,10 @@
       <c r="D3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="121" t="s">
         <v>767</v>
       </c>
-      <c r="F3" s="116" t="s">
+      <c r="F3" s="119" t="s">
         <v>768</v>
       </c>
     </row>
@@ -34940,8 +34940,8 @@
       <c r="D4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="117"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="120"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -35044,14 +35044,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
     </row>
     <row r="11" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
@@ -35066,10 +35066,10 @@
       <c r="D11" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="116" t="s">
+      <c r="E11" s="119" t="s">
         <v>773</v>
       </c>
-      <c r="F11" s="116" t="s">
+      <c r="F11" s="119" t="s">
         <v>774</v>
       </c>
     </row>
@@ -35086,8 +35086,8 @@
       <c r="D12" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
     </row>
     <row r="13" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -35102,8 +35102,8 @@
       <c r="D13" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
     </row>
     <row r="14" spans="1:6" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -35206,14 +35206,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
     </row>
     <row r="20" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -35228,10 +35228,10 @@
       <c r="D20" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="114" t="s">
+      <c r="E20" s="121" t="s">
         <v>777</v>
       </c>
-      <c r="F20" s="116" t="s">
+      <c r="F20" s="119" t="s">
         <v>778</v>
       </c>
     </row>
@@ -35248,8 +35248,8 @@
       <c r="D21" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="117"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="120"/>
     </row>
     <row r="22" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -35472,14 +35472,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -35682,14 +35682,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
@@ -35872,14 +35872,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="108" t="s">
+      <c r="A54" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="108"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
@@ -36042,14 +36042,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="108" t="s">
+      <c r="A63" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="108"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="108"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="108"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="113"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
@@ -36064,10 +36064,10 @@
       <c r="D64" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="116" t="s">
+      <c r="E64" s="119" t="s">
         <v>789</v>
       </c>
-      <c r="F64" s="116" t="s">
+      <c r="F64" s="119" t="s">
         <v>790</v>
       </c>
     </row>
@@ -36084,8 +36084,8 @@
       <c r="D65" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="117"/>
-      <c r="F65" s="117"/>
+      <c r="E65" s="120"/>
+      <c r="F65" s="120"/>
     </row>
     <row r="66" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
@@ -36148,14 +36148,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="108" t="s">
+      <c r="A69" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="108"/>
-      <c r="C69" s="108"/>
-      <c r="D69" s="108"/>
-      <c r="E69" s="108"/>
-      <c r="F69" s="108"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="113"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="113"/>
     </row>
     <row r="70" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
@@ -36170,10 +36170,10 @@
       <c r="D70" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="114" t="s">
+      <c r="E70" s="121" t="s">
         <v>791</v>
       </c>
-      <c r="F70" s="116" t="s">
+      <c r="F70" s="119" t="s">
         <v>792</v>
       </c>
     </row>
@@ -36190,8 +36190,8 @@
       <c r="D71" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="114"/>
-      <c r="F71" s="117"/>
+      <c r="E71" s="121"/>
+      <c r="F71" s="120"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -36246,10 +36246,10 @@
       <c r="D74" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="116" t="s">
+      <c r="E74" s="119" t="s">
         <v>793</v>
       </c>
-      <c r="F74" s="124" t="s">
+      <c r="F74" s="125" t="s">
         <v>211</v>
       </c>
     </row>
@@ -36266,8 +36266,8 @@
       <c r="D75" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="117"/>
-      <c r="F75" s="117"/>
+      <c r="E75" s="120"/>
+      <c r="F75" s="120"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
@@ -36390,14 +36390,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="108" t="s">
+      <c r="A82" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="108"/>
-      <c r="C82" s="108"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="108"/>
-      <c r="F82" s="108"/>
+      <c r="B82" s="113"/>
+      <c r="C82" s="113"/>
+      <c r="D82" s="113"/>
+      <c r="E82" s="113"/>
+      <c r="F82" s="113"/>
     </row>
     <row r="83" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
@@ -36560,14 +36560,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="108" t="s">
+      <c r="A91" s="113" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="108"/>
-      <c r="F91" s="108"/>
+      <c r="B91" s="113"/>
+      <c r="C91" s="113"/>
+      <c r="D91" s="113"/>
+      <c r="E91" s="113"/>
+      <c r="F91" s="113"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="103" t="s">
@@ -36770,14 +36770,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="108" t="s">
+      <c r="A102" s="113" t="s">
         <v>280</v>
       </c>
-      <c r="B102" s="108"/>
-      <c r="C102" s="108"/>
-      <c r="D102" s="108"/>
-      <c r="E102" s="108"/>
-      <c r="F102" s="108"/>
+      <c r="B102" s="113"/>
+      <c r="C102" s="113"/>
+      <c r="D102" s="113"/>
+      <c r="E102" s="113"/>
+      <c r="F102" s="113"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
@@ -36980,14 +36980,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="108" t="s">
+      <c r="A113" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="B113" s="108"/>
-      <c r="C113" s="108"/>
-      <c r="D113" s="108"/>
-      <c r="E113" s="108"/>
-      <c r="F113" s="108"/>
+      <c r="B113" s="113"/>
+      <c r="C113" s="113"/>
+      <c r="D113" s="113"/>
+      <c r="E113" s="113"/>
+      <c r="F113" s="113"/>
     </row>
     <row r="114" spans="1:6" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
@@ -37002,10 +37002,10 @@
       <c r="D114" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="116" t="s">
+      <c r="E114" s="119" t="s">
         <v>804</v>
       </c>
-      <c r="F114" s="116" t="s">
+      <c r="F114" s="119" t="s">
         <v>805</v>
       </c>
     </row>
@@ -37022,8 +37022,8 @@
       <c r="D115" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="117"/>
-      <c r="F115" s="117"/>
+      <c r="E115" s="120"/>
+      <c r="F115" s="120"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -37206,14 +37206,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="108" t="s">
+      <c r="A125" s="113" t="s">
         <v>332</v>
       </c>
-      <c r="B125" s="108"/>
-      <c r="C125" s="108"/>
-      <c r="D125" s="108"/>
-      <c r="E125" s="108"/>
-      <c r="F125" s="108"/>
+      <c r="B125" s="113"/>
+      <c r="C125" s="113"/>
+      <c r="D125" s="113"/>
+      <c r="E125" s="113"/>
+      <c r="F125" s="113"/>
     </row>
     <row r="126" spans="1:6" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
@@ -37228,10 +37228,10 @@
       <c r="D126" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="125" t="s">
+      <c r="E126" s="130" t="s">
         <v>806</v>
       </c>
-      <c r="F126" s="125" t="s">
+      <c r="F126" s="130" t="s">
         <v>807</v>
       </c>
     </row>
@@ -37248,8 +37248,8 @@
       <c r="D127" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="126"/>
-      <c r="F127" s="126"/>
+      <c r="E127" s="131"/>
+      <c r="F127" s="131"/>
     </row>
     <row r="128" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -37310,14 +37310,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="108" t="s">
+      <c r="A131" s="113" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="108"/>
-      <c r="C131" s="108"/>
-      <c r="D131" s="108"/>
-      <c r="E131" s="108"/>
-      <c r="F131" s="108"/>
+      <c r="B131" s="113"/>
+      <c r="C131" s="113"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="113"/>
+      <c r="F131" s="113"/>
     </row>
     <row r="132" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
@@ -37518,14 +37518,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="108" t="s">
+      <c r="A142" s="113" t="s">
         <v>368</v>
       </c>
-      <c r="B142" s="108"/>
-      <c r="C142" s="108"/>
-      <c r="D142" s="108"/>
-      <c r="E142" s="108"/>
-      <c r="F142" s="108"/>
+      <c r="B142" s="113"/>
+      <c r="C142" s="113"/>
+      <c r="D142" s="113"/>
+      <c r="E142" s="113"/>
+      <c r="F142" s="113"/>
     </row>
     <row r="143" spans="1:6" ht="129" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
@@ -37768,14 +37768,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="108" t="s">
+      <c r="A155" s="113" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="108"/>
-      <c r="C155" s="108"/>
-      <c r="D155" s="108"/>
-      <c r="E155" s="108"/>
-      <c r="F155" s="108"/>
+      <c r="B155" s="113"/>
+      <c r="C155" s="113"/>
+      <c r="D155" s="113"/>
+      <c r="E155" s="113"/>
+      <c r="F155" s="113"/>
     </row>
     <row r="156" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
@@ -38019,21 +38019,14 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="F70:F71"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="E20:E21"/>
@@ -38041,16 +38034,23 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="F11:F13"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A142:F142"/>
     <mergeCell ref="E114:E115"/>
     <mergeCell ref="E126:E127"/>
-    <mergeCell ref="A155:F155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -38093,14 +38093,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
     </row>
     <row r="3" spans="1:6" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -38115,10 +38115,10 @@
       <c r="D3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="119" t="s">
         <v>575</v>
       </c>
-      <c r="F3" s="116" t="s">
+      <c r="F3" s="119" t="s">
         <v>576</v>
       </c>
     </row>
@@ -38135,8 +38135,8 @@
       <c r="D4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -38239,14 +38239,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
     </row>
     <row r="11" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
@@ -38261,10 +38261,10 @@
       <c r="D11" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="116" t="s">
+      <c r="E11" s="119" t="s">
         <v>584</v>
       </c>
-      <c r="F11" s="116" t="s">
+      <c r="F11" s="119" t="s">
         <v>585</v>
       </c>
     </row>
@@ -38281,8 +38281,8 @@
       <c r="D12" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
     </row>
     <row r="13" spans="1:6" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -38297,8 +38297,8 @@
       <c r="D13" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
     </row>
     <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -38313,8 +38313,8 @@
       <c r="D14" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
     </row>
     <row r="15" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
@@ -38397,14 +38397,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="108" t="s">
+      <c r="A19" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
     </row>
     <row r="20" spans="1:6" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -38419,10 +38419,10 @@
       <c r="D20" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="116" t="s">
+      <c r="E20" s="119" t="s">
         <v>586</v>
       </c>
-      <c r="F20" s="116" t="s">
+      <c r="F20" s="119" t="s">
         <v>587</v>
       </c>
     </row>
@@ -38439,8 +38439,8 @@
       <c r="D21" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
     </row>
     <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -38663,14 +38663,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="113" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -38871,14 +38871,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="108" t="s">
+      <c r="A44" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
     </row>
     <row r="45" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
@@ -39061,14 +39061,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="108" t="s">
+      <c r="A54" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="108"/>
-      <c r="C54" s="108"/>
-      <c r="D54" s="108"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
@@ -39231,14 +39231,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="108" t="s">
+      <c r="A63" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="108"/>
-      <c r="C63" s="108"/>
-      <c r="D63" s="108"/>
-      <c r="E63" s="108"/>
-      <c r="F63" s="108"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="113"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
@@ -39341,14 +39341,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="108" t="s">
+      <c r="A69" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="108"/>
-      <c r="C69" s="108"/>
-      <c r="D69" s="108"/>
-      <c r="E69" s="108"/>
-      <c r="F69" s="108"/>
+      <c r="B69" s="113"/>
+      <c r="C69" s="113"/>
+      <c r="D69" s="113"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="113"/>
     </row>
     <row r="70" spans="1:6" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
@@ -39363,10 +39363,10 @@
       <c r="D70" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="116" t="s">
+      <c r="E70" s="119" t="s">
         <v>595</v>
       </c>
-      <c r="F70" s="116" t="s">
+      <c r="F70" s="119" t="s">
         <v>596</v>
       </c>
     </row>
@@ -39383,8 +39383,8 @@
       <c r="D71" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="117"/>
-      <c r="F71" s="117"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="120"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -39439,10 +39439,10 @@
       <c r="D74" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="111" t="s">
+      <c r="E74" s="114" t="s">
         <v>598</v>
       </c>
-      <c r="F74" s="111" t="s">
+      <c r="F74" s="114" t="s">
         <v>598</v>
       </c>
     </row>
@@ -39459,8 +39459,8 @@
       <c r="D75" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="111"/>
-      <c r="F75" s="111"/>
+      <c r="E75" s="114"/>
+      <c r="F75" s="114"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
@@ -39583,14 +39583,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="108" t="s">
+      <c r="A82" s="113" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="108"/>
-      <c r="C82" s="108"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="108"/>
-      <c r="F82" s="108"/>
+      <c r="B82" s="113"/>
+      <c r="C82" s="113"/>
+      <c r="D82" s="113"/>
+      <c r="E82" s="113"/>
+      <c r="F82" s="113"/>
     </row>
     <row r="83" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
@@ -39753,14 +39753,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="108" t="s">
+      <c r="A91" s="113" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="108"/>
-      <c r="F91" s="108"/>
+      <c r="B91" s="113"/>
+      <c r="C91" s="113"/>
+      <c r="D91" s="113"/>
+      <c r="E91" s="113"/>
+      <c r="F91" s="113"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
@@ -39793,10 +39793,10 @@
       <c r="D93" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="116" t="s">
+      <c r="E93" s="119" t="s">
         <v>606</v>
       </c>
-      <c r="F93" s="116" t="s">
+      <c r="F93" s="119" t="s">
         <v>593</v>
       </c>
     </row>
@@ -39813,8 +39813,8 @@
       <c r="D94" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="117"/>
-      <c r="F94" s="117"/>
+      <c r="E94" s="120"/>
+      <c r="F94" s="120"/>
     </row>
     <row r="95" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A95" s="24" t="s">
@@ -39957,14 +39957,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="108" t="s">
+      <c r="A102" s="113" t="s">
         <v>280</v>
       </c>
-      <c r="B102" s="108"/>
-      <c r="C102" s="108"/>
-      <c r="D102" s="108"/>
-      <c r="E102" s="108"/>
-      <c r="F102" s="108"/>
+      <c r="B102" s="113"/>
+      <c r="C102" s="113"/>
+      <c r="D102" s="113"/>
+      <c r="E102" s="113"/>
+      <c r="F102" s="113"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
@@ -40167,14 +40167,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="108" t="s">
+      <c r="A113" s="113" t="s">
         <v>304</v>
       </c>
-      <c r="B113" s="108"/>
-      <c r="C113" s="108"/>
-      <c r="D113" s="108"/>
-      <c r="E113" s="108"/>
-      <c r="F113" s="108"/>
+      <c r="B113" s="113"/>
+      <c r="C113" s="113"/>
+      <c r="D113" s="113"/>
+      <c r="E113" s="113"/>
+      <c r="F113" s="113"/>
     </row>
     <row r="114" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
@@ -40189,10 +40189,10 @@
       <c r="D114" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="114" t="s">
+      <c r="E114" s="121" t="s">
         <v>613</v>
       </c>
-      <c r="F114" s="116" t="s">
+      <c r="F114" s="119" t="s">
         <v>614</v>
       </c>
     </row>
@@ -40209,8 +40209,8 @@
       <c r="D115" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="114"/>
-      <c r="F115" s="117"/>
+      <c r="E115" s="121"/>
+      <c r="F115" s="120"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -40393,14 +40393,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="108" t="s">
+      <c r="A125" s="113" t="s">
         <v>332</v>
       </c>
-      <c r="B125" s="108"/>
-      <c r="C125" s="108"/>
-      <c r="D125" s="108"/>
-      <c r="E125" s="108"/>
-      <c r="F125" s="108"/>
+      <c r="B125" s="113"/>
+      <c r="C125" s="113"/>
+      <c r="D125" s="113"/>
+      <c r="E125" s="113"/>
+      <c r="F125" s="113"/>
     </row>
     <row r="126" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
@@ -40415,10 +40415,10 @@
       <c r="D126" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="125" t="s">
+      <c r="E126" s="130" t="s">
         <v>616</v>
       </c>
-      <c r="F126" s="125" t="s">
+      <c r="F126" s="130" t="s">
         <v>617</v>
       </c>
     </row>
@@ -40435,8 +40435,8 @@
       <c r="D127" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="126"/>
-      <c r="F127" s="126"/>
+      <c r="E127" s="131"/>
+      <c r="F127" s="131"/>
     </row>
     <row r="128" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -40497,14 +40497,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="108" t="s">
+      <c r="A131" s="113" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="108"/>
-      <c r="C131" s="108"/>
-      <c r="D131" s="108"/>
-      <c r="E131" s="108"/>
-      <c r="F131" s="108"/>
+      <c r="B131" s="113"/>
+      <c r="C131" s="113"/>
+      <c r="D131" s="113"/>
+      <c r="E131" s="113"/>
+      <c r="F131" s="113"/>
     </row>
     <row r="132" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
@@ -40705,14 +40705,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="108" t="s">
+      <c r="A142" s="113" t="s">
         <v>368</v>
       </c>
-      <c r="B142" s="108"/>
-      <c r="C142" s="108"/>
-      <c r="D142" s="108"/>
-      <c r="E142" s="108"/>
-      <c r="F142" s="108"/>
+      <c r="B142" s="113"/>
+      <c r="C142" s="113"/>
+      <c r="D142" s="113"/>
+      <c r="E142" s="113"/>
+      <c r="F142" s="113"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
@@ -40955,14 +40955,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="108" t="s">
+      <c r="A155" s="113" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="108"/>
-      <c r="C155" s="108"/>
-      <c r="D155" s="108"/>
-      <c r="E155" s="108"/>
-      <c r="F155" s="108"/>
+      <c r="B155" s="113"/>
+      <c r="C155" s="113"/>
+      <c r="D155" s="113"/>
+      <c r="E155" s="113"/>
+      <c r="F155" s="113"/>
     </row>
     <row r="156" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
@@ -41206,6 +41206,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A102:F102"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="E3:E4"/>
@@ -41218,26 +41238,6 @@
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/rawdata/supplementary_material_V3.xlsx
+++ b/rawdata/supplementary_material_V3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3D8AD2-090D-45B3-AACD-11B1DE0AB0BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478406D1-2B7C-4753-9BC6-23FD845C1050}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="765" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="765" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scoring system" sheetId="1" r:id="rId1"/>
@@ -65,40 +65,6 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Auteur</author>
-  </authors>
-  <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{5042FC93-8E76-4022-B536-2511A0624CBD}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Auteur:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-NOTE THE REVIEWED VERSION</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Auteur</author>
@@ -327,7 +293,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Auteur</author>
@@ -748,7 +714,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Auteur</author>
@@ -783,7 +749,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Auteur</author>
@@ -5645,6 +5611,12 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5654,11 +5626,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5666,22 +5638,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5691,6 +5651,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6143,10 +6109,10 @@
       <c r="D3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="121" t="s">
+      <c r="E3" s="119" t="s">
         <v>630</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="119" t="s">
         <v>631</v>
       </c>
     </row>
@@ -6163,8 +6129,8 @@
       <c r="D4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -6289,10 +6255,10 @@
       <c r="D11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="119" t="s">
         <v>640</v>
       </c>
-      <c r="F11" s="121" t="s">
+      <c r="F11" s="119" t="s">
         <v>641</v>
       </c>
     </row>
@@ -6309,8 +6275,8 @@
       <c r="D12" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
     </row>
     <row r="13" spans="1:6" ht="211.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -6325,8 +6291,8 @@
       <c r="D13" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
     </row>
     <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -6451,10 +6417,10 @@
       <c r="D20" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="121" t="s">
+      <c r="E20" s="119" t="s">
         <v>644</v>
       </c>
-      <c r="F20" s="121" t="s">
+      <c r="F20" s="119" t="s">
         <v>645</v>
       </c>
     </row>
@@ -6471,8 +6437,8 @@
       <c r="D21" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
     </row>
     <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -7397,10 +7363,10 @@
       <c r="D70" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="121" t="s">
+      <c r="E70" s="119" t="s">
         <v>651</v>
       </c>
-      <c r="F70" s="121" t="s">
+      <c r="F70" s="119" t="s">
         <v>652</v>
       </c>
     </row>
@@ -7417,8 +7383,8 @@
       <c r="D71" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="121"/>
-      <c r="F71" s="121"/>
+      <c r="E71" s="119"/>
+      <c r="F71" s="119"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -7703,10 +7669,10 @@
       <c r="D86" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E86" s="114" t="s">
+      <c r="E86" s="116" t="s">
         <v>658</v>
       </c>
-      <c r="F86" s="114" t="s">
+      <c r="F86" s="116" t="s">
         <v>659</v>
       </c>
     </row>
@@ -7723,8 +7689,8 @@
       <c r="D87" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E87" s="114"/>
-      <c r="F87" s="114"/>
+      <c r="E87" s="116"/>
+      <c r="F87" s="116"/>
     </row>
     <row r="88" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A88" s="24" t="s">
@@ -7739,8 +7705,8 @@
       <c r="D88" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="114"/>
-      <c r="F88" s="114"/>
+      <c r="E88" s="116"/>
+      <c r="F88" s="116"/>
     </row>
     <row r="89" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A89" s="24" t="s">
@@ -8225,10 +8191,10 @@
       <c r="D114" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="121" t="s">
+      <c r="E114" s="119" t="s">
         <v>662</v>
       </c>
-      <c r="F114" s="121" t="s">
+      <c r="F114" s="119" t="s">
         <v>308</v>
       </c>
     </row>
@@ -8245,8 +8211,8 @@
       <c r="D115" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="121"/>
-      <c r="F115" s="121"/>
+      <c r="E115" s="119"/>
+      <c r="F115" s="119"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -9009,10 +8975,10 @@
       <c r="D156" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E156" s="121" t="s">
+      <c r="E156" s="119" t="s">
         <v>681</v>
       </c>
-      <c r="F156" s="121" t="s">
+      <c r="F156" s="119" t="s">
         <v>657</v>
       </c>
     </row>
@@ -9029,8 +8995,8 @@
       <c r="D157" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E157" s="121"/>
-      <c r="F157" s="121"/>
+      <c r="E157" s="119"/>
+      <c r="F157" s="119"/>
     </row>
     <row r="158" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A158" s="24" t="s">
@@ -9234,6 +9200,25 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="A82:F82"/>
     <mergeCell ref="E156:E157"/>
     <mergeCell ref="F156:F157"/>
     <mergeCell ref="A91:F91"/>
@@ -9247,25 +9232,6 @@
     <mergeCell ref="A131:F131"/>
     <mergeCell ref="A142:F142"/>
     <mergeCell ref="A155:F155"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9478,10 +9444,10 @@
       <c r="D11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="114" t="s">
+      <c r="E11" s="116" t="s">
         <v>729</v>
       </c>
-      <c r="F11" s="115" t="s">
+      <c r="F11" s="117" t="s">
         <v>730</v>
       </c>
     </row>
@@ -9498,8 +9464,8 @@
       <c r="D12" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="114"/>
-      <c r="F12" s="116"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="118"/>
     </row>
     <row r="13" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -12451,14 +12417,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A10:F10"/>
@@ -12471,6 +12429,14 @@
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A69:F69"/>
     <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12683,10 +12649,10 @@
       <c r="D11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="121" t="s">
         <v>735</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="121" t="s">
         <v>736</v>
       </c>
     </row>
@@ -12703,8 +12669,8 @@
       <c r="D12" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
     </row>
     <row r="13" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -12847,10 +12813,10 @@
       <c r="D20" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="119" t="s">
+      <c r="E20" s="121" t="s">
         <v>737</v>
       </c>
-      <c r="F20" s="119" t="s">
+      <c r="F20" s="121" t="s">
         <v>738</v>
       </c>
     </row>
@@ -12867,8 +12833,8 @@
       <c r="D21" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
     </row>
     <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -13793,10 +13759,10 @@
       <c r="D70" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="119" t="s">
+      <c r="E70" s="121" t="s">
         <v>745</v>
       </c>
-      <c r="F70" s="119" t="s">
+      <c r="F70" s="121" t="s">
         <v>746</v>
       </c>
     </row>
@@ -13813,8 +13779,8 @@
       <c r="D71" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="120"/>
-      <c r="F71" s="120"/>
+      <c r="E71" s="122"/>
+      <c r="F71" s="122"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -15019,10 +14985,10 @@
       <c r="D135" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E135" s="119" t="s">
+      <c r="E135" s="121" t="s">
         <v>758</v>
       </c>
-      <c r="F135" s="119" t="s">
+      <c r="F135" s="121" t="s">
         <v>748</v>
       </c>
     </row>
@@ -15039,8 +15005,8 @@
       <c r="D136" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E136" s="120"/>
-      <c r="F136" s="120"/>
+      <c r="E136" s="122"/>
+      <c r="F136" s="122"/>
     </row>
     <row r="137" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A137" s="24" t="s">
@@ -15644,13 +15610,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="A33:F33"/>
@@ -15665,11 +15629,13 @@
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A113:F113"/>
     <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15711,14 +15677,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
     </row>
     <row r="3" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -18071,10 +18037,10 @@
       <c r="D126" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="114" t="s">
+      <c r="E126" s="116" t="s">
         <v>469</v>
       </c>
-      <c r="F126" s="115" t="s">
+      <c r="F126" s="117" t="s">
         <v>470</v>
       </c>
     </row>
@@ -18091,8 +18057,8 @@
       <c r="D127" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="114"/>
-      <c r="F127" s="116"/>
+      <c r="E127" s="116"/>
+      <c r="F127" s="118"/>
     </row>
     <row r="128" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -18866,12 +18832,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A69:F69"/>
@@ -18884,6 +18844,12 @@
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="A131:F131"/>
     <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18947,10 +18913,10 @@
       <c r="D3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="114" t="s">
+      <c r="F3" s="116" t="s">
         <v>28</v>
       </c>
     </row>
@@ -18967,8 +18933,8 @@
       <c r="D4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
     </row>
     <row r="5" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -19093,10 +19059,10 @@
       <c r="D11" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="121" t="s">
+      <c r="F11" s="119" t="s">
         <v>53</v>
       </c>
     </row>
@@ -19113,8 +19079,8 @@
       <c r="D12" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
     </row>
     <row r="13" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -19129,8 +19095,8 @@
       <c r="D13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
     </row>
     <row r="14" spans="1:6" ht="228.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -20197,10 +20163,10 @@
       <c r="D70" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="114" t="s">
+      <c r="E70" s="116" t="s">
         <v>201</v>
       </c>
-      <c r="F70" s="114" t="s">
+      <c r="F70" s="116" t="s">
         <v>202</v>
       </c>
     </row>
@@ -20217,8 +20183,8 @@
       <c r="D71" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="114"/>
-      <c r="F71" s="114"/>
+      <c r="E71" s="116"/>
+      <c r="F71" s="116"/>
     </row>
     <row r="72" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -21033,10 +20999,10 @@
       <c r="D114" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="121" t="s">
+      <c r="E114" s="119" t="s">
         <v>307</v>
       </c>
-      <c r="F114" s="121" t="s">
+      <c r="F114" s="119" t="s">
         <v>308</v>
       </c>
     </row>
@@ -21053,8 +21019,8 @@
       <c r="D115" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="121"/>
-      <c r="F115" s="121"/>
+      <c r="E115" s="119"/>
+      <c r="F115" s="119"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -21259,10 +21225,10 @@
       <c r="D126" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="121" t="s">
+      <c r="E126" s="119" t="s">
         <v>335</v>
       </c>
-      <c r="F126" s="121" t="s">
+      <c r="F126" s="119" t="s">
         <v>336</v>
       </c>
     </row>
@@ -21279,8 +21245,8 @@
       <c r="D127" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="121"/>
-      <c r="F127" s="121"/>
+      <c r="E127" s="119"/>
+      <c r="F127" s="119"/>
     </row>
     <row r="128" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -21365,10 +21331,10 @@
       <c r="D132" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="121" t="s">
+      <c r="E132" s="119" t="s">
         <v>348</v>
       </c>
-      <c r="F132" s="121" t="s">
+      <c r="F132" s="119" t="s">
         <v>349</v>
       </c>
     </row>
@@ -21385,8 +21351,8 @@
       <c r="D133" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="121"/>
-      <c r="F133" s="121"/>
+      <c r="E133" s="119"/>
+      <c r="F133" s="119"/>
     </row>
     <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="24" t="s">
@@ -21751,10 +21717,10 @@
       <c r="D152" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="122" t="s">
+      <c r="E152" s="120" t="s">
         <v>400</v>
       </c>
-      <c r="F152" s="122" t="s">
+      <c r="F152" s="120" t="s">
         <v>401</v>
       </c>
     </row>
@@ -21771,8 +21737,8 @@
       <c r="D153" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="122"/>
-      <c r="F153" s="122"/>
+      <c r="E153" s="120"/>
+      <c r="F153" s="120"/>
     </row>
     <row r="154" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="24" t="s">
@@ -21817,10 +21783,10 @@
       <c r="D156" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E156" s="119" t="s">
+      <c r="E156" s="121" t="s">
         <v>410</v>
       </c>
-      <c r="F156" s="119" t="s">
+      <c r="F156" s="121" t="s">
         <v>411</v>
       </c>
     </row>
@@ -21837,8 +21803,8 @@
       <c r="D157" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E157" s="120"/>
-      <c r="F157" s="120"/>
+      <c r="E157" s="122"/>
+      <c r="F157" s="122"/>
     </row>
     <row r="158" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A158" s="24" t="s">
@@ -22042,22 +22008,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="F152:F153"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="F156:F157"/>
     <mergeCell ref="E156:E157"/>
@@ -22074,6 +22024,22 @@
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="A125:F125"/>
     <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A82:F82"/>
   </mergeCells>
   <conditionalFormatting sqref="E109">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -22146,10 +22112,10 @@
       <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="121" t="s">
+      <c r="E3" s="119" t="s">
         <v>482</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="119" t="s">
         <v>483</v>
       </c>
     </row>
@@ -22166,8 +22132,8 @@
       <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -22292,10 +22258,10 @@
       <c r="D11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="119" t="s">
         <v>487</v>
       </c>
-      <c r="F11" s="121" t="s">
+      <c r="F11" s="119" t="s">
         <v>488</v>
       </c>
     </row>
@@ -22312,8 +22278,8 @@
       <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
     </row>
     <row r="13" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -22328,8 +22294,8 @@
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
     </row>
     <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -23293,10 +23259,10 @@
       <c r="D64" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="121" t="s">
+      <c r="E64" s="119" t="s">
         <v>504</v>
       </c>
-      <c r="F64" s="121" t="s">
+      <c r="F64" s="119" t="s">
         <v>505</v>
       </c>
     </row>
@@ -23313,8 +23279,8 @@
       <c r="D65" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="121"/>
-      <c r="F65" s="121"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="119"/>
     </row>
     <row r="66" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
@@ -23399,10 +23365,10 @@
       <c r="D70" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="121" t="s">
+      <c r="E70" s="119" t="s">
         <v>506</v>
       </c>
-      <c r="F70" s="121" t="s">
+      <c r="F70" s="119" t="s">
         <v>507</v>
       </c>
       <c r="G70" s="63"/>
@@ -23420,8 +23386,8 @@
       <c r="D71" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="121"/>
-      <c r="F71" s="121"/>
+      <c r="E71" s="119"/>
+      <c r="F71" s="119"/>
       <c r="G71" s="63"/>
     </row>
     <row r="72" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -24239,10 +24205,10 @@
       <c r="D114" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="124" t="s">
+      <c r="E114" s="123" t="s">
         <v>513</v>
       </c>
-      <c r="F114" s="114" t="s">
+      <c r="F114" s="116" t="s">
         <v>514</v>
       </c>
     </row>
@@ -24259,8 +24225,8 @@
       <c r="D115" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="124"/>
-      <c r="F115" s="114"/>
+      <c r="E115" s="123"/>
+      <c r="F115" s="116"/>
     </row>
     <row r="116" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -24465,10 +24431,10 @@
       <c r="D126" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="114" t="s">
+      <c r="E126" s="116" t="s">
         <v>517</v>
       </c>
-      <c r="F126" s="115" t="s">
+      <c r="F126" s="117" t="s">
         <v>518</v>
       </c>
     </row>
@@ -24485,8 +24451,8 @@
       <c r="D127" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="114"/>
-      <c r="F127" s="116"/>
+      <c r="E127" s="116"/>
+      <c r="F127" s="118"/>
     </row>
     <row r="128" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -24570,10 +24536,10 @@
       <c r="D132" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="114" t="s">
+      <c r="E132" s="116" t="s">
         <v>519</v>
       </c>
-      <c r="F132" s="114" t="s">
+      <c r="F132" s="116" t="s">
         <v>520</v>
       </c>
     </row>
@@ -24590,8 +24556,8 @@
       <c r="D133" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="114"/>
-      <c r="F133" s="114"/>
+      <c r="E133" s="116"/>
+      <c r="F133" s="116"/>
     </row>
     <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="24" t="s">
@@ -24606,8 +24572,8 @@
       <c r="D134" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E134" s="114"/>
-      <c r="F134" s="114"/>
+      <c r="E134" s="116"/>
+      <c r="F134" s="116"/>
     </row>
     <row r="135" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A135" s="24" t="s">
@@ -24775,7 +24741,7 @@
       <c r="E143" s="29" t="s">
         <v>521</v>
       </c>
-      <c r="F143" s="121" t="s">
+      <c r="F143" s="119" t="s">
         <v>379</v>
       </c>
     </row>
@@ -24795,7 +24761,7 @@
       <c r="E144" s="29" t="s">
         <v>522</v>
       </c>
-      <c r="F144" s="121"/>
+      <c r="F144" s="119"/>
     </row>
     <row r="145" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A145" s="24" t="s">
@@ -24910,10 +24876,10 @@
       <c r="D150" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E150" s="115" t="s">
+      <c r="E150" s="117" t="s">
         <v>528</v>
       </c>
-      <c r="F150" s="115" t="s">
+      <c r="F150" s="117" t="s">
         <v>529</v>
       </c>
       <c r="G150" s="68"/>
@@ -24931,8 +24897,8 @@
       <c r="D151" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E151" s="116"/>
-      <c r="F151" s="116"/>
+      <c r="E151" s="118"/>
+      <c r="F151" s="118"/>
       <c r="G151" s="63"/>
     </row>
     <row r="152" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -24948,10 +24914,10 @@
       <c r="D152" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="123" t="s">
+      <c r="E152" s="124" t="s">
         <v>530</v>
       </c>
-      <c r="F152" s="123" t="s">
+      <c r="F152" s="124" t="s">
         <v>502</v>
       </c>
     </row>
@@ -24968,8 +24934,8 @@
       <c r="D153" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="123"/>
-      <c r="F153" s="123"/>
+      <c r="E153" s="124"/>
+      <c r="F153" s="124"/>
     </row>
     <row r="154" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A154" s="24" t="s">
@@ -25243,12 +25209,22 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="F132:F134"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A33:F33"/>
@@ -25262,22 +25238,12 @@
     <mergeCell ref="F70:F71"/>
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="F132:F134"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25341,10 +25307,10 @@
       <c r="D3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="121" t="s">
+      <c r="E3" s="119" t="s">
         <v>532</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="121" t="s">
         <v>533</v>
       </c>
     </row>
@@ -25361,8 +25327,8 @@
       <c r="D4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="121"/>
-      <c r="F4" s="120"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="122"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -25487,10 +25453,10 @@
       <c r="D11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="121" t="s">
         <v>537</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="121" t="s">
         <v>538</v>
       </c>
     </row>
@@ -25507,8 +25473,8 @@
       <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
     </row>
     <row r="13" spans="1:6" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -25523,8 +25489,8 @@
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
     </row>
     <row r="14" spans="1:6" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -26589,10 +26555,10 @@
       <c r="D70" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="119" t="s">
+      <c r="E70" s="121" t="s">
         <v>548</v>
       </c>
-      <c r="F70" s="115" t="s">
+      <c r="F70" s="117" t="s">
         <v>549</v>
       </c>
     </row>
@@ -26609,8 +26575,8 @@
       <c r="D71" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="120"/>
-      <c r="F71" s="126"/>
+      <c r="E71" s="122"/>
+      <c r="F71" s="128"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -27651,10 +27617,10 @@
       <c r="D126" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="114" t="s">
+      <c r="E126" s="116" t="s">
         <v>558</v>
       </c>
-      <c r="F126" s="115" t="s">
+      <c r="F126" s="117" t="s">
         <v>559</v>
       </c>
     </row>
@@ -27671,8 +27637,8 @@
       <c r="D127" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="114"/>
-      <c r="F127" s="116"/>
+      <c r="E127" s="116"/>
+      <c r="F127" s="118"/>
     </row>
     <row r="128" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -27755,10 +27721,10 @@
       <c r="D132" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="114" t="s">
+      <c r="E132" s="116" t="s">
         <v>560</v>
       </c>
-      <c r="F132" s="115" t="s">
+      <c r="F132" s="117" t="s">
         <v>561</v>
       </c>
     </row>
@@ -27775,8 +27741,8 @@
       <c r="D133" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="114"/>
-      <c r="F133" s="116"/>
+      <c r="E133" s="116"/>
+      <c r="F133" s="118"/>
     </row>
     <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="24" t="s">
@@ -28271,10 +28237,10 @@
       <c r="D159" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E159" s="127" t="s">
+      <c r="E159" s="125" t="s">
         <v>571</v>
       </c>
-      <c r="F159" s="128" t="s">
+      <c r="F159" s="126" t="s">
         <v>572</v>
       </c>
     </row>
@@ -28291,8 +28257,8 @@
       <c r="D160" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E160" s="127"/>
-      <c r="F160" s="129"/>
+      <c r="E160" s="125"/>
+      <c r="F160" s="127"/>
     </row>
     <row r="161" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A161" s="24" t="s">
@@ -28436,16 +28402,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
     <mergeCell ref="A113:F113"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A33:F33"/>
@@ -28458,23 +28420,27 @@
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54373480-9F78-4E50-9D2A-7D7432A20250}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54373480-9F78-4E50-9D2A-7D7432A20250}">
   <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28676,10 +28642,10 @@
       <c r="D11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="119" t="s">
         <v>889</v>
       </c>
-      <c r="F11" s="121" t="s">
+      <c r="F11" s="119" t="s">
         <v>890</v>
       </c>
     </row>
@@ -28696,8 +28662,8 @@
       <c r="D12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
     </row>
     <row r="13" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -28842,10 +28808,10 @@
       <c r="D20" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="114" t="s">
+      <c r="E20" s="116" t="s">
         <v>895</v>
       </c>
-      <c r="F20" s="114" t="s">
+      <c r="F20" s="116" t="s">
         <v>896</v>
       </c>
     </row>
@@ -28862,8 +28828,8 @@
       <c r="D21" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
     </row>
     <row r="22" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -29526,10 +29492,10 @@
       <c r="D56" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="121" t="s">
+      <c r="E56" s="119" t="s">
         <v>907</v>
       </c>
-      <c r="F56" s="121" t="s">
+      <c r="F56" s="119" t="s">
         <v>908</v>
       </c>
     </row>
@@ -29546,8 +29512,8 @@
       <c r="D57" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="121"/>
-      <c r="F57" s="121"/>
+      <c r="E57" s="119"/>
+      <c r="F57" s="119"/>
     </row>
     <row r="58" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
@@ -29782,10 +29748,10 @@
       <c r="D70" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="121" t="s">
+      <c r="E70" s="119" t="s">
         <v>911</v>
       </c>
-      <c r="F70" s="121" t="s">
+      <c r="F70" s="119" t="s">
         <v>912</v>
       </c>
     </row>
@@ -29802,8 +29768,8 @@
       <c r="D71" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="121"/>
-      <c r="F71" s="121"/>
+      <c r="E71" s="119"/>
+      <c r="F71" s="119"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -29858,10 +29824,10 @@
       <c r="D74" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="114" t="s">
+      <c r="E74" s="116" t="s">
         <v>913</v>
       </c>
-      <c r="F74" s="114" t="s">
+      <c r="F74" s="116" t="s">
         <v>914</v>
       </c>
     </row>
@@ -29878,8 +29844,8 @@
       <c r="D75" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="114"/>
-      <c r="F75" s="114"/>
+      <c r="E75" s="116"/>
+      <c r="F75" s="116"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
@@ -30214,10 +30180,10 @@
       <c r="D93" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="115" t="s">
+      <c r="E93" s="117" t="s">
         <v>919</v>
       </c>
-      <c r="F93" s="115" t="s">
+      <c r="F93" s="117" t="s">
         <v>920</v>
       </c>
     </row>
@@ -30234,8 +30200,8 @@
       <c r="D94" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="116"/>
-      <c r="F94" s="116"/>
+      <c r="E94" s="118"/>
+      <c r="F94" s="118"/>
     </row>
     <row r="95" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A95" s="24" t="s">
@@ -30610,10 +30576,10 @@
       <c r="D114" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="114" t="s">
+      <c r="E114" s="116" t="s">
         <v>929</v>
       </c>
-      <c r="F114" s="114" t="s">
+      <c r="F114" s="116" t="s">
         <v>930</v>
       </c>
     </row>
@@ -30630,8 +30596,8 @@
       <c r="D115" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="114"/>
-      <c r="F115" s="114"/>
+      <c r="E115" s="116"/>
+      <c r="F115" s="116"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -31175,7 +31141,7 @@
       <c r="E144" s="86" t="s">
         <v>946</v>
       </c>
-      <c r="F144" s="121" t="s">
+      <c r="F144" s="119" t="s">
         <v>40</v>
       </c>
     </row>
@@ -31195,7 +31161,7 @@
       <c r="E145" s="86" t="s">
         <v>947</v>
       </c>
-      <c r="F145" s="121"/>
+      <c r="F145" s="119"/>
     </row>
     <row r="146" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A146" s="24" t="s">
@@ -31619,6 +31585,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A10:F10"/>
@@ -31632,31 +31620,9 @@
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="E56:E57"/>
     <mergeCell ref="F56:F57"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="F144:F145"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31664,7 +31630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4716598-4E81-47BF-9B1B-F47650125005}">
   <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A44" sqref="A44:F44"/>
     </sheetView>
   </sheetViews>
@@ -31868,10 +31834,10 @@
       <c r="D11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="121" t="s">
         <v>835</v>
       </c>
-      <c r="F11" s="121" t="s">
+      <c r="F11" s="119" t="s">
         <v>836</v>
       </c>
     </row>
@@ -31888,8 +31854,8 @@
       <c r="D12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="120"/>
-      <c r="F12" s="121"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="119"/>
     </row>
     <row r="13" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -32034,10 +32000,10 @@
       <c r="D20" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="114" t="s">
+      <c r="E20" s="116" t="s">
         <v>970</v>
       </c>
-      <c r="F20" s="114" t="s">
+      <c r="F20" s="116" t="s">
         <v>971</v>
       </c>
     </row>
@@ -32054,8 +32020,8 @@
       <c r="D21" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
     </row>
     <row r="22" spans="1:6" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -32980,10 +32946,10 @@
       <c r="D70" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="119" t="s">
+      <c r="E70" s="121" t="s">
         <v>848</v>
       </c>
-      <c r="F70" s="119" t="s">
+      <c r="F70" s="121" t="s">
         <v>849</v>
       </c>
     </row>
@@ -33000,8 +32966,8 @@
       <c r="D71" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="120"/>
-      <c r="F71" s="120"/>
+      <c r="E71" s="122"/>
+      <c r="F71" s="122"/>
     </row>
     <row r="72" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -33056,10 +33022,10 @@
       <c r="D74" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="115" t="s">
+      <c r="E74" s="117" t="s">
         <v>852</v>
       </c>
-      <c r="F74" s="115" t="s">
+      <c r="F74" s="117" t="s">
         <v>851</v>
       </c>
     </row>
@@ -33076,8 +33042,8 @@
       <c r="D75" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="116"/>
-      <c r="F75" s="116"/>
+      <c r="E75" s="118"/>
+      <c r="F75" s="118"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
@@ -33812,10 +33778,10 @@
       <c r="D114" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="114" t="s">
+      <c r="E114" s="116" t="s">
         <v>861</v>
       </c>
-      <c r="F114" s="115" t="s">
+      <c r="F114" s="117" t="s">
         <v>862</v>
       </c>
     </row>
@@ -33832,8 +33798,8 @@
       <c r="D115" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="114"/>
-      <c r="F115" s="116"/>
+      <c r="E115" s="116"/>
+      <c r="F115" s="118"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -34827,26 +34793,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="E74:E75"/>
     <mergeCell ref="F152:F153"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="F114:F115"/>
@@ -34857,6 +34803,26 @@
     <mergeCell ref="E114:E115"/>
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="F70:F71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -34920,10 +34886,10 @@
       <c r="D3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="121" t="s">
+      <c r="E3" s="119" t="s">
         <v>767</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="121" t="s">
         <v>768</v>
       </c>
     </row>
@@ -34940,8 +34906,8 @@
       <c r="D4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="121"/>
-      <c r="F4" s="120"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="122"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -35066,10 +35032,10 @@
       <c r="D11" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="121" t="s">
         <v>773</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="121" t="s">
         <v>774</v>
       </c>
     </row>
@@ -35086,8 +35052,8 @@
       <c r="D12" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
     </row>
     <row r="13" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -35102,8 +35068,8 @@
       <c r="D13" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
     </row>
     <row r="14" spans="1:6" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -35228,10 +35194,10 @@
       <c r="D20" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="121" t="s">
+      <c r="E20" s="119" t="s">
         <v>777</v>
       </c>
-      <c r="F20" s="119" t="s">
+      <c r="F20" s="121" t="s">
         <v>778</v>
       </c>
     </row>
@@ -35248,8 +35214,8 @@
       <c r="D21" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="121"/>
-      <c r="F21" s="120"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="122"/>
     </row>
     <row r="22" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -36064,10 +36030,10 @@
       <c r="D64" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="119" t="s">
+      <c r="E64" s="121" t="s">
         <v>789</v>
       </c>
-      <c r="F64" s="119" t="s">
+      <c r="F64" s="121" t="s">
         <v>790</v>
       </c>
     </row>
@@ -36084,8 +36050,8 @@
       <c r="D65" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="120"/>
-      <c r="F65" s="120"/>
+      <c r="E65" s="122"/>
+      <c r="F65" s="122"/>
     </row>
     <row r="66" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
@@ -36170,10 +36136,10 @@
       <c r="D70" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="121" t="s">
+      <c r="E70" s="119" t="s">
         <v>791</v>
       </c>
-      <c r="F70" s="119" t="s">
+      <c r="F70" s="121" t="s">
         <v>792</v>
       </c>
     </row>
@@ -36190,8 +36156,8 @@
       <c r="D71" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="121"/>
-      <c r="F71" s="120"/>
+      <c r="E71" s="119"/>
+      <c r="F71" s="122"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -36246,10 +36212,10 @@
       <c r="D74" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="119" t="s">
+      <c r="E74" s="121" t="s">
         <v>793</v>
       </c>
-      <c r="F74" s="125" t="s">
+      <c r="F74" s="129" t="s">
         <v>211</v>
       </c>
     </row>
@@ -36266,8 +36232,8 @@
       <c r="D75" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="120"/>
-      <c r="F75" s="120"/>
+      <c r="E75" s="122"/>
+      <c r="F75" s="122"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
@@ -37002,10 +36968,10 @@
       <c r="D114" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="119" t="s">
+      <c r="E114" s="121" t="s">
         <v>804</v>
       </c>
-      <c r="F114" s="119" t="s">
+      <c r="F114" s="121" t="s">
         <v>805</v>
       </c>
     </row>
@@ -37022,8 +36988,8 @@
       <c r="D115" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="120"/>
-      <c r="F115" s="120"/>
+      <c r="E115" s="122"/>
+      <c r="F115" s="122"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -38019,14 +37985,13 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A82:F82"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="E20:E21"/>
@@ -38036,11 +38001,14 @@
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="F70:F71"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A113:F113"/>
@@ -38049,8 +38017,6 @@
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="A131:F131"/>
     <mergeCell ref="A142:F142"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="E126:E127"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -38115,10 +38081,10 @@
       <c r="D3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="119" t="s">
+      <c r="E3" s="121" t="s">
         <v>575</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="121" t="s">
         <v>576</v>
       </c>
     </row>
@@ -38135,8 +38101,8 @@
       <c r="D4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -38261,10 +38227,10 @@
       <c r="D11" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="121" t="s">
         <v>584</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="121" t="s">
         <v>585</v>
       </c>
     </row>
@@ -38281,8 +38247,8 @@
       <c r="D12" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
     </row>
     <row r="13" spans="1:6" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -38297,8 +38263,8 @@
       <c r="D13" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
     </row>
     <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -38313,8 +38279,8 @@
       <c r="D14" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
     </row>
     <row r="15" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
@@ -38419,10 +38385,10 @@
       <c r="D20" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="119" t="s">
+      <c r="E20" s="121" t="s">
         <v>586</v>
       </c>
-      <c r="F20" s="119" t="s">
+      <c r="F20" s="121" t="s">
         <v>587</v>
       </c>
     </row>
@@ -38439,8 +38405,8 @@
       <c r="D21" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
     </row>
     <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -39363,10 +39329,10 @@
       <c r="D70" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="119" t="s">
+      <c r="E70" s="121" t="s">
         <v>595</v>
       </c>
-      <c r="F70" s="119" t="s">
+      <c r="F70" s="121" t="s">
         <v>596</v>
       </c>
     </row>
@@ -39383,8 +39349,8 @@
       <c r="D71" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="120"/>
-      <c r="F71" s="120"/>
+      <c r="E71" s="122"/>
+      <c r="F71" s="122"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -39439,10 +39405,10 @@
       <c r="D74" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="114" t="s">
+      <c r="E74" s="116" t="s">
         <v>598</v>
       </c>
-      <c r="F74" s="114" t="s">
+      <c r="F74" s="116" t="s">
         <v>598</v>
       </c>
     </row>
@@ -39459,8 +39425,8 @@
       <c r="D75" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="114"/>
-      <c r="F75" s="114"/>
+      <c r="E75" s="116"/>
+      <c r="F75" s="116"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
@@ -39793,10 +39759,10 @@
       <c r="D93" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="119" t="s">
+      <c r="E93" s="121" t="s">
         <v>606</v>
       </c>
-      <c r="F93" s="119" t="s">
+      <c r="F93" s="121" t="s">
         <v>593</v>
       </c>
     </row>
@@ -39813,8 +39779,8 @@
       <c r="D94" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="120"/>
-      <c r="F94" s="120"/>
+      <c r="E94" s="122"/>
+      <c r="F94" s="122"/>
     </row>
     <row r="95" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A95" s="24" t="s">
@@ -40189,10 +40155,10 @@
       <c r="D114" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="121" t="s">
+      <c r="E114" s="119" t="s">
         <v>613</v>
       </c>
-      <c r="F114" s="119" t="s">
+      <c r="F114" s="121" t="s">
         <v>614</v>
       </c>
     </row>
@@ -40209,8 +40175,8 @@
       <c r="D115" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="121"/>
-      <c r="F115" s="120"/>
+      <c r="E115" s="119"/>
+      <c r="F115" s="122"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -41206,14 +41172,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
     <mergeCell ref="A113:F113"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A69:F69"/>
@@ -41226,18 +41196,14 @@
     <mergeCell ref="E93:E94"/>
     <mergeCell ref="F93:F94"/>
     <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/rawdata/supplementary_material_V3.xlsx
+++ b/rawdata/supplementary_material_V3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478406D1-2B7C-4753-9BC6-23FD845C1050}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E32A10-17E0-4E75-92D7-60F4092F2721}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="765" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="765" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scoring system" sheetId="1" r:id="rId1"/>
@@ -70,201 +70,41 @@
     <author>Auteur</author>
   </authors>
   <commentList>
-    <comment ref="E55" authorId="0" shapeId="0" xr:uid="{6731C3C1-EB00-47E8-93B8-E85DABB6BE03}">
+    <comment ref="C89" authorId="0" shapeId="0" xr:uid="{EEC3B9FC-5E00-41B4-B5AD-93562C7CC46E}">
       <text>
         <r>
           <rPr>
             <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Peter:</t>
+          <t>Auteur:</t>
         </r>
         <r>
           <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-I met with a water company last week that is looking to use saltmarsh wetlands to help purufy water from a sewerage treatment plant for reuse.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Gaël:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Great, do you have any paper on it? Do they plan to reuse the water as drinking water or as water for the garden for example? 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Peter:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FFFF0000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">No, but I haven't looked thoroughly. It's about sewerage treatment. Not for human water consumption. Let me know if you want me to hunt for papers.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FFFF0000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Gaël :
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FFFF0000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Find nothing on the use of constructed tidal marsh to produce drinking wtaer</t>
+As for tidal marsh
+https://www.sciencedirect.com/science/article/pii/S0959378007000234</t>
         </r>
       </text>
     </comment>
-    <comment ref="E89" authorId="0" shapeId="0" xr:uid="{D43ED72F-F2B7-4AA4-ACA6-94DBED9BE62F}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Peter:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Not sure if this fits, but there is a big push to use remote sensing technologies to improve monitoring of tidal marsh
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Gaël:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">My answer doesn't help, I don't know… do you have a reference?
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Peter:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FFFF0000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Would the following suffice?
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FFFF0000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">remote sensing in blue carbon ecosystems: https://static1.squarespace.com/static/5c7463aaa9ab95163e8c3c2e/t/5cc2cdf14e17b61f564335e2/1556270578111/Chapter6_English_Blue_Carbon_LR_190306.pdf And here is a special issue dedicated to the topic: https://www.mdpi.com/journal/remotesensing/special_issues/blue_carbon
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FFFF0000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">Gaël:
-</t>
-        </r>
-      </text>
-    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Auteur</author>
+  </authors>
+  <commentList>
     <comment ref="F123" authorId="0" shapeId="0" xr:uid="{18C79376-4CF9-4845-A7BA-E91B9E44F175}">
       <text>
         <r>
@@ -293,7 +133,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Auteur</author>
@@ -714,7 +554,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Auteur</author>
@@ -749,7 +589,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Auteur</author>
@@ -952,7 +792,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9946" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9946" uniqueCount="979">
   <si>
     <t>Score</t>
   </si>
@@ -4913,12 +4753,19 @@
 (4) Campbell I, Macleod A, Sahlmann C, Neves L, Funderud J, Øverland M, Hughes AD and Stanley M (2019) The Environmental Risks Associated With the Development of Seaweed Farming in Europe - Prioritizing Key Knowledge Gaps. Front. Mar. Sci. 6:107. doi: 10.3389/fmars.2019.00107
 (5) Xiao, X., Agusti, S., Lin, F., Li, K., Pan, Y., Yu, Y., ... &amp; Duarte, C. M. (2017). Nutrient removal from Chinese coastal waters by large-scale seaweed aquaculture. Scientific reports, 7(1), 1-6.</t>
   </si>
+  <si>
+    <t xml:space="preserve">(1) Haack, B. Monitoring wetland changes with remote sensing: An East African example. Environmental Management 20, 411–419 (1996). https://doi.org/10.1007/BF01203848
+(2) Ramsar Convention on Wetlands. 2018. Scaling Up Wetland Conservation, Wise Use and Restoration to Achieve the Sustainable Development Goals: Wetlands and the SDGs. Gland, Switzerland: Ramsar Convention Secretariat. www.ramsar.org/sites/default/files/documents/library/wetlands_sdgs_e.pdf. </t>
+  </si>
+  <si>
+    <t>Remote sensing technologies are use in developed countries to monitor tidal marshes. Tidal marsh NCS implementation can streghten the use of these toolsthe use of these tools, notably through financial support with the RAMSAR convention.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5067,34 +4914,6 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="17">
@@ -5284,7 +5103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5608,13 +5427,10 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5626,11 +5442,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5638,10 +5454,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5653,17 +5481,14 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6087,14 +5912,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
     </row>
     <row r="3" spans="1:6" ht="192.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -6109,10 +5934,10 @@
       <c r="D3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="119" t="s">
+      <c r="E3" s="122" t="s">
         <v>630</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="122" t="s">
         <v>631</v>
       </c>
     </row>
@@ -6129,8 +5954,8 @@
       <c r="D4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -6233,14 +6058,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
     </row>
     <row r="11" spans="1:6" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
@@ -6255,10 +6080,10 @@
       <c r="D11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="122" t="s">
         <v>640</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="122" t="s">
         <v>641</v>
       </c>
     </row>
@@ -6275,8 +6100,8 @@
       <c r="D12" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
     </row>
     <row r="13" spans="1:6" ht="211.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -6291,8 +6116,8 @@
       <c r="D13" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
     </row>
     <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -6395,14 +6220,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
     </row>
     <row r="20" spans="1:6" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -6417,10 +6242,10 @@
       <c r="D20" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="119" t="s">
+      <c r="E20" s="122" t="s">
         <v>644</v>
       </c>
-      <c r="F20" s="119" t="s">
+      <c r="F20" s="122" t="s">
         <v>645</v>
       </c>
     </row>
@@ -6437,8 +6262,8 @@
       <c r="D21" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
     </row>
     <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -6661,14 +6486,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="113" t="s">
+      <c r="A33" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
     </row>
     <row r="34" spans="1:6" ht="211.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -6871,14 +6696,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="113" t="s">
+      <c r="A44" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
@@ -7061,14 +6886,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="113" t="s">
+      <c r="A54" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="113"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
@@ -7231,14 +7056,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="113" t="s">
+      <c r="A63" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="113"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="113"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
@@ -7341,14 +7166,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="113" t="s">
+      <c r="A69" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
     </row>
     <row r="70" spans="1:6" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
@@ -7363,10 +7188,10 @@
       <c r="D70" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="119" t="s">
+      <c r="E70" s="122" t="s">
         <v>651</v>
       </c>
-      <c r="F70" s="119" t="s">
+      <c r="F70" s="122" t="s">
         <v>652</v>
       </c>
     </row>
@@ -7383,8 +7208,8 @@
       <c r="D71" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="119"/>
-      <c r="F71" s="119"/>
+      <c r="E71" s="122"/>
+      <c r="F71" s="122"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -7587,14 +7412,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="113" t="s">
+      <c r="A82" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="113"/>
-      <c r="C82" s="113"/>
-      <c r="D82" s="113"/>
-      <c r="E82" s="113"/>
-      <c r="F82" s="113"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
     </row>
     <row r="83" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
@@ -7669,10 +7494,10 @@
       <c r="D86" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E86" s="116" t="s">
+      <c r="E86" s="115" t="s">
         <v>658</v>
       </c>
-      <c r="F86" s="116" t="s">
+      <c r="F86" s="115" t="s">
         <v>659</v>
       </c>
     </row>
@@ -7689,8 +7514,8 @@
       <c r="D87" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E87" s="116"/>
-      <c r="F87" s="116"/>
+      <c r="E87" s="115"/>
+      <c r="F87" s="115"/>
     </row>
     <row r="88" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A88" s="24" t="s">
@@ -7705,8 +7530,8 @@
       <c r="D88" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="116"/>
-      <c r="F88" s="116"/>
+      <c r="E88" s="115"/>
+      <c r="F88" s="115"/>
     </row>
     <row r="89" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A89" s="24" t="s">
@@ -7749,14 +7574,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="113" t="s">
+      <c r="A91" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="113"/>
-      <c r="C91" s="113"/>
-      <c r="D91" s="113"/>
-      <c r="E91" s="113"/>
-      <c r="F91" s="113"/>
+      <c r="B91" s="114"/>
+      <c r="C91" s="114"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="114"/>
+      <c r="F91" s="114"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
@@ -7959,14 +7784,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="113" t="s">
+      <c r="A102" s="114" t="s">
         <v>280</v>
       </c>
-      <c r="B102" s="113"/>
-      <c r="C102" s="113"/>
-      <c r="D102" s="113"/>
-      <c r="E102" s="113"/>
-      <c r="F102" s="113"/>
+      <c r="B102" s="114"/>
+      <c r="C102" s="114"/>
+      <c r="D102" s="114"/>
+      <c r="E102" s="114"/>
+      <c r="F102" s="114"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
@@ -8169,14 +7994,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="113" t="s">
+      <c r="A113" s="114" t="s">
         <v>304</v>
       </c>
-      <c r="B113" s="113"/>
-      <c r="C113" s="113"/>
-      <c r="D113" s="113"/>
-      <c r="E113" s="113"/>
-      <c r="F113" s="113"/>
+      <c r="B113" s="114"/>
+      <c r="C113" s="114"/>
+      <c r="D113" s="114"/>
+      <c r="E113" s="114"/>
+      <c r="F113" s="114"/>
     </row>
     <row r="114" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
@@ -8191,10 +8016,10 @@
       <c r="D114" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="119" t="s">
+      <c r="E114" s="122" t="s">
         <v>662</v>
       </c>
-      <c r="F114" s="119" t="s">
+      <c r="F114" s="122" t="s">
         <v>308</v>
       </c>
     </row>
@@ -8211,8 +8036,8 @@
       <c r="D115" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="119"/>
-      <c r="F115" s="119"/>
+      <c r="E115" s="122"/>
+      <c r="F115" s="122"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -8393,14 +8218,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="113" t="s">
+      <c r="A125" s="114" t="s">
         <v>332</v>
       </c>
-      <c r="B125" s="113"/>
-      <c r="C125" s="113"/>
-      <c r="D125" s="113"/>
-      <c r="E125" s="113"/>
-      <c r="F125" s="113"/>
+      <c r="B125" s="114"/>
+      <c r="C125" s="114"/>
+      <c r="D125" s="114"/>
+      <c r="E125" s="114"/>
+      <c r="F125" s="114"/>
     </row>
     <row r="126" spans="1:6" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
@@ -8415,10 +8240,10 @@
       <c r="D126" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="130" t="s">
+      <c r="E126" s="131" t="s">
         <v>689</v>
       </c>
-      <c r="F126" s="130" t="s">
+      <c r="F126" s="131" t="s">
         <v>692</v>
       </c>
     </row>
@@ -8435,8 +8260,8 @@
       <c r="D127" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="131"/>
-      <c r="F127" s="131"/>
+      <c r="E127" s="132"/>
+      <c r="F127" s="132"/>
     </row>
     <row r="128" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -8497,14 +8322,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="113" t="s">
+      <c r="A131" s="114" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="113"/>
-      <c r="C131" s="113"/>
-      <c r="D131" s="113"/>
-      <c r="E131" s="113"/>
-      <c r="F131" s="113"/>
+      <c r="B131" s="114"/>
+      <c r="C131" s="114"/>
+      <c r="D131" s="114"/>
+      <c r="E131" s="114"/>
+      <c r="F131" s="114"/>
     </row>
     <row r="132" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
@@ -8703,14 +8528,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="113" t="s">
+      <c r="A142" s="114" t="s">
         <v>368</v>
       </c>
-      <c r="B142" s="113"/>
-      <c r="C142" s="113"/>
-      <c r="D142" s="113"/>
-      <c r="E142" s="113"/>
-      <c r="F142" s="113"/>
+      <c r="B142" s="114"/>
+      <c r="C142" s="114"/>
+      <c r="D142" s="114"/>
+      <c r="E142" s="114"/>
+      <c r="F142" s="114"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
@@ -8953,14 +8778,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="113" t="s">
+      <c r="A155" s="114" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="113"/>
-      <c r="C155" s="113"/>
-      <c r="D155" s="113"/>
-      <c r="E155" s="113"/>
-      <c r="F155" s="113"/>
+      <c r="B155" s="114"/>
+      <c r="C155" s="114"/>
+      <c r="D155" s="114"/>
+      <c r="E155" s="114"/>
+      <c r="F155" s="114"/>
     </row>
     <row r="156" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
@@ -8975,10 +8800,10 @@
       <c r="D156" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E156" s="119" t="s">
+      <c r="E156" s="122" t="s">
         <v>681</v>
       </c>
-      <c r="F156" s="119" t="s">
+      <c r="F156" s="122" t="s">
         <v>657</v>
       </c>
     </row>
@@ -8995,8 +8820,8 @@
       <c r="D157" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E157" s="119"/>
-      <c r="F157" s="119"/>
+      <c r="E157" s="122"/>
+      <c r="F157" s="122"/>
     </row>
     <row r="158" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A158" s="24" t="s">
@@ -9200,12 +9025,19 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="F156:F157"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
     <mergeCell ref="E86:E88"/>
     <mergeCell ref="F86:F88"/>
     <mergeCell ref="A19:F19"/>
@@ -9219,19 +9051,12 @@
     <mergeCell ref="E70:E71"/>
     <mergeCell ref="F70:F71"/>
     <mergeCell ref="A82:F82"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="F156:F157"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9272,14 +9097,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
     </row>
     <row r="3" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -9422,14 +9247,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
     </row>
     <row r="11" spans="1:6" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
@@ -9444,10 +9269,10 @@
       <c r="D11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="116" t="s">
+      <c r="E11" s="115" t="s">
         <v>729</v>
       </c>
-      <c r="F11" s="117" t="s">
+      <c r="F11" s="116" t="s">
         <v>730</v>
       </c>
     </row>
@@ -9464,8 +9289,8 @@
       <c r="D12" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="118"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="117"/>
     </row>
     <row r="13" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -9588,14 +9413,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
     </row>
     <row r="20" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -9858,14 +9683,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="113" t="s">
+      <c r="A33" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -10068,14 +9893,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="113" t="s">
+      <c r="A44" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
@@ -10258,14 +10083,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="113" t="s">
+      <c r="A54" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="113"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
@@ -10428,14 +10253,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="113" t="s">
+      <c r="A63" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="113"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="113"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
@@ -10538,14 +10363,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="113" t="s">
+      <c r="A69" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
     </row>
     <row r="70" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
@@ -10788,14 +10613,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="113" t="s">
+      <c r="A82" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="113"/>
-      <c r="C82" s="113"/>
-      <c r="D82" s="113"/>
-      <c r="E82" s="113"/>
-      <c r="F82" s="113"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
     </row>
     <row r="83" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
@@ -10958,14 +10783,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="113" t="s">
+      <c r="A91" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="113"/>
-      <c r="C91" s="113"/>
-      <c r="D91" s="113"/>
-      <c r="E91" s="113"/>
-      <c r="F91" s="113"/>
+      <c r="B91" s="114"/>
+      <c r="C91" s="114"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="114"/>
+      <c r="F91" s="114"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
@@ -11168,14 +10993,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="113" t="s">
+      <c r="A102" s="114" t="s">
         <v>280</v>
       </c>
-      <c r="B102" s="113"/>
-      <c r="C102" s="113"/>
-      <c r="D102" s="113"/>
-      <c r="E102" s="113"/>
-      <c r="F102" s="113"/>
+      <c r="B102" s="114"/>
+      <c r="C102" s="114"/>
+      <c r="D102" s="114"/>
+      <c r="E102" s="114"/>
+      <c r="F102" s="114"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
@@ -11378,14 +11203,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="113" t="s">
+      <c r="A113" s="114" t="s">
         <v>304</v>
       </c>
-      <c r="B113" s="113"/>
-      <c r="C113" s="113"/>
-      <c r="D113" s="113"/>
-      <c r="E113" s="113"/>
-      <c r="F113" s="113"/>
+      <c r="B113" s="114"/>
+      <c r="C113" s="114"/>
+      <c r="D113" s="114"/>
+      <c r="E113" s="114"/>
+      <c r="F113" s="114"/>
     </row>
     <row r="114" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
@@ -11606,14 +11431,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="113" t="s">
+      <c r="A125" s="114" t="s">
         <v>332</v>
       </c>
-      <c r="B125" s="113"/>
-      <c r="C125" s="113"/>
-      <c r="D125" s="113"/>
-      <c r="E125" s="113"/>
-      <c r="F125" s="113"/>
+      <c r="B125" s="114"/>
+      <c r="C125" s="114"/>
+      <c r="D125" s="114"/>
+      <c r="E125" s="114"/>
+      <c r="F125" s="114"/>
     </row>
     <row r="126" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
@@ -11628,10 +11453,10 @@
       <c r="D126" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="130" t="s">
+      <c r="E126" s="131" t="s">
         <v>715</v>
       </c>
-      <c r="F126" s="130" t="s">
+      <c r="F126" s="131" t="s">
         <v>716</v>
       </c>
     </row>
@@ -11648,8 +11473,8 @@
       <c r="D127" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="131"/>
-      <c r="F127" s="131"/>
+      <c r="E127" s="132"/>
+      <c r="F127" s="132"/>
     </row>
     <row r="128" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -11710,14 +11535,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="113" t="s">
+      <c r="A131" s="114" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="113"/>
-      <c r="C131" s="113"/>
-      <c r="D131" s="113"/>
-      <c r="E131" s="113"/>
-      <c r="F131" s="113"/>
+      <c r="B131" s="114"/>
+      <c r="C131" s="114"/>
+      <c r="D131" s="114"/>
+      <c r="E131" s="114"/>
+      <c r="F131" s="114"/>
     </row>
     <row r="132" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
@@ -11916,14 +11741,14 @@
       <c r="F141" s="33"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="113" t="s">
+      <c r="A142" s="114" t="s">
         <v>368</v>
       </c>
-      <c r="B142" s="113"/>
-      <c r="C142" s="113"/>
-      <c r="D142" s="113"/>
-      <c r="E142" s="113"/>
-      <c r="F142" s="113"/>
+      <c r="B142" s="114"/>
+      <c r="C142" s="114"/>
+      <c r="D142" s="114"/>
+      <c r="E142" s="114"/>
+      <c r="F142" s="114"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
@@ -12166,14 +11991,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="113" t="s">
+      <c r="A155" s="114" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="113"/>
-      <c r="C155" s="113"/>
-      <c r="D155" s="113"/>
-      <c r="E155" s="113"/>
-      <c r="F155" s="113"/>
+      <c r="B155" s="114"/>
+      <c r="C155" s="114"/>
+      <c r="D155" s="114"/>
+      <c r="E155" s="114"/>
+      <c r="F155" s="114"/>
     </row>
     <row r="156" spans="1:6" ht="168.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
@@ -12417,6 +12242,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A10:F10"/>
@@ -12429,14 +12262,6 @@
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A69:F69"/>
     <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -12479,14 +12304,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
     </row>
     <row r="3" spans="1:6" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -12627,14 +12452,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
     </row>
     <row r="11" spans="1:6" ht="198.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
@@ -12649,10 +12474,10 @@
       <c r="D11" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="120" t="s">
         <v>735</v>
       </c>
-      <c r="F11" s="121" t="s">
+      <c r="F11" s="120" t="s">
         <v>736</v>
       </c>
     </row>
@@ -12669,8 +12494,8 @@
       <c r="D12" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
     </row>
     <row r="13" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -12791,14 +12616,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
     </row>
     <row r="20" spans="1:6" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -12813,10 +12638,10 @@
       <c r="D20" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="121" t="s">
+      <c r="E20" s="120" t="s">
         <v>737</v>
       </c>
-      <c r="F20" s="121" t="s">
+      <c r="F20" s="120" t="s">
         <v>738</v>
       </c>
     </row>
@@ -12833,8 +12658,8 @@
       <c r="D21" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
     </row>
     <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -13057,14 +12882,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="113" t="s">
+      <c r="A33" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -13267,14 +13092,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="113" t="s">
+      <c r="A44" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
@@ -13457,14 +13282,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="113" t="s">
+      <c r="A54" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="113"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
@@ -13627,14 +13452,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="113" t="s">
+      <c r="A63" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="113"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="113"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
@@ -13737,14 +13562,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="113" t="s">
+      <c r="A69" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
     </row>
     <row r="70" spans="1:6" ht="171.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
@@ -13759,10 +13584,10 @@
       <c r="D70" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="121" t="s">
+      <c r="E70" s="120" t="s">
         <v>745</v>
       </c>
-      <c r="F70" s="121" t="s">
+      <c r="F70" s="120" t="s">
         <v>746</v>
       </c>
     </row>
@@ -13779,8 +13604,8 @@
       <c r="D71" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="122"/>
-      <c r="F71" s="122"/>
+      <c r="E71" s="121"/>
+      <c r="F71" s="121"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -13983,14 +13808,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="113" t="s">
+      <c r="A82" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="113"/>
-      <c r="C82" s="113"/>
-      <c r="D82" s="113"/>
-      <c r="E82" s="113"/>
-      <c r="F82" s="113"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
     </row>
     <row r="83" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
@@ -14153,14 +13978,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="113" t="s">
+      <c r="A91" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="113"/>
-      <c r="C91" s="113"/>
-      <c r="D91" s="113"/>
-      <c r="E91" s="113"/>
-      <c r="F91" s="113"/>
+      <c r="B91" s="114"/>
+      <c r="C91" s="114"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="114"/>
+      <c r="F91" s="114"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
@@ -14363,14 +14188,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="113" t="s">
+      <c r="A102" s="114" t="s">
         <v>280</v>
       </c>
-      <c r="B102" s="113"/>
-      <c r="C102" s="113"/>
-      <c r="D102" s="113"/>
-      <c r="E102" s="113"/>
-      <c r="F102" s="113"/>
+      <c r="B102" s="114"/>
+      <c r="C102" s="114"/>
+      <c r="D102" s="114"/>
+      <c r="E102" s="114"/>
+      <c r="F102" s="114"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
@@ -14573,14 +14398,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="113" t="s">
+      <c r="A113" s="114" t="s">
         <v>304</v>
       </c>
-      <c r="B113" s="113"/>
-      <c r="C113" s="113"/>
-      <c r="D113" s="113"/>
-      <c r="E113" s="113"/>
-      <c r="F113" s="113"/>
+      <c r="B113" s="114"/>
+      <c r="C113" s="114"/>
+      <c r="D113" s="114"/>
+      <c r="E113" s="114"/>
+      <c r="F113" s="114"/>
     </row>
     <row r="114" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
@@ -14801,14 +14626,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="113" t="s">
+      <c r="A125" s="114" t="s">
         <v>332</v>
       </c>
-      <c r="B125" s="113"/>
-      <c r="C125" s="113"/>
-      <c r="D125" s="113"/>
-      <c r="E125" s="113"/>
-      <c r="F125" s="113"/>
+      <c r="B125" s="114"/>
+      <c r="C125" s="114"/>
+      <c r="D125" s="114"/>
+      <c r="E125" s="114"/>
+      <c r="F125" s="114"/>
     </row>
     <row r="126" spans="1:6" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
@@ -14823,10 +14648,10 @@
       <c r="D126" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="130" t="s">
+      <c r="E126" s="131" t="s">
         <v>753</v>
       </c>
-      <c r="F126" s="130" t="s">
+      <c r="F126" s="131" t="s">
         <v>754</v>
       </c>
     </row>
@@ -14843,8 +14668,8 @@
       <c r="D127" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="131"/>
-      <c r="F127" s="131"/>
+      <c r="E127" s="132"/>
+      <c r="F127" s="132"/>
     </row>
     <row r="128" spans="1:6" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -14903,14 +14728,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="113" t="s">
+      <c r="A131" s="114" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="113"/>
-      <c r="C131" s="113"/>
-      <c r="D131" s="113"/>
-      <c r="E131" s="113"/>
-      <c r="F131" s="113"/>
+      <c r="B131" s="114"/>
+      <c r="C131" s="114"/>
+      <c r="D131" s="114"/>
+      <c r="E131" s="114"/>
+      <c r="F131" s="114"/>
     </row>
     <row r="132" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
@@ -14985,10 +14810,10 @@
       <c r="D135" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E135" s="121" t="s">
+      <c r="E135" s="120" t="s">
         <v>758</v>
       </c>
-      <c r="F135" s="121" t="s">
+      <c r="F135" s="120" t="s">
         <v>748</v>
       </c>
     </row>
@@ -15005,8 +14830,8 @@
       <c r="D136" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E136" s="122"/>
-      <c r="F136" s="122"/>
+      <c r="E136" s="121"/>
+      <c r="F136" s="121"/>
     </row>
     <row r="137" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A137" s="24" t="s">
@@ -15109,14 +14934,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="113" t="s">
+      <c r="A142" s="114" t="s">
         <v>368</v>
       </c>
-      <c r="B142" s="113"/>
-      <c r="C142" s="113"/>
-      <c r="D142" s="113"/>
-      <c r="E142" s="113"/>
-      <c r="F142" s="113"/>
+      <c r="B142" s="114"/>
+      <c r="C142" s="114"/>
+      <c r="D142" s="114"/>
+      <c r="E142" s="114"/>
+      <c r="F142" s="114"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
@@ -15359,14 +15184,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="113" t="s">
+      <c r="A155" s="114" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="113"/>
-      <c r="C155" s="113"/>
-      <c r="D155" s="113"/>
-      <c r="E155" s="113"/>
-      <c r="F155" s="113"/>
+      <c r="B155" s="114"/>
+      <c r="C155" s="114"/>
+      <c r="D155" s="114"/>
+      <c r="E155" s="114"/>
+      <c r="F155" s="114"/>
     </row>
     <row r="156" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
@@ -15610,11 +15435,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="A33:F33"/>
@@ -15629,13 +15456,11 @@
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A113:F113"/>
     <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15677,14 +15502,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
     </row>
     <row r="3" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -15827,14 +15652,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
     </row>
     <row r="11" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
@@ -15997,14 +15822,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
     </row>
     <row r="20" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -16267,14 +16092,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="113" t="s">
+      <c r="A33" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -16477,14 +16302,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="113" t="s">
+      <c r="A44" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
@@ -16667,14 +16492,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="113" t="s">
+      <c r="A54" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="113"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
@@ -16837,14 +16662,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="113" t="s">
+      <c r="A63" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="113"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="113"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
@@ -16947,14 +16772,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="113" t="s">
+      <c r="A69" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
     </row>
     <row r="70" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
@@ -17197,14 +17022,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="113" t="s">
+      <c r="A82" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="113"/>
-      <c r="C82" s="113"/>
-      <c r="D82" s="113"/>
-      <c r="E82" s="113"/>
-      <c r="F82" s="113"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
     </row>
     <row r="83" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
@@ -17367,14 +17192,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="113" t="s">
+      <c r="A91" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="113"/>
-      <c r="C91" s="113"/>
-      <c r="D91" s="113"/>
-      <c r="E91" s="113"/>
-      <c r="F91" s="113"/>
+      <c r="B91" s="114"/>
+      <c r="C91" s="114"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="114"/>
+      <c r="F91" s="114"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
@@ -17577,14 +17402,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="113" t="s">
+      <c r="A102" s="114" t="s">
         <v>280</v>
       </c>
-      <c r="B102" s="113"/>
-      <c r="C102" s="113"/>
-      <c r="D102" s="113"/>
-      <c r="E102" s="113"/>
-      <c r="F102" s="113"/>
+      <c r="B102" s="114"/>
+      <c r="C102" s="114"/>
+      <c r="D102" s="114"/>
+      <c r="E102" s="114"/>
+      <c r="F102" s="114"/>
     </row>
     <row r="103" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
@@ -17785,14 +17610,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="113" t="s">
+      <c r="A113" s="114" t="s">
         <v>304</v>
       </c>
-      <c r="B113" s="113"/>
-      <c r="C113" s="113"/>
-      <c r="D113" s="113"/>
-      <c r="E113" s="113"/>
-      <c r="F113" s="113"/>
+      <c r="B113" s="114"/>
+      <c r="C113" s="114"/>
+      <c r="D113" s="114"/>
+      <c r="E113" s="114"/>
+      <c r="F113" s="114"/>
     </row>
     <row r="114" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
@@ -18015,14 +17840,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="113" t="s">
+      <c r="A125" s="114" t="s">
         <v>332</v>
       </c>
-      <c r="B125" s="113"/>
-      <c r="C125" s="113"/>
-      <c r="D125" s="113"/>
-      <c r="E125" s="113"/>
-      <c r="F125" s="113"/>
+      <c r="B125" s="114"/>
+      <c r="C125" s="114"/>
+      <c r="D125" s="114"/>
+      <c r="E125" s="114"/>
+      <c r="F125" s="114"/>
     </row>
     <row r="126" spans="1:6" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
@@ -18037,10 +17862,10 @@
       <c r="D126" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="116" t="s">
+      <c r="E126" s="115" t="s">
         <v>469</v>
       </c>
-      <c r="F126" s="117" t="s">
+      <c r="F126" s="116" t="s">
         <v>470</v>
       </c>
     </row>
@@ -18057,8 +17882,8 @@
       <c r="D127" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="116"/>
-      <c r="F127" s="118"/>
+      <c r="E127" s="115"/>
+      <c r="F127" s="117"/>
     </row>
     <row r="128" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -18121,14 +17946,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="113" t="s">
+      <c r="A131" s="114" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="113"/>
-      <c r="C131" s="113"/>
-      <c r="D131" s="113"/>
-      <c r="E131" s="113"/>
-      <c r="F131" s="113"/>
+      <c r="B131" s="114"/>
+      <c r="C131" s="114"/>
+      <c r="D131" s="114"/>
+      <c r="E131" s="114"/>
+      <c r="F131" s="114"/>
     </row>
     <row r="132" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
@@ -18331,14 +18156,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="113" t="s">
+      <c r="A142" s="114" t="s">
         <v>368</v>
       </c>
-      <c r="B142" s="113"/>
-      <c r="C142" s="113"/>
-      <c r="D142" s="113"/>
-      <c r="E142" s="113"/>
-      <c r="F142" s="113"/>
+      <c r="B142" s="114"/>
+      <c r="C142" s="114"/>
+      <c r="D142" s="114"/>
+      <c r="E142" s="114"/>
+      <c r="F142" s="114"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
@@ -18581,14 +18406,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="113" t="s">
+      <c r="A155" s="114" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="113"/>
-      <c r="C155" s="113"/>
-      <c r="D155" s="113"/>
-      <c r="E155" s="113"/>
-      <c r="F155" s="113"/>
+      <c r="B155" s="114"/>
+      <c r="C155" s="114"/>
+      <c r="D155" s="114"/>
+      <c r="E155" s="114"/>
+      <c r="F155" s="114"/>
     </row>
     <row r="156" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
@@ -18832,6 +18657,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A69:F69"/>
@@ -18844,12 +18675,6 @@
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="A131:F131"/>
     <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18891,14 +18716,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
     </row>
     <row r="3" spans="1:6" ht="197.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -18913,10 +18738,10 @@
       <c r="D3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="116" t="s">
+      <c r="F3" s="115" t="s">
         <v>28</v>
       </c>
     </row>
@@ -18933,8 +18758,8 @@
       <c r="D4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
     </row>
     <row r="5" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -19037,14 +18862,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
     </row>
     <row r="11" spans="1:6" ht="173.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
@@ -19059,10 +18884,10 @@
       <c r="D11" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="122" t="s">
         <v>53</v>
       </c>
     </row>
@@ -19079,8 +18904,8 @@
       <c r="D12" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
     </row>
     <row r="13" spans="1:6" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -19095,8 +18920,8 @@
       <c r="D13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
     </row>
     <row r="14" spans="1:6" ht="228.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -19199,14 +19024,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
     </row>
     <row r="20" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -19461,14 +19286,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="113" t="s">
+      <c r="A33" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
     </row>
     <row r="34" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -19671,14 +19496,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="113" t="s">
+      <c r="A44" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
     </row>
     <row r="45" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
@@ -19861,14 +19686,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="113" t="s">
+      <c r="A54" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="113"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
     </row>
     <row r="55" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
@@ -20031,14 +19856,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="113" t="s">
+      <c r="A63" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="113"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="113"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
@@ -20141,14 +19966,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="113" t="s">
+      <c r="A69" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
     </row>
     <row r="70" spans="1:6" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
@@ -20163,10 +19988,10 @@
       <c r="D70" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="116" t="s">
+      <c r="E70" s="115" t="s">
         <v>201</v>
       </c>
-      <c r="F70" s="116" t="s">
+      <c r="F70" s="115" t="s">
         <v>202</v>
       </c>
     </row>
@@ -20183,8 +20008,8 @@
       <c r="D71" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="116"/>
-      <c r="F71" s="116"/>
+      <c r="E71" s="115"/>
+      <c r="F71" s="115"/>
     </row>
     <row r="72" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -20387,14 +20212,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="113" t="s">
+      <c r="A82" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="113"/>
-      <c r="C82" s="113"/>
-      <c r="D82" s="113"/>
-      <c r="E82" s="113"/>
-      <c r="F82" s="113"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
     </row>
     <row r="83" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
@@ -20557,14 +20382,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="113" t="s">
+      <c r="A91" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="113"/>
-      <c r="C91" s="113"/>
-      <c r="D91" s="113"/>
-      <c r="E91" s="113"/>
-      <c r="F91" s="113"/>
+      <c r="B91" s="114"/>
+      <c r="C91" s="114"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="114"/>
+      <c r="F91" s="114"/>
     </row>
     <row r="92" spans="1:6" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
@@ -20767,14 +20592,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="113" t="s">
+      <c r="A102" s="114" t="s">
         <v>280</v>
       </c>
-      <c r="B102" s="113"/>
-      <c r="C102" s="113"/>
-      <c r="D102" s="113"/>
-      <c r="E102" s="113"/>
-      <c r="F102" s="113"/>
+      <c r="B102" s="114"/>
+      <c r="C102" s="114"/>
+      <c r="D102" s="114"/>
+      <c r="E102" s="114"/>
+      <c r="F102" s="114"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
@@ -20977,14 +20802,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="113" t="s">
+      <c r="A113" s="114" t="s">
         <v>304</v>
       </c>
-      <c r="B113" s="113"/>
-      <c r="C113" s="113"/>
-      <c r="D113" s="113"/>
-      <c r="E113" s="113"/>
-      <c r="F113" s="113"/>
+      <c r="B113" s="114"/>
+      <c r="C113" s="114"/>
+      <c r="D113" s="114"/>
+      <c r="E113" s="114"/>
+      <c r="F113" s="114"/>
     </row>
     <row r="114" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
@@ -20999,10 +20824,10 @@
       <c r="D114" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="119" t="s">
+      <c r="E114" s="122" t="s">
         <v>307</v>
       </c>
-      <c r="F114" s="119" t="s">
+      <c r="F114" s="122" t="s">
         <v>308</v>
       </c>
     </row>
@@ -21019,8 +20844,8 @@
       <c r="D115" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="119"/>
-      <c r="F115" s="119"/>
+      <c r="E115" s="122"/>
+      <c r="F115" s="122"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -21203,14 +21028,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="113" t="s">
+      <c r="A125" s="114" t="s">
         <v>332</v>
       </c>
-      <c r="B125" s="113"/>
-      <c r="C125" s="113"/>
-      <c r="D125" s="113"/>
-      <c r="E125" s="113"/>
-      <c r="F125" s="113"/>
+      <c r="B125" s="114"/>
+      <c r="C125" s="114"/>
+      <c r="D125" s="114"/>
+      <c r="E125" s="114"/>
+      <c r="F125" s="114"/>
     </row>
     <row r="126" spans="1:6" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
@@ -21225,10 +21050,10 @@
       <c r="D126" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="119" t="s">
+      <c r="E126" s="122" t="s">
         <v>335</v>
       </c>
-      <c r="F126" s="119" t="s">
+      <c r="F126" s="122" t="s">
         <v>336</v>
       </c>
     </row>
@@ -21245,8 +21070,8 @@
       <c r="D127" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="119"/>
-      <c r="F127" s="119"/>
+      <c r="E127" s="122"/>
+      <c r="F127" s="122"/>
     </row>
     <row r="128" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -21309,14 +21134,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="113" t="s">
+      <c r="A131" s="114" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="113"/>
-      <c r="C131" s="113"/>
-      <c r="D131" s="113"/>
-      <c r="E131" s="113"/>
-      <c r="F131" s="113"/>
+      <c r="B131" s="114"/>
+      <c r="C131" s="114"/>
+      <c r="D131" s="114"/>
+      <c r="E131" s="114"/>
+      <c r="F131" s="114"/>
     </row>
     <row r="132" spans="1:6" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
@@ -21331,10 +21156,10 @@
       <c r="D132" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="119" t="s">
+      <c r="E132" s="122" t="s">
         <v>348</v>
       </c>
-      <c r="F132" s="119" t="s">
+      <c r="F132" s="122" t="s">
         <v>349</v>
       </c>
     </row>
@@ -21351,8 +21176,8 @@
       <c r="D133" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="119"/>
-      <c r="F133" s="119"/>
+      <c r="E133" s="122"/>
+      <c r="F133" s="122"/>
     </row>
     <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="24" t="s">
@@ -21515,14 +21340,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="113" t="s">
+      <c r="A142" s="114" t="s">
         <v>368</v>
       </c>
-      <c r="B142" s="113"/>
-      <c r="C142" s="113"/>
-      <c r="D142" s="113"/>
-      <c r="E142" s="113"/>
-      <c r="F142" s="113"/>
+      <c r="B142" s="114"/>
+      <c r="C142" s="114"/>
+      <c r="D142" s="114"/>
+      <c r="E142" s="114"/>
+      <c r="F142" s="114"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
@@ -21717,10 +21542,10 @@
       <c r="D152" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="120" t="s">
+      <c r="E152" s="123" t="s">
         <v>400</v>
       </c>
-      <c r="F152" s="120" t="s">
+      <c r="F152" s="123" t="s">
         <v>401</v>
       </c>
     </row>
@@ -21737,8 +21562,8 @@
       <c r="D153" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="120"/>
-      <c r="F153" s="120"/>
+      <c r="E153" s="123"/>
+      <c r="F153" s="123"/>
     </row>
     <row r="154" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="24" t="s">
@@ -21761,14 +21586,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="113" t="s">
+      <c r="A155" s="114" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="113"/>
-      <c r="C155" s="113"/>
-      <c r="D155" s="113"/>
-      <c r="E155" s="113"/>
-      <c r="F155" s="113"/>
+      <c r="B155" s="114"/>
+      <c r="C155" s="114"/>
+      <c r="D155" s="114"/>
+      <c r="E155" s="114"/>
+      <c r="F155" s="114"/>
     </row>
     <row r="156" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
@@ -21783,10 +21608,10 @@
       <c r="D156" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E156" s="121" t="s">
+      <c r="E156" s="120" t="s">
         <v>410</v>
       </c>
-      <c r="F156" s="121" t="s">
+      <c r="F156" s="120" t="s">
         <v>411</v>
       </c>
     </row>
@@ -21803,8 +21628,8 @@
       <c r="D157" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E157" s="122"/>
-      <c r="F157" s="122"/>
+      <c r="E157" s="121"/>
+      <c r="F157" s="121"/>
     </row>
     <row r="158" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A158" s="24" t="s">
@@ -22008,6 +21833,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="F152:F153"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="F156:F157"/>
     <mergeCell ref="E156:E157"/>
@@ -22024,22 +21865,6 @@
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="A125:F125"/>
     <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A82:F82"/>
   </mergeCells>
   <conditionalFormatting sqref="E109">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -22090,14 +21915,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
     </row>
     <row r="3" spans="1:6" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -22112,10 +21937,10 @@
       <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="119" t="s">
+      <c r="E3" s="122" t="s">
         <v>482</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="122" t="s">
         <v>483</v>
       </c>
     </row>
@@ -22132,8 +21957,8 @@
       <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -22236,14 +22061,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
     </row>
     <row r="11" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
@@ -22258,10 +22083,10 @@
       <c r="D11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="122" t="s">
         <v>487</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="122" t="s">
         <v>488</v>
       </c>
     </row>
@@ -22278,8 +22103,8 @@
       <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
     </row>
     <row r="13" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -22294,8 +22119,8 @@
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
     </row>
     <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -22398,14 +22223,14 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
     </row>
     <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -22667,14 +22492,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="113" t="s">
+      <c r="A33" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -22877,14 +22702,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="113" t="s">
+      <c r="A44" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
@@ -23067,14 +22892,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="113" t="s">
+      <c r="A54" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="113"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
     </row>
     <row r="55" spans="1:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
@@ -23237,14 +23062,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="113" t="s">
+      <c r="A63" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="113"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="113"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
     </row>
     <row r="64" spans="1:6" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
@@ -23259,10 +23084,10 @@
       <c r="D64" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="119" t="s">
+      <c r="E64" s="122" t="s">
         <v>504</v>
       </c>
-      <c r="F64" s="119" t="s">
+      <c r="F64" s="122" t="s">
         <v>505</v>
       </c>
     </row>
@@ -23279,8 +23104,8 @@
       <c r="D65" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="119"/>
-      <c r="F65" s="119"/>
+      <c r="E65" s="122"/>
+      <c r="F65" s="122"/>
     </row>
     <row r="66" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
@@ -23343,14 +23168,14 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="113" t="s">
+      <c r="A69" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
     </row>
     <row r="70" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
@@ -23365,10 +23190,10 @@
       <c r="D70" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="119" t="s">
+      <c r="E70" s="122" t="s">
         <v>506</v>
       </c>
-      <c r="F70" s="119" t="s">
+      <c r="F70" s="122" t="s">
         <v>507</v>
       </c>
       <c r="G70" s="63"/>
@@ -23386,8 +23211,8 @@
       <c r="D71" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="119"/>
-      <c r="F71" s="119"/>
+      <c r="E71" s="122"/>
+      <c r="F71" s="122"/>
       <c r="G71" s="63"/>
     </row>
     <row r="72" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -23592,14 +23417,14 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="113" t="s">
+      <c r="A82" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="113"/>
-      <c r="C82" s="113"/>
-      <c r="D82" s="113"/>
-      <c r="E82" s="113"/>
-      <c r="F82" s="113"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
     </row>
     <row r="83" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
@@ -23763,14 +23588,14 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="113" t="s">
+      <c r="A91" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="113"/>
-      <c r="C91" s="113"/>
-      <c r="D91" s="113"/>
-      <c r="E91" s="113"/>
-      <c r="F91" s="113"/>
+      <c r="B91" s="114"/>
+      <c r="C91" s="114"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="114"/>
+      <c r="F91" s="114"/>
     </row>
     <row r="92" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
@@ -23973,14 +23798,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="113" t="s">
+      <c r="A102" s="114" t="s">
         <v>280</v>
       </c>
-      <c r="B102" s="113"/>
-      <c r="C102" s="113"/>
-      <c r="D102" s="113"/>
-      <c r="E102" s="113"/>
-      <c r="F102" s="113"/>
+      <c r="B102" s="114"/>
+      <c r="C102" s="114"/>
+      <c r="D102" s="114"/>
+      <c r="E102" s="114"/>
+      <c r="F102" s="114"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
@@ -24183,14 +24008,14 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="113" t="s">
+      <c r="A113" s="114" t="s">
         <v>304</v>
       </c>
-      <c r="B113" s="113"/>
-      <c r="C113" s="113"/>
-      <c r="D113" s="113"/>
-      <c r="E113" s="113"/>
-      <c r="F113" s="113"/>
+      <c r="B113" s="114"/>
+      <c r="C113" s="114"/>
+      <c r="D113" s="114"/>
+      <c r="E113" s="114"/>
+      <c r="F113" s="114"/>
     </row>
     <row r="114" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
@@ -24205,10 +24030,10 @@
       <c r="D114" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="123" t="s">
+      <c r="E114" s="125" t="s">
         <v>513</v>
       </c>
-      <c r="F114" s="116" t="s">
+      <c r="F114" s="115" t="s">
         <v>514</v>
       </c>
     </row>
@@ -24225,8 +24050,8 @@
       <c r="D115" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="123"/>
-      <c r="F115" s="116"/>
+      <c r="E115" s="125"/>
+      <c r="F115" s="115"/>
     </row>
     <row r="116" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -24409,14 +24234,14 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="113" t="s">
+      <c r="A125" s="114" t="s">
         <v>332</v>
       </c>
-      <c r="B125" s="113"/>
-      <c r="C125" s="113"/>
-      <c r="D125" s="113"/>
-      <c r="E125" s="113"/>
-      <c r="F125" s="113"/>
+      <c r="B125" s="114"/>
+      <c r="C125" s="114"/>
+      <c r="D125" s="114"/>
+      <c r="E125" s="114"/>
+      <c r="F125" s="114"/>
     </row>
     <row r="126" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
@@ -24431,10 +24256,10 @@
       <c r="D126" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="116" t="s">
+      <c r="E126" s="115" t="s">
         <v>517</v>
       </c>
-      <c r="F126" s="117" t="s">
+      <c r="F126" s="116" t="s">
         <v>518</v>
       </c>
     </row>
@@ -24451,8 +24276,8 @@
       <c r="D127" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="116"/>
-      <c r="F127" s="118"/>
+      <c r="E127" s="115"/>
+      <c r="F127" s="117"/>
     </row>
     <row r="128" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -24514,14 +24339,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="113" t="s">
+      <c r="A131" s="114" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="113"/>
-      <c r="C131" s="113"/>
-      <c r="D131" s="113"/>
-      <c r="E131" s="113"/>
-      <c r="F131" s="113"/>
+      <c r="B131" s="114"/>
+      <c r="C131" s="114"/>
+      <c r="D131" s="114"/>
+      <c r="E131" s="114"/>
+      <c r="F131" s="114"/>
     </row>
     <row r="132" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
@@ -24536,10 +24361,10 @@
       <c r="D132" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="116" t="s">
+      <c r="E132" s="115" t="s">
         <v>519</v>
       </c>
-      <c r="F132" s="116" t="s">
+      <c r="F132" s="115" t="s">
         <v>520</v>
       </c>
     </row>
@@ -24556,8 +24381,8 @@
       <c r="D133" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="116"/>
-      <c r="F133" s="116"/>
+      <c r="E133" s="115"/>
+      <c r="F133" s="115"/>
     </row>
     <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="24" t="s">
@@ -24572,8 +24397,8 @@
       <c r="D134" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E134" s="116"/>
-      <c r="F134" s="116"/>
+      <c r="E134" s="115"/>
+      <c r="F134" s="115"/>
     </row>
     <row r="135" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A135" s="24" t="s">
@@ -24716,14 +24541,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="113" t="s">
+      <c r="A142" s="114" t="s">
         <v>368</v>
       </c>
-      <c r="B142" s="113"/>
-      <c r="C142" s="113"/>
-      <c r="D142" s="113"/>
-      <c r="E142" s="113"/>
-      <c r="F142" s="113"/>
+      <c r="B142" s="114"/>
+      <c r="C142" s="114"/>
+      <c r="D142" s="114"/>
+      <c r="E142" s="114"/>
+      <c r="F142" s="114"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
@@ -24741,7 +24566,7 @@
       <c r="E143" s="29" t="s">
         <v>521</v>
       </c>
-      <c r="F143" s="119" t="s">
+      <c r="F143" s="122" t="s">
         <v>379</v>
       </c>
     </row>
@@ -24761,7 +24586,7 @@
       <c r="E144" s="29" t="s">
         <v>522</v>
       </c>
-      <c r="F144" s="119"/>
+      <c r="F144" s="122"/>
     </row>
     <row r="145" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A145" s="24" t="s">
@@ -24876,10 +24701,10 @@
       <c r="D150" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E150" s="117" t="s">
+      <c r="E150" s="116" t="s">
         <v>528</v>
       </c>
-      <c r="F150" s="117" t="s">
+      <c r="F150" s="116" t="s">
         <v>529</v>
       </c>
       <c r="G150" s="68"/>
@@ -24897,8 +24722,8 @@
       <c r="D151" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E151" s="118"/>
-      <c r="F151" s="118"/>
+      <c r="E151" s="117"/>
+      <c r="F151" s="117"/>
       <c r="G151" s="63"/>
     </row>
     <row r="152" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -24958,14 +24783,14 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="113" t="s">
+      <c r="A155" s="114" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="113"/>
-      <c r="C155" s="113"/>
-      <c r="D155" s="113"/>
-      <c r="E155" s="113"/>
-      <c r="F155" s="113"/>
+      <c r="B155" s="114"/>
+      <c r="C155" s="114"/>
+      <c r="D155" s="114"/>
+      <c r="E155" s="114"/>
+      <c r="F155" s="114"/>
     </row>
     <row r="156" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
@@ -25209,22 +25034,12 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="F132:F134"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A33:F33"/>
@@ -25238,12 +25053,22 @@
     <mergeCell ref="F70:F71"/>
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="F132:F134"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="F150:F151"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25285,14 +25110,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
     </row>
     <row r="3" spans="1:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -25307,10 +25132,10 @@
       <c r="D3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="119" t="s">
+      <c r="E3" s="122" t="s">
         <v>532</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="120" t="s">
         <v>533</v>
       </c>
     </row>
@@ -25327,8 +25152,8 @@
       <c r="D4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="121"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -25431,14 +25256,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
     </row>
     <row r="11" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
@@ -25453,10 +25278,10 @@
       <c r="D11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="120" t="s">
         <v>537</v>
       </c>
-      <c r="F11" s="121" t="s">
+      <c r="F11" s="120" t="s">
         <v>538</v>
       </c>
     </row>
@@ -25473,8 +25298,8 @@
       <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
     </row>
     <row r="13" spans="1:6" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -25489,8 +25314,8 @@
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
     </row>
     <row r="14" spans="1:6" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -25593,14 +25418,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
     </row>
     <row r="20" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -25861,14 +25686,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="113" t="s">
+      <c r="A33" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -26071,14 +25896,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="113" t="s">
+      <c r="A44" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
@@ -26261,14 +26086,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="113" t="s">
+      <c r="A54" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="113"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
     </row>
     <row r="55" spans="1:6" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
@@ -26423,14 +26248,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="113" t="s">
+      <c r="A63" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="113"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="113"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
@@ -26533,14 +26358,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="113" t="s">
+      <c r="A69" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
     </row>
     <row r="70" spans="1:6" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
@@ -26555,10 +26380,10 @@
       <c r="D70" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="121" t="s">
+      <c r="E70" s="120" t="s">
         <v>548</v>
       </c>
-      <c r="F70" s="117" t="s">
+      <c r="F70" s="116" t="s">
         <v>549</v>
       </c>
     </row>
@@ -26575,8 +26400,8 @@
       <c r="D71" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="122"/>
-      <c r="F71" s="128"/>
+      <c r="E71" s="121"/>
+      <c r="F71" s="127"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -26779,14 +26604,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="113" t="s">
+      <c r="A82" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="113"/>
-      <c r="C82" s="113"/>
-      <c r="D82" s="113"/>
-      <c r="E82" s="113"/>
-      <c r="F82" s="113"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
     </row>
     <row r="83" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
@@ -26949,14 +26774,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="113" t="s">
+      <c r="A91" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="113"/>
-      <c r="C91" s="113"/>
-      <c r="D91" s="113"/>
-      <c r="E91" s="113"/>
-      <c r="F91" s="113"/>
+      <c r="B91" s="114"/>
+      <c r="C91" s="114"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="114"/>
+      <c r="F91" s="114"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
@@ -27155,14 +26980,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="113" t="s">
+      <c r="A102" s="114" t="s">
         <v>280</v>
       </c>
-      <c r="B102" s="113"/>
-      <c r="C102" s="113"/>
-      <c r="D102" s="113"/>
-      <c r="E102" s="113"/>
-      <c r="F102" s="113"/>
+      <c r="B102" s="114"/>
+      <c r="C102" s="114"/>
+      <c r="D102" s="114"/>
+      <c r="E102" s="114"/>
+      <c r="F102" s="114"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
@@ -27365,14 +27190,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="113" t="s">
+      <c r="A113" s="114" t="s">
         <v>304</v>
       </c>
-      <c r="B113" s="113"/>
-      <c r="C113" s="113"/>
-      <c r="D113" s="113"/>
-      <c r="E113" s="113"/>
-      <c r="F113" s="113"/>
+      <c r="B113" s="114"/>
+      <c r="C113" s="114"/>
+      <c r="D113" s="114"/>
+      <c r="E113" s="114"/>
+      <c r="F113" s="114"/>
     </row>
     <row r="114" spans="1:6" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
@@ -27595,14 +27420,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="113" t="s">
+      <c r="A125" s="114" t="s">
         <v>332</v>
       </c>
-      <c r="B125" s="113"/>
-      <c r="C125" s="113"/>
-      <c r="D125" s="113"/>
-      <c r="E125" s="113"/>
-      <c r="F125" s="113"/>
+      <c r="B125" s="114"/>
+      <c r="C125" s="114"/>
+      <c r="D125" s="114"/>
+      <c r="E125" s="114"/>
+      <c r="F125" s="114"/>
     </row>
     <row r="126" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
@@ -27617,10 +27442,10 @@
       <c r="D126" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="116" t="s">
+      <c r="E126" s="115" t="s">
         <v>558</v>
       </c>
-      <c r="F126" s="117" t="s">
+      <c r="F126" s="116" t="s">
         <v>559</v>
       </c>
     </row>
@@ -27637,8 +27462,8 @@
       <c r="D127" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="116"/>
-      <c r="F127" s="118"/>
+      <c r="E127" s="115"/>
+      <c r="F127" s="117"/>
     </row>
     <row r="128" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -27699,14 +27524,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="113" t="s">
+      <c r="A131" s="114" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="113"/>
-      <c r="C131" s="113"/>
-      <c r="D131" s="113"/>
-      <c r="E131" s="113"/>
-      <c r="F131" s="113"/>
+      <c r="B131" s="114"/>
+      <c r="C131" s="114"/>
+      <c r="D131" s="114"/>
+      <c r="E131" s="114"/>
+      <c r="F131" s="114"/>
     </row>
     <row r="132" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
@@ -27721,10 +27546,10 @@
       <c r="D132" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="116" t="s">
+      <c r="E132" s="115" t="s">
         <v>560</v>
       </c>
-      <c r="F132" s="117" t="s">
+      <c r="F132" s="116" t="s">
         <v>561</v>
       </c>
     </row>
@@ -27741,8 +27566,8 @@
       <c r="D133" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="116"/>
-      <c r="F133" s="118"/>
+      <c r="E133" s="115"/>
+      <c r="F133" s="117"/>
     </row>
     <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="24" t="s">
@@ -27905,14 +27730,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="113" t="s">
+      <c r="A142" s="114" t="s">
         <v>368</v>
       </c>
-      <c r="B142" s="113"/>
-      <c r="C142" s="113"/>
-      <c r="D142" s="113"/>
-      <c r="E142" s="113"/>
-      <c r="F142" s="113"/>
+      <c r="B142" s="114"/>
+      <c r="C142" s="114"/>
+      <c r="D142" s="114"/>
+      <c r="E142" s="114"/>
+      <c r="F142" s="114"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
@@ -28155,14 +27980,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="113" t="s">
+      <c r="A155" s="114" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="113"/>
-      <c r="C155" s="113"/>
-      <c r="D155" s="113"/>
-      <c r="E155" s="113"/>
-      <c r="F155" s="113"/>
+      <c r="B155" s="114"/>
+      <c r="C155" s="114"/>
+      <c r="D155" s="114"/>
+      <c r="E155" s="114"/>
+      <c r="F155" s="114"/>
     </row>
     <row r="156" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
@@ -28237,10 +28062,10 @@
       <c r="D159" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E159" s="125" t="s">
+      <c r="E159" s="128" t="s">
         <v>571</v>
       </c>
-      <c r="F159" s="126" t="s">
+      <c r="F159" s="129" t="s">
         <v>572</v>
       </c>
     </row>
@@ -28257,8 +28082,8 @@
       <c r="D160" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E160" s="125"/>
-      <c r="F160" s="127"/>
+      <c r="E160" s="128"/>
+      <c r="F160" s="130"/>
     </row>
     <row r="161" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A161" s="24" t="s">
@@ -28402,12 +28227,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
     <mergeCell ref="A113:F113"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A33:F33"/>
@@ -28420,27 +28249,23 @@
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54373480-9F78-4E50-9D2A-7D7432A20250}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54373480-9F78-4E50-9D2A-7D7432A20250}">
   <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28470,14 +28295,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
     </row>
     <row r="3" spans="1:6" ht="216" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -28620,14 +28445,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
     </row>
     <row r="11" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
@@ -28642,10 +28467,10 @@
       <c r="D11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="122" t="s">
         <v>889</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="122" t="s">
         <v>890</v>
       </c>
     </row>
@@ -28662,8 +28487,8 @@
       <c r="D12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
     </row>
     <row r="13" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -28786,14 +28611,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
     </row>
     <row r="20" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -28808,10 +28633,10 @@
       <c r="D20" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="116" t="s">
+      <c r="E20" s="115" t="s">
         <v>895</v>
       </c>
-      <c r="F20" s="116" t="s">
+      <c r="F20" s="115" t="s">
         <v>896</v>
       </c>
     </row>
@@ -28828,8 +28653,8 @@
       <c r="D21" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
     </row>
     <row r="22" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -29050,14 +28875,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="113" t="s">
+      <c r="A33" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
     </row>
     <row r="34" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -29260,14 +29085,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="113" t="s">
+      <c r="A44" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
     </row>
     <row r="45" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
@@ -29450,14 +29275,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="113" t="s">
+      <c r="A54" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="113"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
     </row>
     <row r="55" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
@@ -29492,10 +29317,10 @@
       <c r="D56" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="119" t="s">
+      <c r="E56" s="122" t="s">
         <v>907</v>
       </c>
-      <c r="F56" s="119" t="s">
+      <c r="F56" s="122" t="s">
         <v>908</v>
       </c>
     </row>
@@ -29512,8 +29337,8 @@
       <c r="D57" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="119"/>
-      <c r="F57" s="119"/>
+      <c r="E57" s="122"/>
+      <c r="F57" s="122"/>
     </row>
     <row r="58" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
@@ -29616,14 +29441,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="113" t="s">
+      <c r="A63" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="113"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="113"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
@@ -29726,14 +29551,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="113" t="s">
+      <c r="A69" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
     </row>
     <row r="70" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
@@ -29748,10 +29573,10 @@
       <c r="D70" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="119" t="s">
+      <c r="E70" s="122" t="s">
         <v>911</v>
       </c>
-      <c r="F70" s="119" t="s">
+      <c r="F70" s="122" t="s">
         <v>912</v>
       </c>
     </row>
@@ -29768,8 +29593,8 @@
       <c r="D71" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="119"/>
-      <c r="F71" s="119"/>
+      <c r="E71" s="122"/>
+      <c r="F71" s="122"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -29824,10 +29649,10 @@
       <c r="D74" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="116" t="s">
+      <c r="E74" s="115" t="s">
         <v>913</v>
       </c>
-      <c r="F74" s="116" t="s">
+      <c r="F74" s="115" t="s">
         <v>914</v>
       </c>
     </row>
@@ -29844,8 +29669,8 @@
       <c r="D75" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="116"/>
-      <c r="F75" s="116"/>
+      <c r="E75" s="115"/>
+      <c r="F75" s="115"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
@@ -29968,14 +29793,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="113" t="s">
+      <c r="A82" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="113"/>
-      <c r="C82" s="113"/>
-      <c r="D82" s="113"/>
-      <c r="E82" s="113"/>
-      <c r="F82" s="113"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
     </row>
     <row r="83" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
@@ -30101,19 +29926,19 @@
       <c r="A89" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="101" t="s">
         <v>252</v>
       </c>
-      <c r="C89" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="F89" s="86" t="s">
+      <c r="C89" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="F89" s="89" t="s">
         <v>33</v>
       </c>
     </row>
@@ -30138,14 +29963,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="113" t="s">
+      <c r="A91" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="113"/>
-      <c r="C91" s="113"/>
-      <c r="D91" s="113"/>
-      <c r="E91" s="113"/>
-      <c r="F91" s="113"/>
+      <c r="B91" s="114"/>
+      <c r="C91" s="114"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="114"/>
+      <c r="F91" s="114"/>
     </row>
     <row r="92" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
@@ -30180,10 +30005,10 @@
       <c r="D93" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="117" t="s">
+      <c r="E93" s="116" t="s">
         <v>919</v>
       </c>
-      <c r="F93" s="117" t="s">
+      <c r="F93" s="116" t="s">
         <v>920</v>
       </c>
     </row>
@@ -30200,8 +30025,8 @@
       <c r="D94" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="118"/>
-      <c r="F94" s="118"/>
+      <c r="E94" s="117"/>
+      <c r="F94" s="117"/>
     </row>
     <row r="95" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A95" s="24" t="s">
@@ -30344,14 +30169,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="113" t="s">
+      <c r="A102" s="114" t="s">
         <v>280</v>
       </c>
-      <c r="B102" s="113"/>
-      <c r="C102" s="113"/>
-      <c r="D102" s="113"/>
-      <c r="E102" s="113"/>
-      <c r="F102" s="113"/>
+      <c r="B102" s="114"/>
+      <c r="C102" s="114"/>
+      <c r="D102" s="114"/>
+      <c r="E102" s="114"/>
+      <c r="F102" s="114"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
@@ -30554,14 +30379,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="113" t="s">
+      <c r="A113" s="114" t="s">
         <v>304</v>
       </c>
-      <c r="B113" s="113"/>
-      <c r="C113" s="113"/>
-      <c r="D113" s="113"/>
-      <c r="E113" s="113"/>
-      <c r="F113" s="113"/>
+      <c r="B113" s="114"/>
+      <c r="C113" s="114"/>
+      <c r="D113" s="114"/>
+      <c r="E113" s="114"/>
+      <c r="F113" s="114"/>
     </row>
     <row r="114" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
@@ -30576,10 +30401,10 @@
       <c r="D114" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="116" t="s">
+      <c r="E114" s="115" t="s">
         <v>929</v>
       </c>
-      <c r="F114" s="116" t="s">
+      <c r="F114" s="115" t="s">
         <v>930</v>
       </c>
     </row>
@@ -30596,8 +30421,8 @@
       <c r="D115" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="116"/>
-      <c r="F115" s="116"/>
+      <c r="E115" s="115"/>
+      <c r="F115" s="115"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -30780,14 +30605,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="113" t="s">
+      <c r="A125" s="114" t="s">
         <v>332</v>
       </c>
-      <c r="B125" s="113"/>
-      <c r="C125" s="113"/>
-      <c r="D125" s="113"/>
-      <c r="E125" s="113"/>
-      <c r="F125" s="113"/>
+      <c r="B125" s="114"/>
+      <c r="C125" s="114"/>
+      <c r="D125" s="114"/>
+      <c r="E125" s="114"/>
+      <c r="F125" s="114"/>
     </row>
     <row r="126" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
@@ -30802,10 +30627,10 @@
       <c r="D126" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="130" t="s">
+      <c r="E126" s="131" t="s">
         <v>932</v>
       </c>
-      <c r="F126" s="130" t="s">
+      <c r="F126" s="131" t="s">
         <v>933</v>
       </c>
     </row>
@@ -30822,8 +30647,8 @@
       <c r="D127" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="131"/>
-      <c r="F127" s="131"/>
+      <c r="E127" s="132"/>
+      <c r="F127" s="132"/>
     </row>
     <row r="128" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -30886,14 +30711,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="113" t="s">
+      <c r="A131" s="114" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="113"/>
-      <c r="C131" s="113"/>
-      <c r="D131" s="113"/>
-      <c r="E131" s="113"/>
-      <c r="F131" s="113"/>
+      <c r="B131" s="114"/>
+      <c r="C131" s="114"/>
+      <c r="D131" s="114"/>
+      <c r="E131" s="114"/>
+      <c r="F131" s="114"/>
     </row>
     <row r="132" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
@@ -31096,14 +30921,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="113" t="s">
+      <c r="A142" s="114" t="s">
         <v>368</v>
       </c>
-      <c r="B142" s="113"/>
-      <c r="C142" s="113"/>
-      <c r="D142" s="113"/>
-      <c r="E142" s="113"/>
-      <c r="F142" s="113"/>
+      <c r="B142" s="114"/>
+      <c r="C142" s="114"/>
+      <c r="D142" s="114"/>
+      <c r="E142" s="114"/>
+      <c r="F142" s="114"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
@@ -31141,7 +30966,7 @@
       <c r="E144" s="86" t="s">
         <v>946</v>
       </c>
-      <c r="F144" s="119" t="s">
+      <c r="F144" s="122" t="s">
         <v>40</v>
       </c>
     </row>
@@ -31161,7 +30986,7 @@
       <c r="E145" s="86" t="s">
         <v>947</v>
       </c>
-      <c r="F145" s="119"/>
+      <c r="F145" s="122"/>
     </row>
     <row r="146" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A146" s="24" t="s">
@@ -31296,10 +31121,10 @@
       <c r="D152" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="130" t="s">
+      <c r="E152" s="131" t="s">
         <v>950</v>
       </c>
-      <c r="F152" s="130" t="s">
+      <c r="F152" s="131" t="s">
         <v>502</v>
       </c>
     </row>
@@ -31316,8 +31141,8 @@
       <c r="D153" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="131"/>
-      <c r="F153" s="131"/>
+      <c r="E153" s="132"/>
+      <c r="F153" s="132"/>
     </row>
     <row r="154" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A154" s="24" t="s">
@@ -31338,14 +31163,14 @@
       <c r="F154" s="88"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="113" t="s">
+      <c r="A155" s="114" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="113"/>
-      <c r="C155" s="113"/>
-      <c r="D155" s="113"/>
-      <c r="E155" s="113"/>
-      <c r="F155" s="113"/>
+      <c r="B155" s="114"/>
+      <c r="C155" s="114"/>
+      <c r="D155" s="114"/>
+      <c r="E155" s="114"/>
+      <c r="F155" s="114"/>
     </row>
     <row r="156" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
@@ -31585,15 +31410,19 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
     <mergeCell ref="E114:E115"/>
     <mergeCell ref="F114:F115"/>
     <mergeCell ref="A69:F69"/>
@@ -31607,22 +31436,19 @@
     <mergeCell ref="F93:F94"/>
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="F144:F145"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -31630,8 +31456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4716598-4E81-47BF-9B1B-F47650125005}">
   <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:F44"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31662,14 +31488,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
     </row>
     <row r="3" spans="1:6" ht="128.55000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -31812,14 +31638,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
     </row>
     <row r="11" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
@@ -31834,10 +31660,10 @@
       <c r="D11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="120" t="s">
         <v>835</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="122" t="s">
         <v>836</v>
       </c>
     </row>
@@ -31854,8 +31680,8 @@
       <c r="D12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="122"/>
-      <c r="F12" s="119"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="122"/>
     </row>
     <row r="13" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -31978,14 +31804,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
     </row>
     <row r="20" spans="1:6" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -32000,10 +31826,10 @@
       <c r="D20" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="116" t="s">
+      <c r="E20" s="115" t="s">
         <v>970</v>
       </c>
-      <c r="F20" s="116" t="s">
+      <c r="F20" s="115" t="s">
         <v>971</v>
       </c>
     </row>
@@ -32020,8 +31846,8 @@
       <c r="D21" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
     </row>
     <row r="22" spans="1:6" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -32244,14 +32070,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="113" t="s">
+      <c r="A33" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -32454,14 +32280,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="113" t="s">
+      <c r="A44" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
@@ -32644,32 +32470,32 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="113" t="s">
+      <c r="A54" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="113"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="103" t="s">
+      <c r="A55" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="B55" s="101" t="s">
+      <c r="B55" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="C55" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="89" t="s">
-        <v>33</v>
-      </c>
-      <c r="F55" s="89" t="s">
+      <c r="C55" s="133" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="133" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="113" t="s">
         <v>33</v>
       </c>
     </row>
@@ -32814,14 +32640,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="113" t="s">
+      <c r="A63" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="113"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="113"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
@@ -32924,14 +32750,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="113" t="s">
+      <c r="A69" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
     </row>
     <row r="70" spans="1:6" ht="216" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
@@ -32946,10 +32772,10 @@
       <c r="D70" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="121" t="s">
+      <c r="E70" s="120" t="s">
         <v>848</v>
       </c>
-      <c r="F70" s="121" t="s">
+      <c r="F70" s="120" t="s">
         <v>849</v>
       </c>
     </row>
@@ -32966,8 +32792,8 @@
       <c r="D71" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="122"/>
-      <c r="F71" s="122"/>
+      <c r="E71" s="121"/>
+      <c r="F71" s="121"/>
     </row>
     <row r="72" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -33022,10 +32848,10 @@
       <c r="D74" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="117" t="s">
+      <c r="E74" s="116" t="s">
         <v>852</v>
       </c>
-      <c r="F74" s="117" t="s">
+      <c r="F74" s="116" t="s">
         <v>851</v>
       </c>
     </row>
@@ -33042,8 +32868,8 @@
       <c r="D75" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="118"/>
-      <c r="F75" s="118"/>
+      <c r="E75" s="117"/>
+      <c r="F75" s="117"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
@@ -33166,14 +32992,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="113" t="s">
+      <c r="A82" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="113"/>
-      <c r="C82" s="113"/>
-      <c r="D82" s="113"/>
-      <c r="E82" s="113"/>
-      <c r="F82" s="113"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
     </row>
     <row r="83" spans="1:6" ht="98.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
@@ -33295,24 +33121,24 @@
         <v>581</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A89" s="103" t="s">
+    <row r="89" spans="1:6" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="B89" s="101" t="s">
+      <c r="B89" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="C89" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="D89" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89" s="89" t="s">
-        <v>33</v>
-      </c>
-      <c r="F89" s="89" t="s">
-        <v>33</v>
+      <c r="C89" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" s="133" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="113" t="s">
+        <v>978</v>
+      </c>
+      <c r="F89" s="113" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
@@ -33336,14 +33162,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="113" t="s">
+      <c r="A91" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="113"/>
-      <c r="C91" s="113"/>
-      <c r="D91" s="113"/>
-      <c r="E91" s="113"/>
-      <c r="F91" s="113"/>
+      <c r="B91" s="114"/>
+      <c r="C91" s="114"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="114"/>
+      <c r="F91" s="114"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
@@ -33546,14 +33372,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="113" t="s">
+      <c r="A102" s="114" t="s">
         <v>280</v>
       </c>
-      <c r="B102" s="113"/>
-      <c r="C102" s="113"/>
-      <c r="D102" s="113"/>
-      <c r="E102" s="113"/>
-      <c r="F102" s="113"/>
+      <c r="B102" s="114"/>
+      <c r="C102" s="114"/>
+      <c r="D102" s="114"/>
+      <c r="E102" s="114"/>
+      <c r="F102" s="114"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
@@ -33756,14 +33582,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="113" t="s">
+      <c r="A113" s="114" t="s">
         <v>304</v>
       </c>
-      <c r="B113" s="113"/>
-      <c r="C113" s="113"/>
-      <c r="D113" s="113"/>
-      <c r="E113" s="113"/>
-      <c r="F113" s="113"/>
+      <c r="B113" s="114"/>
+      <c r="C113" s="114"/>
+      <c r="D113" s="114"/>
+      <c r="E113" s="114"/>
+      <c r="F113" s="114"/>
     </row>
     <row r="114" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
@@ -33778,10 +33604,10 @@
       <c r="D114" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="116" t="s">
+      <c r="E114" s="115" t="s">
         <v>861</v>
       </c>
-      <c r="F114" s="117" t="s">
+      <c r="F114" s="116" t="s">
         <v>862</v>
       </c>
     </row>
@@ -33798,8 +33624,8 @@
       <c r="D115" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="116"/>
-      <c r="F115" s="118"/>
+      <c r="E115" s="115"/>
+      <c r="F115" s="117"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -33982,14 +33808,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="113" t="s">
+      <c r="A125" s="114" t="s">
         <v>332</v>
       </c>
-      <c r="B125" s="113"/>
-      <c r="C125" s="113"/>
-      <c r="D125" s="113"/>
-      <c r="E125" s="113"/>
-      <c r="F125" s="113"/>
+      <c r="B125" s="114"/>
+      <c r="C125" s="114"/>
+      <c r="D125" s="114"/>
+      <c r="E125" s="114"/>
+      <c r="F125" s="114"/>
     </row>
     <row r="126" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
@@ -34004,10 +33830,10 @@
       <c r="D126" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="130" t="s">
+      <c r="E126" s="131" t="s">
         <v>865</v>
       </c>
-      <c r="F126" s="130" t="s">
+      <c r="F126" s="131" t="s">
         <v>866</v>
       </c>
     </row>
@@ -34024,8 +33850,8 @@
       <c r="D127" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="131"/>
-      <c r="F127" s="131"/>
+      <c r="E127" s="132"/>
+      <c r="F127" s="132"/>
     </row>
     <row r="128" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -34086,14 +33912,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="113" t="s">
+      <c r="A131" s="114" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="113"/>
-      <c r="C131" s="113"/>
-      <c r="D131" s="113"/>
-      <c r="E131" s="113"/>
-      <c r="F131" s="113"/>
+      <c r="B131" s="114"/>
+      <c r="C131" s="114"/>
+      <c r="D131" s="114"/>
+      <c r="E131" s="114"/>
+      <c r="F131" s="114"/>
     </row>
     <row r="132" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
@@ -34296,14 +34122,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="113" t="s">
+      <c r="A142" s="114" t="s">
         <v>368</v>
       </c>
-      <c r="B142" s="113"/>
-      <c r="C142" s="113"/>
-      <c r="D142" s="113"/>
-      <c r="E142" s="113"/>
-      <c r="F142" s="113"/>
+      <c r="B142" s="114"/>
+      <c r="C142" s="114"/>
+      <c r="D142" s="114"/>
+      <c r="E142" s="114"/>
+      <c r="F142" s="114"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
@@ -34498,10 +34324,10 @@
       <c r="D152" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="130" t="s">
+      <c r="E152" s="131" t="s">
         <v>878</v>
       </c>
-      <c r="F152" s="130" t="s">
+      <c r="F152" s="131" t="s">
         <v>502</v>
       </c>
     </row>
@@ -34518,8 +34344,8 @@
       <c r="D153" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="131"/>
-      <c r="F153" s="131"/>
+      <c r="E153" s="132"/>
+      <c r="F153" s="132"/>
     </row>
     <row r="154" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A154" s="24" t="s">
@@ -34542,14 +34368,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="113" t="s">
+      <c r="A155" s="114" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="113"/>
-      <c r="C155" s="113"/>
-      <c r="D155" s="113"/>
-      <c r="E155" s="113"/>
-      <c r="F155" s="113"/>
+      <c r="B155" s="114"/>
+      <c r="C155" s="114"/>
+      <c r="D155" s="114"/>
+      <c r="E155" s="114"/>
+      <c r="F155" s="114"/>
     </row>
     <row r="156" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
@@ -34793,6 +34619,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="E74:E75"/>
     <mergeCell ref="F152:F153"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="F114:F115"/>
@@ -34803,29 +34649,10 @@
     <mergeCell ref="E114:E115"/>
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="F70:F71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -34864,14 +34691,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
     </row>
     <row r="3" spans="1:6" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -34886,10 +34713,10 @@
       <c r="D3" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="119" t="s">
+      <c r="E3" s="122" t="s">
         <v>767</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="120" t="s">
         <v>768</v>
       </c>
     </row>
@@ -34906,8 +34733,8 @@
       <c r="D4" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="121"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -35010,14 +34837,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
     </row>
     <row r="11" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
@@ -35032,10 +34859,10 @@
       <c r="D11" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="120" t="s">
         <v>773</v>
       </c>
-      <c r="F11" s="121" t="s">
+      <c r="F11" s="120" t="s">
         <v>774</v>
       </c>
     </row>
@@ -35052,8 +34879,8 @@
       <c r="D12" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
     </row>
     <row r="13" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -35068,8 +34895,8 @@
       <c r="D13" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
     </row>
     <row r="14" spans="1:6" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -35172,14 +34999,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
     </row>
     <row r="20" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -35194,10 +35021,10 @@
       <c r="D20" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="119" t="s">
+      <c r="E20" s="122" t="s">
         <v>777</v>
       </c>
-      <c r="F20" s="121" t="s">
+      <c r="F20" s="120" t="s">
         <v>778</v>
       </c>
     </row>
@@ -35214,8 +35041,8 @@
       <c r="D21" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="119"/>
-      <c r="F21" s="122"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="121"/>
     </row>
     <row r="22" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -35438,14 +35265,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="113" t="s">
+      <c r="A33" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -35648,14 +35475,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="113" t="s">
+      <c r="A44" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
@@ -35838,14 +35665,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="113" t="s">
+      <c r="A54" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="113"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
@@ -36008,14 +35835,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="113" t="s">
+      <c r="A63" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="113"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="113"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
@@ -36030,10 +35857,10 @@
       <c r="D64" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="121" t="s">
+      <c r="E64" s="120" t="s">
         <v>789</v>
       </c>
-      <c r="F64" s="121" t="s">
+      <c r="F64" s="120" t="s">
         <v>790</v>
       </c>
     </row>
@@ -36050,8 +35877,8 @@
       <c r="D65" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="122"/>
-      <c r="F65" s="122"/>
+      <c r="E65" s="121"/>
+      <c r="F65" s="121"/>
     </row>
     <row r="66" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
@@ -36114,14 +35941,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="113" t="s">
+      <c r="A69" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
     </row>
     <row r="70" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
@@ -36136,10 +35963,10 @@
       <c r="D70" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="119" t="s">
+      <c r="E70" s="122" t="s">
         <v>791</v>
       </c>
-      <c r="F70" s="121" t="s">
+      <c r="F70" s="120" t="s">
         <v>792</v>
       </c>
     </row>
@@ -36156,8 +35983,8 @@
       <c r="D71" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="119"/>
-      <c r="F71" s="122"/>
+      <c r="E71" s="122"/>
+      <c r="F71" s="121"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -36212,10 +36039,10 @@
       <c r="D74" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="121" t="s">
+      <c r="E74" s="120" t="s">
         <v>793</v>
       </c>
-      <c r="F74" s="129" t="s">
+      <c r="F74" s="126" t="s">
         <v>211</v>
       </c>
     </row>
@@ -36232,8 +36059,8 @@
       <c r="D75" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="122"/>
-      <c r="F75" s="122"/>
+      <c r="E75" s="121"/>
+      <c r="F75" s="121"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
@@ -36356,14 +36183,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="113" t="s">
+      <c r="A82" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="113"/>
-      <c r="C82" s="113"/>
-      <c r="D82" s="113"/>
-      <c r="E82" s="113"/>
-      <c r="F82" s="113"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
     </row>
     <row r="83" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
@@ -36526,14 +36353,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="113" t="s">
+      <c r="A91" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="113"/>
-      <c r="C91" s="113"/>
-      <c r="D91" s="113"/>
-      <c r="E91" s="113"/>
-      <c r="F91" s="113"/>
+      <c r="B91" s="114"/>
+      <c r="C91" s="114"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="114"/>
+      <c r="F91" s="114"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="103" t="s">
@@ -36736,14 +36563,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="113" t="s">
+      <c r="A102" s="114" t="s">
         <v>280</v>
       </c>
-      <c r="B102" s="113"/>
-      <c r="C102" s="113"/>
-      <c r="D102" s="113"/>
-      <c r="E102" s="113"/>
-      <c r="F102" s="113"/>
+      <c r="B102" s="114"/>
+      <c r="C102" s="114"/>
+      <c r="D102" s="114"/>
+      <c r="E102" s="114"/>
+      <c r="F102" s="114"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
@@ -36946,14 +36773,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="113" t="s">
+      <c r="A113" s="114" t="s">
         <v>304</v>
       </c>
-      <c r="B113" s="113"/>
-      <c r="C113" s="113"/>
-      <c r="D113" s="113"/>
-      <c r="E113" s="113"/>
-      <c r="F113" s="113"/>
+      <c r="B113" s="114"/>
+      <c r="C113" s="114"/>
+      <c r="D113" s="114"/>
+      <c r="E113" s="114"/>
+      <c r="F113" s="114"/>
     </row>
     <row r="114" spans="1:6" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
@@ -36968,10 +36795,10 @@
       <c r="D114" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="121" t="s">
+      <c r="E114" s="120" t="s">
         <v>804</v>
       </c>
-      <c r="F114" s="121" t="s">
+      <c r="F114" s="120" t="s">
         <v>805</v>
       </c>
     </row>
@@ -36988,8 +36815,8 @@
       <c r="D115" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="122"/>
-      <c r="F115" s="122"/>
+      <c r="E115" s="121"/>
+      <c r="F115" s="121"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -37172,14 +36999,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="113" t="s">
+      <c r="A125" s="114" t="s">
         <v>332</v>
       </c>
-      <c r="B125" s="113"/>
-      <c r="C125" s="113"/>
-      <c r="D125" s="113"/>
-      <c r="E125" s="113"/>
-      <c r="F125" s="113"/>
+      <c r="B125" s="114"/>
+      <c r="C125" s="114"/>
+      <c r="D125" s="114"/>
+      <c r="E125" s="114"/>
+      <c r="F125" s="114"/>
     </row>
     <row r="126" spans="1:6" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
@@ -37194,10 +37021,10 @@
       <c r="D126" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="130" t="s">
+      <c r="E126" s="131" t="s">
         <v>806</v>
       </c>
-      <c r="F126" s="130" t="s">
+      <c r="F126" s="131" t="s">
         <v>807</v>
       </c>
     </row>
@@ -37214,8 +37041,8 @@
       <c r="D127" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="131"/>
-      <c r="F127" s="131"/>
+      <c r="E127" s="132"/>
+      <c r="F127" s="132"/>
     </row>
     <row r="128" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -37276,14 +37103,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="113" t="s">
+      <c r="A131" s="114" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="113"/>
-      <c r="C131" s="113"/>
-      <c r="D131" s="113"/>
-      <c r="E131" s="113"/>
-      <c r="F131" s="113"/>
+      <c r="B131" s="114"/>
+      <c r="C131" s="114"/>
+      <c r="D131" s="114"/>
+      <c r="E131" s="114"/>
+      <c r="F131" s="114"/>
     </row>
     <row r="132" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
@@ -37484,14 +37311,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="113" t="s">
+      <c r="A142" s="114" t="s">
         <v>368</v>
       </c>
-      <c r="B142" s="113"/>
-      <c r="C142" s="113"/>
-      <c r="D142" s="113"/>
-      <c r="E142" s="113"/>
-      <c r="F142" s="113"/>
+      <c r="B142" s="114"/>
+      <c r="C142" s="114"/>
+      <c r="D142" s="114"/>
+      <c r="E142" s="114"/>
+      <c r="F142" s="114"/>
     </row>
     <row r="143" spans="1:6" ht="129" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
@@ -37734,14 +37561,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="113" t="s">
+      <c r="A155" s="114" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="113"/>
-      <c r="C155" s="113"/>
-      <c r="D155" s="113"/>
-      <c r="E155" s="113"/>
-      <c r="F155" s="113"/>
+      <c r="B155" s="114"/>
+      <c r="C155" s="114"/>
+      <c r="D155" s="114"/>
+      <c r="E155" s="114"/>
+      <c r="F155" s="114"/>
     </row>
     <row r="156" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
@@ -37985,22 +37812,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="F20:F21"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="E64:E65"/>
     <mergeCell ref="E70:E71"/>
@@ -38017,6 +37828,22 @@
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="A131:F131"/>
     <mergeCell ref="A142:F142"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A82:F82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -38059,14 +37886,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
     </row>
     <row r="3" spans="1:6" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -38081,10 +37908,10 @@
       <c r="D3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="121" t="s">
+      <c r="E3" s="120" t="s">
         <v>575</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="120" t="s">
         <v>576</v>
       </c>
     </row>
@@ -38101,8 +37928,8 @@
       <c r="D4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -38205,14 +38032,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
     </row>
     <row r="11" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
@@ -38227,10 +38054,10 @@
       <c r="D11" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="121" t="s">
+      <c r="E11" s="120" t="s">
         <v>584</v>
       </c>
-      <c r="F11" s="121" t="s">
+      <c r="F11" s="120" t="s">
         <v>585</v>
       </c>
     </row>
@@ -38247,8 +38074,8 @@
       <c r="D12" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
     </row>
     <row r="13" spans="1:6" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -38263,8 +38090,8 @@
       <c r="D13" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="126"/>
     </row>
     <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -38279,8 +38106,8 @@
       <c r="D14" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
     </row>
     <row r="15" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
@@ -38363,14 +38190,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="114" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
     </row>
     <row r="20" spans="1:6" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -38385,10 +38212,10 @@
       <c r="D20" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="121" t="s">
+      <c r="E20" s="120" t="s">
         <v>586</v>
       </c>
-      <c r="F20" s="121" t="s">
+      <c r="F20" s="120" t="s">
         <v>587</v>
       </c>
     </row>
@@ -38405,8 +38232,8 @@
       <c r="D21" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
     </row>
     <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -38629,14 +38456,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="113" t="s">
+      <c r="A33" s="114" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="114"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
@@ -38837,14 +38664,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="113" t="s">
+      <c r="A44" s="114" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
+      <c r="F44" s="114"/>
     </row>
     <row r="45" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="24" t="s">
@@ -39027,14 +38854,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="113" t="s">
+      <c r="A54" s="114" t="s">
         <v>159</v>
       </c>
-      <c r="B54" s="113"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
+      <c r="B54" s="114"/>
+      <c r="C54" s="114"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
+      <c r="F54" s="114"/>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="24" t="s">
@@ -39197,14 +39024,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="113" t="s">
+      <c r="A63" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="B63" s="113"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="113"/>
-      <c r="F63" s="113"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="24" t="s">
@@ -39307,14 +39134,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="113" t="s">
+      <c r="A69" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="B69" s="113"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="113"/>
-      <c r="F69" s="113"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
     </row>
     <row r="70" spans="1:6" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="24" t="s">
@@ -39329,10 +39156,10 @@
       <c r="D70" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="121" t="s">
+      <c r="E70" s="120" t="s">
         <v>595</v>
       </c>
-      <c r="F70" s="121" t="s">
+      <c r="F70" s="120" t="s">
         <v>596</v>
       </c>
     </row>
@@ -39349,8 +39176,8 @@
       <c r="D71" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="122"/>
-      <c r="F71" s="122"/>
+      <c r="E71" s="121"/>
+      <c r="F71" s="121"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -39405,10 +39232,10 @@
       <c r="D74" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="116" t="s">
+      <c r="E74" s="115" t="s">
         <v>598</v>
       </c>
-      <c r="F74" s="116" t="s">
+      <c r="F74" s="115" t="s">
         <v>598</v>
       </c>
     </row>
@@ -39425,8 +39252,8 @@
       <c r="D75" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="116"/>
-      <c r="F75" s="116"/>
+      <c r="E75" s="115"/>
+      <c r="F75" s="115"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
@@ -39549,14 +39376,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="113" t="s">
+      <c r="A82" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="B82" s="113"/>
-      <c r="C82" s="113"/>
-      <c r="D82" s="113"/>
-      <c r="E82" s="113"/>
-      <c r="F82" s="113"/>
+      <c r="B82" s="114"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="114"/>
     </row>
     <row r="83" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="24" t="s">
@@ -39719,14 +39546,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="113" t="s">
+      <c r="A91" s="114" t="s">
         <v>255</v>
       </c>
-      <c r="B91" s="113"/>
-      <c r="C91" s="113"/>
-      <c r="D91" s="113"/>
-      <c r="E91" s="113"/>
-      <c r="F91" s="113"/>
+      <c r="B91" s="114"/>
+      <c r="C91" s="114"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="114"/>
+      <c r="F91" s="114"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="24" t="s">
@@ -39759,10 +39586,10 @@
       <c r="D93" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="121" t="s">
+      <c r="E93" s="120" t="s">
         <v>606</v>
       </c>
-      <c r="F93" s="121" t="s">
+      <c r="F93" s="120" t="s">
         <v>593</v>
       </c>
     </row>
@@ -39779,8 +39606,8 @@
       <c r="D94" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="122"/>
-      <c r="F94" s="122"/>
+      <c r="E94" s="121"/>
+      <c r="F94" s="121"/>
     </row>
     <row r="95" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A95" s="24" t="s">
@@ -39923,14 +39750,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="113" t="s">
+      <c r="A102" s="114" t="s">
         <v>280</v>
       </c>
-      <c r="B102" s="113"/>
-      <c r="C102" s="113"/>
-      <c r="D102" s="113"/>
-      <c r="E102" s="113"/>
-      <c r="F102" s="113"/>
+      <c r="B102" s="114"/>
+      <c r="C102" s="114"/>
+      <c r="D102" s="114"/>
+      <c r="E102" s="114"/>
+      <c r="F102" s="114"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="24" t="s">
@@ -40133,14 +39960,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="113" t="s">
+      <c r="A113" s="114" t="s">
         <v>304</v>
       </c>
-      <c r="B113" s="113"/>
-      <c r="C113" s="113"/>
-      <c r="D113" s="113"/>
-      <c r="E113" s="113"/>
-      <c r="F113" s="113"/>
+      <c r="B113" s="114"/>
+      <c r="C113" s="114"/>
+      <c r="D113" s="114"/>
+      <c r="E113" s="114"/>
+      <c r="F113" s="114"/>
     </row>
     <row r="114" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="24" t="s">
@@ -40155,10 +39982,10 @@
       <c r="D114" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="119" t="s">
+      <c r="E114" s="122" t="s">
         <v>613</v>
       </c>
-      <c r="F114" s="121" t="s">
+      <c r="F114" s="120" t="s">
         <v>614</v>
       </c>
     </row>
@@ -40175,8 +40002,8 @@
       <c r="D115" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="119"/>
-      <c r="F115" s="122"/>
+      <c r="E115" s="122"/>
+      <c r="F115" s="121"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -40359,14 +40186,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="113" t="s">
+      <c r="A125" s="114" t="s">
         <v>332</v>
       </c>
-      <c r="B125" s="113"/>
-      <c r="C125" s="113"/>
-      <c r="D125" s="113"/>
-      <c r="E125" s="113"/>
-      <c r="F125" s="113"/>
+      <c r="B125" s="114"/>
+      <c r="C125" s="114"/>
+      <c r="D125" s="114"/>
+      <c r="E125" s="114"/>
+      <c r="F125" s="114"/>
     </row>
     <row r="126" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A126" s="24" t="s">
@@ -40381,10 +40208,10 @@
       <c r="D126" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="130" t="s">
+      <c r="E126" s="131" t="s">
         <v>616</v>
       </c>
-      <c r="F126" s="130" t="s">
+      <c r="F126" s="131" t="s">
         <v>617</v>
       </c>
     </row>
@@ -40401,8 +40228,8 @@
       <c r="D127" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="131"/>
-      <c r="F127" s="131"/>
+      <c r="E127" s="132"/>
+      <c r="F127" s="132"/>
     </row>
     <row r="128" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -40463,14 +40290,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="113" t="s">
+      <c r="A131" s="114" t="s">
         <v>345</v>
       </c>
-      <c r="B131" s="113"/>
-      <c r="C131" s="113"/>
-      <c r="D131" s="113"/>
-      <c r="E131" s="113"/>
-      <c r="F131" s="113"/>
+      <c r="B131" s="114"/>
+      <c r="C131" s="114"/>
+      <c r="D131" s="114"/>
+      <c r="E131" s="114"/>
+      <c r="F131" s="114"/>
     </row>
     <row r="132" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="24" t="s">
@@ -40671,14 +40498,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="113" t="s">
+      <c r="A142" s="114" t="s">
         <v>368</v>
       </c>
-      <c r="B142" s="113"/>
-      <c r="C142" s="113"/>
-      <c r="D142" s="113"/>
-      <c r="E142" s="113"/>
-      <c r="F142" s="113"/>
+      <c r="B142" s="114"/>
+      <c r="C142" s="114"/>
+      <c r="D142" s="114"/>
+      <c r="E142" s="114"/>
+      <c r="F142" s="114"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="24" t="s">
@@ -40921,14 +40748,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="113" t="s">
+      <c r="A155" s="114" t="s">
         <v>407</v>
       </c>
-      <c r="B155" s="113"/>
-      <c r="C155" s="113"/>
-      <c r="D155" s="113"/>
-      <c r="E155" s="113"/>
-      <c r="F155" s="113"/>
+      <c r="B155" s="114"/>
+      <c r="C155" s="114"/>
+      <c r="D155" s="114"/>
+      <c r="E155" s="114"/>
+      <c r="F155" s="114"/>
     </row>
     <row r="156" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="24" t="s">
@@ -41172,6 +40999,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A102:F102"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="E3:E4"/>
@@ -41184,26 +41031,6 @@
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/rawdata/supplementary_material_V3.xlsx
+++ b/rawdata/supplementary_material_V3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F757ADB8-4269-444F-98CB-1E337A3411CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF0DDA7-0ECA-4826-8F74-98BCFEA33593}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="859" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="859" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scoring system" sheetId="1" r:id="rId1"/>
@@ -4914,12 +4914,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4929,11 +4923,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4941,13 +4935,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5403,10 +5403,10 @@
       <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="113" t="s">
         <v>938</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="113" t="s">
         <v>604</v>
       </c>
     </row>
@@ -5423,8 +5423,8 @@
       <c r="D4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -5549,10 +5549,10 @@
       <c r="D11" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="111" t="s">
+      <c r="E11" s="113" t="s">
         <v>612</v>
       </c>
-      <c r="F11" s="111" t="s">
+      <c r="F11" s="113" t="s">
         <v>613</v>
       </c>
     </row>
@@ -5569,8 +5569,8 @@
       <c r="D12" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
     </row>
     <row r="13" spans="1:6" ht="232.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -5585,8 +5585,8 @@
       <c r="D13" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
     </row>
     <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -5711,10 +5711,10 @@
       <c r="D20" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="111" t="s">
+      <c r="E20" s="113" t="s">
         <v>616</v>
       </c>
-      <c r="F20" s="111" t="s">
+      <c r="F20" s="113" t="s">
         <v>617</v>
       </c>
     </row>
@@ -5731,8 +5731,8 @@
       <c r="D21" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
     </row>
     <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -6655,10 +6655,10 @@
       <c r="D70" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="111" t="s">
+      <c r="E70" s="113" t="s">
         <v>623</v>
       </c>
-      <c r="F70" s="111" t="s">
+      <c r="F70" s="113" t="s">
         <v>624</v>
       </c>
     </row>
@@ -6675,8 +6675,8 @@
       <c r="D71" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="111"/>
-      <c r="F71" s="111"/>
+      <c r="E71" s="113"/>
+      <c r="F71" s="113"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -6961,10 +6961,10 @@
       <c r="D86" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E86" s="108" t="s">
+      <c r="E86" s="106" t="s">
         <v>630</v>
       </c>
-      <c r="F86" s="108" t="s">
+      <c r="F86" s="106" t="s">
         <v>631</v>
       </c>
     </row>
@@ -6981,8 +6981,8 @@
       <c r="D87" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E87" s="108"/>
-      <c r="F87" s="108"/>
+      <c r="E87" s="106"/>
+      <c r="F87" s="106"/>
     </row>
     <row r="88" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A88" s="24" t="s">
@@ -6997,8 +6997,8 @@
       <c r="D88" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="108"/>
-      <c r="F88" s="108"/>
+      <c r="E88" s="106"/>
+      <c r="F88" s="106"/>
     </row>
     <row r="89" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A89" s="24" t="s">
@@ -7483,10 +7483,10 @@
       <c r="D114" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="111" t="s">
+      <c r="E114" s="113" t="s">
         <v>634</v>
       </c>
-      <c r="F114" s="111" t="s">
+      <c r="F114" s="113" t="s">
         <v>298</v>
       </c>
     </row>
@@ -7503,8 +7503,8 @@
       <c r="D115" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="111"/>
-      <c r="F115" s="111"/>
+      <c r="E115" s="113"/>
+      <c r="F115" s="113"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -8267,10 +8267,10 @@
       <c r="D156" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E156" s="111" t="s">
+      <c r="E156" s="113" t="s">
         <v>653</v>
       </c>
-      <c r="F156" s="111" t="s">
+      <c r="F156" s="113" t="s">
         <v>629</v>
       </c>
     </row>
@@ -8287,8 +8287,8 @@
       <c r="D157" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E157" s="111"/>
-      <c r="F157" s="111"/>
+      <c r="E157" s="113"/>
+      <c r="F157" s="113"/>
     </row>
     <row r="158" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A158" s="24" t="s">
@@ -8492,12 +8492,19 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="F156:F157"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
     <mergeCell ref="E86:E88"/>
     <mergeCell ref="F86:F88"/>
     <mergeCell ref="A19:F19"/>
@@ -8511,19 +8518,12 @@
     <mergeCell ref="E70:E71"/>
     <mergeCell ref="F70:F71"/>
     <mergeCell ref="A82:F82"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="F156:F157"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8534,7 +8534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA8B1E2-51E2-4ACA-A73C-C2AA2101D6A9}">
   <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -8737,10 +8737,10 @@
       <c r="D11" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="108" t="s">
+      <c r="E11" s="106" t="s">
         <v>698</v>
       </c>
-      <c r="F11" s="109" t="s">
+      <c r="F11" s="107" t="s">
         <v>699</v>
       </c>
     </row>
@@ -8757,8 +8757,8 @@
       <c r="D12" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="108"/>
-      <c r="F12" s="110"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="108"/>
     </row>
     <row r="13" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -9971,10 +9971,10 @@
       <c r="D76" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E76" s="113" t="s">
+      <c r="E76" s="111" t="s">
         <v>674</v>
       </c>
-      <c r="F76" s="113" t="s">
+      <c r="F76" s="111" t="s">
         <v>675</v>
       </c>
     </row>
@@ -9991,8 +9991,8 @@
       <c r="D77" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="114"/>
-      <c r="F77" s="114"/>
+      <c r="E77" s="112"/>
+      <c r="F77" s="112"/>
     </row>
     <row r="78" spans="1:6" ht="195" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="24" t="s">
@@ -11704,6 +11704,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A10:F10"/>
@@ -11718,14 +11726,6 @@
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="E76:E77"/>
     <mergeCell ref="F76:F77"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -11938,10 +11938,10 @@
       <c r="D11" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="111" t="s">
         <v>704</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="111" t="s">
         <v>950</v>
       </c>
     </row>
@@ -11958,8 +11958,8 @@
       <c r="D12" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
     </row>
     <row r="13" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -12102,10 +12102,10 @@
       <c r="D20" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="113" t="s">
+      <c r="E20" s="111" t="s">
         <v>705</v>
       </c>
-      <c r="F20" s="113" t="s">
+      <c r="F20" s="111" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12122,8 +12122,8 @@
       <c r="D21" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
     </row>
     <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -13048,10 +13048,10 @@
       <c r="D70" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="113" t="s">
+      <c r="E70" s="111" t="s">
         <v>713</v>
       </c>
-      <c r="F70" s="113" t="s">
+      <c r="F70" s="111" t="s">
         <v>714</v>
       </c>
     </row>
@@ -13068,8 +13068,8 @@
       <c r="D71" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="114"/>
-      <c r="F71" s="114"/>
+      <c r="E71" s="112"/>
+      <c r="F71" s="112"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -14274,10 +14274,10 @@
       <c r="D135" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E135" s="113" t="s">
+      <c r="E135" s="111" t="s">
         <v>725</v>
       </c>
-      <c r="F135" s="113" t="s">
+      <c r="F135" s="111" t="s">
         <v>715</v>
       </c>
     </row>
@@ -14294,8 +14294,8 @@
       <c r="D136" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E136" s="114"/>
-      <c r="F136" s="114"/>
+      <c r="E136" s="112"/>
+      <c r="F136" s="112"/>
     </row>
     <row r="137" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A137" s="24" t="s">
@@ -14904,11 +14904,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="A33:F33"/>
@@ -14923,13 +14925,11 @@
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A113:F113"/>
     <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14971,14 +14971,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
     </row>
     <row r="3" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
@@ -17331,10 +17331,10 @@
       <c r="D126" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="108" t="s">
+      <c r="E126" s="106" t="s">
         <v>455</v>
       </c>
-      <c r="F126" s="109" t="s">
+      <c r="F126" s="107" t="s">
         <v>456</v>
       </c>
     </row>
@@ -17351,8 +17351,8 @@
       <c r="D127" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="108"/>
-      <c r="F127" s="110"/>
+      <c r="E127" s="106"/>
+      <c r="F127" s="108"/>
     </row>
     <row r="128" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -18126,6 +18126,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A69:F69"/>
@@ -18138,12 +18144,6 @@
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="A131:F131"/>
     <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18153,7 +18153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6535A64-0113-4925-BB3F-009252BF36D5}">
   <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
@@ -18207,10 +18207,10 @@
       <c r="D3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="106" t="s">
         <v>935</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="106" t="s">
         <v>936</v>
       </c>
     </row>
@@ -18227,8 +18227,8 @@
       <c r="D4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
     </row>
     <row r="5" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -18353,10 +18353,10 @@
       <c r="D11" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="111" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="111" t="s">
+      <c r="F11" s="113" t="s">
         <v>945</v>
       </c>
     </row>
@@ -18373,8 +18373,8 @@
       <c r="D12" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
     </row>
     <row r="13" spans="1:6" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -18389,8 +18389,8 @@
       <c r="D13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
     </row>
     <row r="14" spans="1:6" ht="228.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -19457,10 +19457,10 @@
       <c r="D70" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="108" t="s">
+      <c r="E70" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="F70" s="108" t="s">
+      <c r="F70" s="106" t="s">
         <v>193</v>
       </c>
     </row>
@@ -19477,8 +19477,8 @@
       <c r="D71" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="108"/>
-      <c r="F71" s="108"/>
+      <c r="E71" s="106"/>
+      <c r="F71" s="106"/>
     </row>
     <row r="72" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -20293,10 +20293,10 @@
       <c r="D114" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="111" t="s">
+      <c r="E114" s="113" t="s">
         <v>297</v>
       </c>
-      <c r="F114" s="111" t="s">
+      <c r="F114" s="113" t="s">
         <v>298</v>
       </c>
     </row>
@@ -20313,8 +20313,8 @@
       <c r="D115" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="111"/>
-      <c r="F115" s="111"/>
+      <c r="E115" s="113"/>
+      <c r="F115" s="113"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -20519,10 +20519,10 @@
       <c r="D126" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="111" t="s">
+      <c r="E126" s="113" t="s">
         <v>324</v>
       </c>
-      <c r="F126" s="111" t="s">
+      <c r="F126" s="113" t="s">
         <v>325</v>
       </c>
     </row>
@@ -20539,8 +20539,8 @@
       <c r="D127" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="111"/>
-      <c r="F127" s="111"/>
+      <c r="E127" s="113"/>
+      <c r="F127" s="113"/>
     </row>
     <row r="128" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -20625,10 +20625,10 @@
       <c r="D132" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="111" t="s">
+      <c r="E132" s="113" t="s">
         <v>337</v>
       </c>
-      <c r="F132" s="111" t="s">
+      <c r="F132" s="113" t="s">
         <v>338</v>
       </c>
     </row>
@@ -20645,8 +20645,8 @@
       <c r="D133" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="111"/>
-      <c r="F133" s="111"/>
+      <c r="E133" s="113"/>
+      <c r="F133" s="113"/>
     </row>
     <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="24" t="s">
@@ -21011,10 +21011,10 @@
       <c r="D152" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="112" t="s">
+      <c r="E152" s="115" t="s">
         <v>389</v>
       </c>
-      <c r="F152" s="112" t="s">
+      <c r="F152" s="115" t="s">
         <v>390</v>
       </c>
     </row>
@@ -21031,8 +21031,8 @@
       <c r="D153" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="112"/>
-      <c r="F153" s="112"/>
+      <c r="E153" s="115"/>
+      <c r="F153" s="115"/>
     </row>
     <row r="154" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="24" t="s">
@@ -21077,10 +21077,10 @@
       <c r="D156" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E156" s="113" t="s">
+      <c r="E156" s="111" t="s">
         <v>399</v>
       </c>
-      <c r="F156" s="113" t="s">
+      <c r="F156" s="111" t="s">
         <v>400</v>
       </c>
     </row>
@@ -21097,8 +21097,8 @@
       <c r="D157" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E157" s="114"/>
-      <c r="F157" s="114"/>
+      <c r="E157" s="112"/>
+      <c r="F157" s="112"/>
     </row>
     <row r="158" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A158" s="24" t="s">
@@ -21302,6 +21302,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="F152:F153"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="F156:F157"/>
     <mergeCell ref="E156:E157"/>
@@ -21318,22 +21334,6 @@
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="A125:F125"/>
     <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A82:F82"/>
   </mergeCells>
   <conditionalFormatting sqref="E109">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -21405,10 +21405,10 @@
       <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="113" t="s">
         <v>937</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="113" t="s">
         <v>468</v>
       </c>
     </row>
@@ -21425,8 +21425,8 @@
       <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -21551,10 +21551,10 @@
       <c r="D11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="111" t="s">
+      <c r="E11" s="113" t="s">
         <v>472</v>
       </c>
-      <c r="F11" s="111" t="s">
+      <c r="F11" s="113" t="s">
         <v>473</v>
       </c>
     </row>
@@ -21571,8 +21571,8 @@
       <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
     </row>
     <row r="13" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -21587,8 +21587,8 @@
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
     </row>
     <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -22552,10 +22552,10 @@
       <c r="D64" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="111" t="s">
+      <c r="E64" s="113" t="s">
         <v>489</v>
       </c>
-      <c r="F64" s="111" t="s">
+      <c r="F64" s="113" t="s">
         <v>490</v>
       </c>
     </row>
@@ -22572,8 +22572,8 @@
       <c r="D65" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="111"/>
-      <c r="F65" s="111"/>
+      <c r="E65" s="113"/>
+      <c r="F65" s="113"/>
     </row>
     <row r="66" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
@@ -22658,10 +22658,10 @@
       <c r="D70" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="111" t="s">
+      <c r="E70" s="113" t="s">
         <v>964</v>
       </c>
-      <c r="F70" s="111" t="s">
+      <c r="F70" s="113" t="s">
         <v>965</v>
       </c>
       <c r="G70" s="62"/>
@@ -22679,8 +22679,8 @@
       <c r="D71" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="111"/>
-      <c r="F71" s="111"/>
+      <c r="E71" s="113"/>
+      <c r="F71" s="113"/>
       <c r="G71" s="62"/>
     </row>
     <row r="72" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -23498,10 +23498,10 @@
       <c r="D114" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="116" t="s">
+      <c r="E114" s="117" t="s">
         <v>494</v>
       </c>
-      <c r="F114" s="108" t="s">
+      <c r="F114" s="106" t="s">
         <v>495</v>
       </c>
     </row>
@@ -23518,8 +23518,8 @@
       <c r="D115" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="116"/>
-      <c r="F115" s="108"/>
+      <c r="E115" s="117"/>
+      <c r="F115" s="106"/>
     </row>
     <row r="116" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -23724,10 +23724,10 @@
       <c r="D126" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="108" t="s">
+      <c r="E126" s="106" t="s">
         <v>498</v>
       </c>
-      <c r="F126" s="109" t="s">
+      <c r="F126" s="107" t="s">
         <v>499</v>
       </c>
     </row>
@@ -23744,8 +23744,8 @@
       <c r="D127" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="108"/>
-      <c r="F127" s="110"/>
+      <c r="E127" s="106"/>
+      <c r="F127" s="108"/>
     </row>
     <row r="128" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -23829,10 +23829,10 @@
       <c r="D132" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="108" t="s">
+      <c r="E132" s="106" t="s">
         <v>500</v>
       </c>
-      <c r="F132" s="108" t="s">
+      <c r="F132" s="106" t="s">
         <v>501</v>
       </c>
     </row>
@@ -23849,8 +23849,8 @@
       <c r="D133" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="108"/>
-      <c r="F133" s="108"/>
+      <c r="E133" s="106"/>
+      <c r="F133" s="106"/>
     </row>
     <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="24" t="s">
@@ -23865,8 +23865,8 @@
       <c r="D134" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E134" s="108"/>
-      <c r="F134" s="108"/>
+      <c r="E134" s="106"/>
+      <c r="F134" s="106"/>
     </row>
     <row r="135" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A135" s="24" t="s">
@@ -24034,7 +24034,7 @@
       <c r="E143" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="F143" s="111" t="s">
+      <c r="F143" s="113" t="s">
         <v>368</v>
       </c>
     </row>
@@ -24054,7 +24054,7 @@
       <c r="E144" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="F144" s="111"/>
+      <c r="F144" s="113"/>
     </row>
     <row r="145" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A145" s="24" t="s">
@@ -24169,10 +24169,10 @@
       <c r="D150" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E150" s="109" t="s">
+      <c r="E150" s="107" t="s">
         <v>509</v>
       </c>
-      <c r="F150" s="109" t="s">
+      <c r="F150" s="107" t="s">
         <v>510</v>
       </c>
       <c r="G150" s="66"/>
@@ -24190,8 +24190,8 @@
       <c r="D151" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E151" s="110"/>
-      <c r="F151" s="110"/>
+      <c r="E151" s="108"/>
+      <c r="F151" s="108"/>
       <c r="G151" s="62"/>
     </row>
     <row r="152" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -24207,10 +24207,10 @@
       <c r="D152" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="117" t="s">
+      <c r="E152" s="116" t="s">
         <v>511</v>
       </c>
-      <c r="F152" s="117" t="s">
+      <c r="F152" s="116" t="s">
         <v>487</v>
       </c>
     </row>
@@ -24227,8 +24227,8 @@
       <c r="D153" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="117"/>
-      <c r="F153" s="117"/>
+      <c r="E153" s="116"/>
+      <c r="F153" s="116"/>
     </row>
     <row r="154" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A154" s="24" t="s">
@@ -24502,22 +24502,12 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="F132:F134"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A33:F33"/>
@@ -24531,12 +24521,22 @@
     <mergeCell ref="F70:F71"/>
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="F132:F134"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="F150:F151"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24600,10 +24600,10 @@
       <c r="D3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="113" t="s">
         <v>513</v>
       </c>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="111" t="s">
         <v>514</v>
       </c>
     </row>
@@ -24620,8 +24620,8 @@
       <c r="D4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="114"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="112"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -24746,10 +24746,10 @@
       <c r="D11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="111" t="s">
         <v>518</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="111" t="s">
         <v>519</v>
       </c>
     </row>
@@ -24766,8 +24766,8 @@
       <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
     </row>
     <row r="13" spans="1:6" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -24782,8 +24782,8 @@
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
     </row>
     <row r="14" spans="1:6" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -25848,10 +25848,10 @@
       <c r="D70" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="113" t="s">
+      <c r="E70" s="111" t="s">
         <v>529</v>
       </c>
-      <c r="F70" s="109" t="s">
+      <c r="F70" s="107" t="s">
         <v>530</v>
       </c>
     </row>
@@ -25868,7 +25868,7 @@
       <c r="D71" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="114"/>
+      <c r="E71" s="112"/>
       <c r="F71" s="118"/>
     </row>
     <row r="72" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.3">
@@ -26910,10 +26910,10 @@
       <c r="D126" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="108" t="s">
+      <c r="E126" s="106" t="s">
         <v>537</v>
       </c>
-      <c r="F126" s="109" t="s">
+      <c r="F126" s="107" t="s">
         <v>538</v>
       </c>
     </row>
@@ -26930,8 +26930,8 @@
       <c r="D127" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="108"/>
-      <c r="F127" s="110"/>
+      <c r="E127" s="106"/>
+      <c r="F127" s="108"/>
     </row>
     <row r="128" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="24" t="s">
@@ -27014,10 +27014,10 @@
       <c r="D132" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="108" t="s">
+      <c r="E132" s="106" t="s">
         <v>539</v>
       </c>
-      <c r="F132" s="109" t="s">
+      <c r="F132" s="107" t="s">
         <v>540</v>
       </c>
     </row>
@@ -27034,8 +27034,8 @@
       <c r="D133" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="108"/>
-      <c r="F133" s="110"/>
+      <c r="E133" s="106"/>
+      <c r="F133" s="108"/>
     </row>
     <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="24" t="s">
@@ -27530,10 +27530,10 @@
       <c r="D159" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E159" s="108" t="s">
+      <c r="E159" s="106" t="s">
         <v>550</v>
       </c>
-      <c r="F159" s="109" t="s">
+      <c r="F159" s="107" t="s">
         <v>999</v>
       </c>
     </row>
@@ -27550,8 +27550,8 @@
       <c r="D160" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="E160" s="108"/>
-      <c r="F160" s="110"/>
+      <c r="E160" s="106"/>
+      <c r="F160" s="108"/>
     </row>
     <row r="161" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A161" s="24" t="s">
@@ -27695,12 +27695,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
     <mergeCell ref="A113:F113"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A33:F33"/>
@@ -27713,16 +27717,12 @@
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27935,10 +27935,10 @@
       <c r="D11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="111" t="s">
+      <c r="E11" s="113" t="s">
         <v>922</v>
       </c>
-      <c r="F11" s="111" t="s">
+      <c r="F11" s="113" t="s">
         <v>851</v>
       </c>
     </row>
@@ -27955,8 +27955,8 @@
       <c r="D12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
     </row>
     <row r="13" spans="1:6" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -28101,10 +28101,10 @@
       <c r="D20" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="108" t="s">
+      <c r="E20" s="106" t="s">
         <v>856</v>
       </c>
-      <c r="F20" s="108" t="s">
+      <c r="F20" s="106" t="s">
         <v>857</v>
       </c>
     </row>
@@ -28121,8 +28121,8 @@
       <c r="D21" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
     </row>
     <row r="22" spans="1:6" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -28785,10 +28785,10 @@
       <c r="D56" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="111" t="s">
+      <c r="E56" s="113" t="s">
         <v>863</v>
       </c>
-      <c r="F56" s="111" t="s">
+      <c r="F56" s="113" t="s">
         <v>864</v>
       </c>
     </row>
@@ -28805,8 +28805,8 @@
       <c r="D57" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="111"/>
-      <c r="F57" s="111"/>
+      <c r="E57" s="113"/>
+      <c r="F57" s="113"/>
     </row>
     <row r="58" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
@@ -29041,10 +29041,10 @@
       <c r="D70" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="111" t="s">
+      <c r="E70" s="113" t="s">
         <v>926</v>
       </c>
-      <c r="F70" s="111" t="s">
+      <c r="F70" s="113" t="s">
         <v>1006</v>
       </c>
     </row>
@@ -29061,8 +29061,8 @@
       <c r="D71" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="111"/>
-      <c r="F71" s="111"/>
+      <c r="E71" s="113"/>
+      <c r="F71" s="113"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -29117,10 +29117,10 @@
       <c r="D74" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="108" t="s">
+      <c r="E74" s="106" t="s">
         <v>987</v>
       </c>
-      <c r="F74" s="108" t="s">
+      <c r="F74" s="106" t="s">
         <v>867</v>
       </c>
     </row>
@@ -29137,8 +29137,8 @@
       <c r="D75" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="108"/>
-      <c r="F75" s="108"/>
+      <c r="E75" s="106"/>
+      <c r="F75" s="106"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
@@ -29473,10 +29473,10 @@
       <c r="D93" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="109" t="s">
+      <c r="E93" s="107" t="s">
         <v>871</v>
       </c>
-      <c r="F93" s="109" t="s">
+      <c r="F93" s="107" t="s">
         <v>872</v>
       </c>
     </row>
@@ -29493,8 +29493,8 @@
       <c r="D94" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="110"/>
-      <c r="F94" s="110"/>
+      <c r="E94" s="108"/>
+      <c r="F94" s="108"/>
     </row>
     <row r="95" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A95" s="24" t="s">
@@ -29869,10 +29869,10 @@
       <c r="D114" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="108" t="s">
+      <c r="E114" s="106" t="s">
         <v>880</v>
       </c>
-      <c r="F114" s="108" t="s">
+      <c r="F114" s="106" t="s">
         <v>881</v>
       </c>
     </row>
@@ -29889,8 +29889,8 @@
       <c r="D115" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="108"/>
-      <c r="F115" s="108"/>
+      <c r="E115" s="106"/>
+      <c r="F115" s="106"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -30434,7 +30434,7 @@
       <c r="E144" s="92" t="s">
         <v>894</v>
       </c>
-      <c r="F144" s="111" t="s">
+      <c r="F144" s="113" t="s">
         <v>38</v>
       </c>
     </row>
@@ -30454,7 +30454,7 @@
       <c r="E145" s="92" t="s">
         <v>895</v>
       </c>
-      <c r="F145" s="111"/>
+      <c r="F145" s="113"/>
     </row>
     <row r="146" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A146" s="24" t="s">
@@ -30882,15 +30882,19 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
     <mergeCell ref="E114:E115"/>
     <mergeCell ref="F114:F115"/>
     <mergeCell ref="A69:F69"/>
@@ -30904,19 +30908,15 @@
     <mergeCell ref="F93:F94"/>
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="F144:F145"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -31131,10 +31131,10 @@
       <c r="D11" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="111" t="s">
         <v>801</v>
       </c>
-      <c r="F11" s="111" t="s">
+      <c r="F11" s="113" t="s">
         <v>802</v>
       </c>
     </row>
@@ -31151,8 +31151,8 @@
       <c r="D12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="114"/>
-      <c r="F12" s="111"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="113"/>
     </row>
     <row r="13" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -31297,10 +31297,10 @@
       <c r="D20" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="108" t="s">
+      <c r="E20" s="106" t="s">
         <v>915</v>
       </c>
-      <c r="F20" s="108" t="s">
+      <c r="F20" s="106" t="s">
         <v>952</v>
       </c>
     </row>
@@ -31317,8 +31317,8 @@
       <c r="D21" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
     </row>
     <row r="22" spans="1:6" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -31981,10 +31981,10 @@
       <c r="D56" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="113" t="s">
+      <c r="E56" s="111" t="s">
         <v>913</v>
       </c>
-      <c r="F56" s="113" t="s">
+      <c r="F56" s="111" t="s">
         <v>914</v>
       </c>
     </row>
@@ -32001,8 +32001,8 @@
       <c r="D57" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="114"/>
-      <c r="F57" s="114"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="112"/>
     </row>
     <row r="58" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
@@ -32237,10 +32237,10 @@
       <c r="D70" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="113" t="s">
+      <c r="E70" s="111" t="s">
         <v>814</v>
       </c>
-      <c r="F70" s="113" t="s">
+      <c r="F70" s="111" t="s">
         <v>815</v>
       </c>
     </row>
@@ -32257,8 +32257,8 @@
       <c r="D71" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="114"/>
-      <c r="F71" s="114"/>
+      <c r="E71" s="112"/>
+      <c r="F71" s="112"/>
     </row>
     <row r="72" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -32313,10 +32313,10 @@
       <c r="D74" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="109" t="s">
+      <c r="E74" s="107" t="s">
         <v>817</v>
       </c>
-      <c r="F74" s="109" t="s">
+      <c r="F74" s="107" t="s">
         <v>816</v>
       </c>
     </row>
@@ -32333,8 +32333,8 @@
       <c r="D75" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="110"/>
-      <c r="F75" s="110"/>
+      <c r="E75" s="108"/>
+      <c r="F75" s="108"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
@@ -33069,10 +33069,10 @@
       <c r="D114" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="108" t="s">
+      <c r="E114" s="106" t="s">
         <v>826</v>
       </c>
-      <c r="F114" s="109" t="s">
+      <c r="F114" s="107" t="s">
         <v>827</v>
       </c>
     </row>
@@ -33089,8 +33089,8 @@
       <c r="D115" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="108"/>
-      <c r="F115" s="110"/>
+      <c r="E115" s="106"/>
+      <c r="F115" s="108"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -34084,6 +34084,28 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="E74:E75"/>
     <mergeCell ref="F152:F153"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="F114:F115"/>
@@ -34094,28 +34116,6 @@
     <mergeCell ref="E114:E115"/>
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34179,10 +34179,10 @@
       <c r="D3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="113" t="s">
         <v>734</v>
       </c>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="111" t="s">
         <v>735</v>
       </c>
     </row>
@@ -34199,8 +34199,8 @@
       <c r="D4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="114"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="112"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -34325,10 +34325,10 @@
       <c r="D11" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="111" t="s">
         <v>946</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="111" t="s">
         <v>740</v>
       </c>
     </row>
@@ -34345,8 +34345,8 @@
       <c r="D12" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
     </row>
     <row r="13" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -34361,8 +34361,8 @@
       <c r="D13" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
     </row>
     <row r="14" spans="1:6" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -34487,10 +34487,10 @@
       <c r="D20" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="111" t="s">
+      <c r="E20" s="113" t="s">
         <v>743</v>
       </c>
-      <c r="F20" s="113" t="s">
+      <c r="F20" s="111" t="s">
         <v>744</v>
       </c>
     </row>
@@ -34507,8 +34507,8 @@
       <c r="D21" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="111"/>
-      <c r="F21" s="114"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="112"/>
     </row>
     <row r="22" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -35321,10 +35321,10 @@
       <c r="D64" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="113" t="s">
+      <c r="E64" s="111" t="s">
         <v>755</v>
       </c>
-      <c r="F64" s="113" t="s">
+      <c r="F64" s="111" t="s">
         <v>756</v>
       </c>
     </row>
@@ -35341,8 +35341,8 @@
       <c r="D65" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="114"/>
-      <c r="F65" s="114"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="112"/>
     </row>
     <row r="66" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="24" t="s">
@@ -35427,10 +35427,10 @@
       <c r="D70" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="111" t="s">
+      <c r="E70" s="113" t="s">
         <v>757</v>
       </c>
-      <c r="F70" s="113" t="s">
+      <c r="F70" s="111" t="s">
         <v>758</v>
       </c>
     </row>
@@ -35447,8 +35447,8 @@
       <c r="D71" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="111"/>
-      <c r="F71" s="114"/>
+      <c r="E71" s="113"/>
+      <c r="F71" s="112"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -35503,10 +35503,10 @@
       <c r="D74" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="113" t="s">
+      <c r="E74" s="111" t="s">
         <v>759</v>
       </c>
-      <c r="F74" s="115" t="s">
+      <c r="F74" s="114" t="s">
         <v>202</v>
       </c>
     </row>
@@ -35523,8 +35523,8 @@
       <c r="D75" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="114"/>
-      <c r="F75" s="114"/>
+      <c r="E75" s="112"/>
+      <c r="F75" s="112"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
@@ -36259,10 +36259,10 @@
       <c r="D114" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="113" t="s">
+      <c r="E114" s="111" t="s">
         <v>770</v>
       </c>
-      <c r="F114" s="113" t="s">
+      <c r="F114" s="111" t="s">
         <v>771</v>
       </c>
     </row>
@@ -36279,8 +36279,8 @@
       <c r="D115" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="114"/>
-      <c r="F115" s="114"/>
+      <c r="E115" s="112"/>
+      <c r="F115" s="112"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -37276,22 +37276,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="F20:F21"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="E64:E65"/>
     <mergeCell ref="E70:E71"/>
@@ -37308,6 +37292,22 @@
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="A131:F131"/>
     <mergeCell ref="A142:F142"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A82:F82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -37371,10 +37371,10 @@
       <c r="D3" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="111" t="s">
         <v>553</v>
       </c>
-      <c r="F3" s="113" t="s">
+      <c r="F3" s="111" t="s">
         <v>554</v>
       </c>
     </row>
@@ -37391,8 +37391,8 @@
       <c r="D4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
@@ -37517,10 +37517,10 @@
       <c r="D11" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="111" t="s">
         <v>947</v>
       </c>
-      <c r="F11" s="113" t="s">
+      <c r="F11" s="111" t="s">
         <v>562</v>
       </c>
     </row>
@@ -37537,8 +37537,8 @@
       <c r="D12" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
     </row>
     <row r="13" spans="1:6" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
@@ -37553,8 +37553,8 @@
       <c r="D13" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
     </row>
     <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
@@ -37569,8 +37569,8 @@
       <c r="D14" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
     </row>
     <row r="15" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
@@ -37675,10 +37675,10 @@
       <c r="D20" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="113" t="s">
+      <c r="E20" s="111" t="s">
         <v>953</v>
       </c>
-      <c r="F20" s="113" t="s">
+      <c r="F20" s="111" t="s">
         <v>563</v>
       </c>
     </row>
@@ -37695,8 +37695,8 @@
       <c r="D21" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
     </row>
     <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
@@ -38619,10 +38619,10 @@
       <c r="D70" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="113" t="s">
+      <c r="E70" s="111" t="s">
         <v>570</v>
       </c>
-      <c r="F70" s="113" t="s">
+      <c r="F70" s="111" t="s">
         <v>571</v>
       </c>
     </row>
@@ -38639,8 +38639,8 @@
       <c r="D71" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="114"/>
-      <c r="F71" s="114"/>
+      <c r="E71" s="112"/>
+      <c r="F71" s="112"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="24" t="s">
@@ -38695,10 +38695,10 @@
       <c r="D74" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="108" t="s">
+      <c r="E74" s="106" t="s">
         <v>572</v>
       </c>
-      <c r="F74" s="108" t="s">
+      <c r="F74" s="106" t="s">
         <v>572</v>
       </c>
     </row>
@@ -38715,8 +38715,8 @@
       <c r="D75" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="108"/>
-      <c r="F75" s="108"/>
+      <c r="E75" s="106"/>
+      <c r="F75" s="106"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="24" t="s">
@@ -39051,10 +39051,10 @@
       <c r="D93" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="113" t="s">
+      <c r="E93" s="111" t="s">
         <v>580</v>
       </c>
-      <c r="F93" s="113" t="s">
+      <c r="F93" s="111" t="s">
         <v>568</v>
       </c>
     </row>
@@ -39071,8 +39071,8 @@
       <c r="D94" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="114"/>
-      <c r="F94" s="114"/>
+      <c r="E94" s="112"/>
+      <c r="F94" s="112"/>
     </row>
     <row r="95" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A95" s="24" t="s">
@@ -39447,10 +39447,10 @@
       <c r="D114" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="111" t="s">
+      <c r="E114" s="113" t="s">
         <v>587</v>
       </c>
-      <c r="F114" s="113" t="s">
+      <c r="F114" s="111" t="s">
         <v>588</v>
       </c>
     </row>
@@ -39467,8 +39467,8 @@
       <c r="D115" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="111"/>
-      <c r="F115" s="114"/>
+      <c r="E115" s="113"/>
+      <c r="F115" s="112"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="24" t="s">
@@ -40464,6 +40464,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A102:F102"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="E3:E4"/>
@@ -40476,26 +40496,6 @@
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rawdata/supplementary_material_V3.xlsx
+++ b/rawdata/supplementary_material_V3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF0DDA7-0ECA-4826-8F74-98BCFEA33593}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3391C65F-11C2-4649-B3C5-552A46A3EBF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="859" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,163 +28,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Auteur</author>
-  </authors>
-  <commentList>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{B500485D-80F9-4122-BC07-ECC5D96529E9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <u/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Julian Gutt:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 1st para: there is an inconsistency, either it is not clear who benefits or rich people benefit. The truth might lie in the middle. Rich investors benefit most but also people working on the ships and in fish industry have a salary.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <u/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Gaël</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: I completed the rational, is it better for you?
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <u/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Julian Gutt: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3rd para: but krill stocks are also decreasing due to seaice loss. I also do not know whether sea and shelf-ice loss will lead to increased yields of krill and toothfish. Probably most yields are not reached in the few areas (Ross Sea) which were formerly not no-take MPAs and it can also not be expected that new non-take areas are designated with large harvestable fish stocks. 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">In general: possible sustainable yields are limited by slow growth (toothfish) or for krill by management reasons by CCAMLR or by the still existing sea-ice, since krill for at last part of their life live under the sea-ice. If this ice melts they migrate to remaining areas wth ice or their recruitment fails.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <u/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Gaël:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> Yes, I agree with your comment and I do not know wether sea-ice loss would increase the productivity of unfished (a potential futur targeted) fish stocks due to an increase in primary productivity in these areas. Or if sea-ice loss would decrease the productivity in all fish stocks including krill and toothfish. Perhaps a little of both...? 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>I will send an email to William (put you in CC) to have its point of view.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4317,7 +4160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4418,20 +4261,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -8531,10 +8360,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA8B1E2-51E2-4ACA-A73C-C2AA2101D6A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA8B1E2-51E2-4ACA-A73C-C2AA2101D6A9}">
   <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -11728,7 +11557,6 @@
     <mergeCell ref="F76:F77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11736,7 +11564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F73893D-409E-4101-9A49-2668405F579C}">
   <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/rawdata/supplementary_material_V3.xlsx
+++ b/rawdata/supplementary_material_V3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A69443E-EFCA-449A-9A33-0B68DA59B0C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1B0001-6153-4ADF-82F7-12B61A3A7D68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="859" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4913,7 +4913,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4925,11 +4937,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4937,19 +4949,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4961,28 +4967,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5375,8 +5375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801CB5DA-4450-43AD-9D1A-DDD187F5639A}">
   <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E166" sqref="E166"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5407,14 +5407,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
     </row>
     <row r="3" spans="1:6" ht="192.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -5553,14 +5553,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
     </row>
     <row r="11" spans="1:6" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
@@ -5715,14 +5715,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
     </row>
     <row r="20" spans="1:6" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -5981,14 +5981,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="109" t="s">
+      <c r="A33" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
     </row>
     <row r="34" spans="1:6" ht="211.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
@@ -6189,14 +6189,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
@@ -6379,14 +6379,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="109" t="s">
+      <c r="A54" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
@@ -6549,14 +6549,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="109" t="s">
+      <c r="A63" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="B63" s="109"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="111"/>
+      <c r="F63" s="111"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
@@ -6659,14 +6659,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="109" t="s">
+      <c r="A69" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="B69" s="109"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="109"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
     </row>
     <row r="70" spans="1:6" ht="158.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
@@ -6905,14 +6905,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="109" t="s">
+      <c r="A82" s="111" t="s">
         <v>221</v>
       </c>
-      <c r="B82" s="109"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="109"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
     </row>
     <row r="83" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
@@ -6987,10 +6987,10 @@
       <c r="D86" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E86" s="110" t="s">
+      <c r="E86" s="114" t="s">
         <v>626</v>
       </c>
-      <c r="F86" s="110" t="s">
+      <c r="F86" s="114" t="s">
         <v>627</v>
       </c>
     </row>
@@ -7007,8 +7007,8 @@
       <c r="D87" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E87" s="110"/>
-      <c r="F87" s="110"/>
+      <c r="E87" s="114"/>
+      <c r="F87" s="114"/>
     </row>
     <row r="88" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A88" s="22" t="s">
@@ -7023,8 +7023,8 @@
       <c r="D88" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="110"/>
-      <c r="F88" s="110"/>
+      <c r="E88" s="114"/>
+      <c r="F88" s="114"/>
     </row>
     <row r="89" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A89" s="22" t="s">
@@ -7067,14 +7067,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="109" t="s">
+      <c r="A91" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="B91" s="109"/>
-      <c r="C91" s="109"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="109"/>
-      <c r="F91" s="109"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="111"/>
+      <c r="F91" s="111"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="22" t="s">
@@ -7277,14 +7277,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="109" t="s">
+      <c r="A102" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="B102" s="109"/>
-      <c r="C102" s="109"/>
-      <c r="D102" s="109"/>
-      <c r="E102" s="109"/>
-      <c r="F102" s="109"/>
+      <c r="B102" s="111"/>
+      <c r="C102" s="111"/>
+      <c r="D102" s="111"/>
+      <c r="E102" s="111"/>
+      <c r="F102" s="111"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
@@ -7487,14 +7487,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="109" t="s">
+      <c r="A113" s="111" t="s">
         <v>292</v>
       </c>
-      <c r="B113" s="109"/>
-      <c r="C113" s="109"/>
-      <c r="D113" s="109"/>
-      <c r="E113" s="109"/>
-      <c r="F113" s="109"/>
+      <c r="B113" s="111"/>
+      <c r="C113" s="111"/>
+      <c r="D113" s="111"/>
+      <c r="E113" s="111"/>
+      <c r="F113" s="111"/>
     </row>
     <row r="114" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
@@ -7711,14 +7711,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="109" t="s">
+      <c r="A125" s="111" t="s">
         <v>319</v>
       </c>
-      <c r="B125" s="109"/>
-      <c r="C125" s="109"/>
-      <c r="D125" s="109"/>
-      <c r="E125" s="109"/>
-      <c r="F125" s="109"/>
+      <c r="B125" s="111"/>
+      <c r="C125" s="111"/>
+      <c r="D125" s="111"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="111"/>
     </row>
     <row r="126" spans="1:6" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
@@ -7733,10 +7733,10 @@
       <c r="D126" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="123" t="s">
+      <c r="E126" s="125" t="s">
         <v>657</v>
       </c>
-      <c r="F126" s="123" t="s">
+      <c r="F126" s="125" t="s">
         <v>660</v>
       </c>
     </row>
@@ -7753,8 +7753,8 @@
       <c r="D127" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="124"/>
-      <c r="F127" s="124"/>
+      <c r="E127" s="126"/>
+      <c r="F127" s="126"/>
     </row>
     <row r="128" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
@@ -7815,14 +7815,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="109" t="s">
+      <c r="A131" s="111" t="s">
         <v>332</v>
       </c>
-      <c r="B131" s="109"/>
-      <c r="C131" s="109"/>
-      <c r="D131" s="109"/>
-      <c r="E131" s="109"/>
-      <c r="F131" s="109"/>
+      <c r="B131" s="111"/>
+      <c r="C131" s="111"/>
+      <c r="D131" s="111"/>
+      <c r="E131" s="111"/>
+      <c r="F131" s="111"/>
     </row>
     <row r="132" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
@@ -8021,14 +8021,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="109" t="s">
+      <c r="A142" s="111" t="s">
         <v>355</v>
       </c>
-      <c r="B142" s="109"/>
-      <c r="C142" s="109"/>
-      <c r="D142" s="109"/>
-      <c r="E142" s="109"/>
-      <c r="F142" s="109"/>
+      <c r="B142" s="111"/>
+      <c r="C142" s="111"/>
+      <c r="D142" s="111"/>
+      <c r="E142" s="111"/>
+      <c r="F142" s="111"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="22" t="s">
@@ -8271,14 +8271,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="109" t="s">
+      <c r="A155" s="111" t="s">
         <v>394</v>
       </c>
-      <c r="B155" s="109"/>
-      <c r="C155" s="109"/>
-      <c r="D155" s="109"/>
-      <c r="E155" s="109"/>
-      <c r="F155" s="109"/>
+      <c r="B155" s="111"/>
+      <c r="C155" s="111"/>
+      <c r="D155" s="111"/>
+      <c r="E155" s="111"/>
+      <c r="F155" s="111"/>
     </row>
     <row r="156" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="22" t="s">
@@ -8518,6 +8518,25 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="F86:F88"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="A82:F82"/>
     <mergeCell ref="E156:E157"/>
     <mergeCell ref="F156:F157"/>
     <mergeCell ref="A91:F91"/>
@@ -8531,25 +8550,6 @@
     <mergeCell ref="A131:F131"/>
     <mergeCell ref="A142:F142"/>
     <mergeCell ref="A155:F155"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="F86:F88"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8591,14 +8591,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
     </row>
     <row r="3" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -8741,14 +8741,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
     </row>
     <row r="11" spans="1:6" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
@@ -8911,14 +8911,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
     </row>
     <row r="20" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -9181,14 +9181,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="109" t="s">
+      <c r="A33" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
@@ -9391,14 +9391,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
@@ -9581,14 +9581,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="109" t="s">
+      <c r="A54" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
@@ -9751,14 +9751,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="109" t="s">
+      <c r="A63" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="B63" s="109"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="111"/>
+      <c r="F63" s="111"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
@@ -9861,14 +9861,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="109" t="s">
+      <c r="A69" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="B69" s="109"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="109"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
     </row>
     <row r="70" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
@@ -10001,10 +10001,10 @@
       <c r="D76" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E76" s="115" t="s">
+      <c r="E76" s="119" t="s">
         <v>665</v>
       </c>
-      <c r="F76" s="115" t="s">
+      <c r="F76" s="119" t="s">
         <v>666</v>
       </c>
     </row>
@@ -10021,8 +10021,8 @@
       <c r="D77" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="116"/>
-      <c r="F77" s="116"/>
+      <c r="E77" s="120"/>
+      <c r="F77" s="120"/>
     </row>
     <row r="78" spans="1:6" ht="195" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="22" t="s">
@@ -10105,14 +10105,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="109" t="s">
+      <c r="A82" s="111" t="s">
         <v>221</v>
       </c>
-      <c r="B82" s="109"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="109"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
     </row>
     <row r="83" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
@@ -10275,14 +10275,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="109" t="s">
+      <c r="A91" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="B91" s="109"/>
-      <c r="C91" s="109"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="109"/>
-      <c r="F91" s="109"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="111"/>
+      <c r="F91" s="111"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="22" t="s">
@@ -10485,14 +10485,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="109" t="s">
+      <c r="A102" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="B102" s="109"/>
-      <c r="C102" s="109"/>
-      <c r="D102" s="109"/>
-      <c r="E102" s="109"/>
-      <c r="F102" s="109"/>
+      <c r="B102" s="111"/>
+      <c r="C102" s="111"/>
+      <c r="D102" s="111"/>
+      <c r="E102" s="111"/>
+      <c r="F102" s="111"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
@@ -10695,14 +10695,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="109" t="s">
+      <c r="A113" s="111" t="s">
         <v>292</v>
       </c>
-      <c r="B113" s="109"/>
-      <c r="C113" s="109"/>
-      <c r="D113" s="109"/>
-      <c r="E113" s="109"/>
-      <c r="F113" s="109"/>
+      <c r="B113" s="111"/>
+      <c r="C113" s="111"/>
+      <c r="D113" s="111"/>
+      <c r="E113" s="111"/>
+      <c r="F113" s="111"/>
     </row>
     <row r="114" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
@@ -10923,14 +10923,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="109" t="s">
+      <c r="A125" s="111" t="s">
         <v>319</v>
       </c>
-      <c r="B125" s="109"/>
-      <c r="C125" s="109"/>
-      <c r="D125" s="109"/>
-      <c r="E125" s="109"/>
-      <c r="F125" s="109"/>
+      <c r="B125" s="111"/>
+      <c r="C125" s="111"/>
+      <c r="D125" s="111"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="111"/>
     </row>
     <row r="126" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
@@ -10945,10 +10945,10 @@
       <c r="D126" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="123" t="s">
+      <c r="E126" s="125" t="s">
         <v>1011</v>
       </c>
-      <c r="F126" s="123" t="s">
+      <c r="F126" s="125" t="s">
         <v>674</v>
       </c>
     </row>
@@ -10965,8 +10965,8 @@
       <c r="D127" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="124"/>
-      <c r="F127" s="124"/>
+      <c r="E127" s="126"/>
+      <c r="F127" s="126"/>
     </row>
     <row r="128" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
@@ -11027,14 +11027,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="109" t="s">
+      <c r="A131" s="111" t="s">
         <v>332</v>
       </c>
-      <c r="B131" s="109"/>
-      <c r="C131" s="109"/>
-      <c r="D131" s="109"/>
-      <c r="E131" s="109"/>
-      <c r="F131" s="109"/>
+      <c r="B131" s="111"/>
+      <c r="C131" s="111"/>
+      <c r="D131" s="111"/>
+      <c r="E131" s="111"/>
+      <c r="F131" s="111"/>
     </row>
     <row r="132" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
@@ -11233,14 +11233,14 @@
       <c r="F141" s="31"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="109" t="s">
+      <c r="A142" s="111" t="s">
         <v>355</v>
       </c>
-      <c r="B142" s="109"/>
-      <c r="C142" s="109"/>
-      <c r="D142" s="109"/>
-      <c r="E142" s="109"/>
-      <c r="F142" s="109"/>
+      <c r="B142" s="111"/>
+      <c r="C142" s="111"/>
+      <c r="D142" s="111"/>
+      <c r="E142" s="111"/>
+      <c r="F142" s="111"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="22" t="s">
@@ -11483,14 +11483,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="109" t="s">
+      <c r="A155" s="111" t="s">
         <v>394</v>
       </c>
-      <c r="B155" s="109"/>
-      <c r="C155" s="109"/>
-      <c r="D155" s="109"/>
-      <c r="E155" s="109"/>
-      <c r="F155" s="109"/>
+      <c r="B155" s="111"/>
+      <c r="C155" s="111"/>
+      <c r="D155" s="111"/>
+      <c r="E155" s="111"/>
+      <c r="F155" s="111"/>
     </row>
     <row r="156" spans="1:6" ht="168.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="22" t="s">
@@ -11734,14 +11734,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A10:F10"/>
@@ -11754,6 +11746,14 @@
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="E76:E77"/>
     <mergeCell ref="F76:F77"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11796,14 +11796,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
     </row>
     <row r="3" spans="1:6" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -11944,14 +11944,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
     </row>
     <row r="11" spans="1:6" ht="198.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
@@ -11966,10 +11966,10 @@
       <c r="D11" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="115" t="s">
+      <c r="E11" s="119" t="s">
         <v>691</v>
       </c>
-      <c r="F11" s="115" t="s">
+      <c r="F11" s="119" t="s">
         <v>933</v>
       </c>
     </row>
@@ -11986,8 +11986,8 @@
       <c r="D12" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
     </row>
     <row r="13" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
@@ -12108,14 +12108,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
     </row>
     <row r="20" spans="1:6" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -12130,10 +12130,10 @@
       <c r="D20" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="115" t="s">
+      <c r="E20" s="119" t="s">
         <v>692</v>
       </c>
-      <c r="F20" s="115" t="s">
+      <c r="F20" s="119" t="s">
         <v>693</v>
       </c>
     </row>
@@ -12150,8 +12150,8 @@
       <c r="D21" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
     </row>
     <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
@@ -12374,14 +12374,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="109" t="s">
+      <c r="A33" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
@@ -12584,14 +12584,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
@@ -12774,14 +12774,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="109" t="s">
+      <c r="A54" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
@@ -12944,14 +12944,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="109" t="s">
+      <c r="A63" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="B63" s="109"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="111"/>
+      <c r="F63" s="111"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
@@ -13054,14 +13054,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="109" t="s">
+      <c r="A69" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="B69" s="109"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="109"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
     </row>
     <row r="70" spans="1:6" ht="171.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
@@ -13076,10 +13076,10 @@
       <c r="D70" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="115" t="s">
+      <c r="E70" s="119" t="s">
         <v>700</v>
       </c>
-      <c r="F70" s="115" t="s">
+      <c r="F70" s="119" t="s">
         <v>701</v>
       </c>
     </row>
@@ -13096,8 +13096,8 @@
       <c r="D71" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="116"/>
-      <c r="F71" s="116"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="120"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="22" t="s">
@@ -13300,14 +13300,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="109" t="s">
+      <c r="A82" s="111" t="s">
         <v>221</v>
       </c>
-      <c r="B82" s="109"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="109"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
     </row>
     <row r="83" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
@@ -13470,14 +13470,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="109" t="s">
+      <c r="A91" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="B91" s="109"/>
-      <c r="C91" s="109"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="109"/>
-      <c r="F91" s="109"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="111"/>
+      <c r="F91" s="111"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="22" t="s">
@@ -13680,14 +13680,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="109" t="s">
+      <c r="A102" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="B102" s="109"/>
-      <c r="C102" s="109"/>
-      <c r="D102" s="109"/>
-      <c r="E102" s="109"/>
-      <c r="F102" s="109"/>
+      <c r="B102" s="111"/>
+      <c r="C102" s="111"/>
+      <c r="D102" s="111"/>
+      <c r="E102" s="111"/>
+      <c r="F102" s="111"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
@@ -13890,14 +13890,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="109" t="s">
+      <c r="A113" s="111" t="s">
         <v>292</v>
       </c>
-      <c r="B113" s="109"/>
-      <c r="C113" s="109"/>
-      <c r="D113" s="109"/>
-      <c r="E113" s="109"/>
-      <c r="F113" s="109"/>
+      <c r="B113" s="111"/>
+      <c r="C113" s="111"/>
+      <c r="D113" s="111"/>
+      <c r="E113" s="111"/>
+      <c r="F113" s="111"/>
     </row>
     <row r="114" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
@@ -14118,14 +14118,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="109" t="s">
+      <c r="A125" s="111" t="s">
         <v>319</v>
       </c>
-      <c r="B125" s="109"/>
-      <c r="C125" s="109"/>
-      <c r="D125" s="109"/>
-      <c r="E125" s="109"/>
-      <c r="F125" s="109"/>
+      <c r="B125" s="111"/>
+      <c r="C125" s="111"/>
+      <c r="D125" s="111"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="111"/>
     </row>
     <row r="126" spans="1:6" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
@@ -14140,10 +14140,10 @@
       <c r="D126" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="123" t="s">
+      <c r="E126" s="125" t="s">
         <v>1012</v>
       </c>
-      <c r="F126" s="123" t="s">
+      <c r="F126" s="125" t="s">
         <v>707</v>
       </c>
     </row>
@@ -14160,8 +14160,8 @@
       <c r="D127" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="124"/>
-      <c r="F127" s="124"/>
+      <c r="E127" s="126"/>
+      <c r="F127" s="126"/>
     </row>
     <row r="128" spans="1:6" ht="79.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
@@ -14220,14 +14220,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="109" t="s">
+      <c r="A131" s="111" t="s">
         <v>332</v>
       </c>
-      <c r="B131" s="109"/>
-      <c r="C131" s="109"/>
-      <c r="D131" s="109"/>
-      <c r="E131" s="109"/>
-      <c r="F131" s="109"/>
+      <c r="B131" s="111"/>
+      <c r="C131" s="111"/>
+      <c r="D131" s="111"/>
+      <c r="E131" s="111"/>
+      <c r="F131" s="111"/>
     </row>
     <row r="132" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
@@ -14302,10 +14302,10 @@
       <c r="D135" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E135" s="115" t="s">
+      <c r="E135" s="119" t="s">
         <v>711</v>
       </c>
-      <c r="F135" s="115" t="s">
+      <c r="F135" s="119" t="s">
         <v>702</v>
       </c>
     </row>
@@ -14322,8 +14322,8 @@
       <c r="D136" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E136" s="116"/>
-      <c r="F136" s="116"/>
+      <c r="E136" s="120"/>
+      <c r="F136" s="120"/>
     </row>
     <row r="137" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A137" s="22" t="s">
@@ -14426,14 +14426,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="109" t="s">
+      <c r="A142" s="111" t="s">
         <v>355</v>
       </c>
-      <c r="B142" s="109"/>
-      <c r="C142" s="109"/>
-      <c r="D142" s="109"/>
-      <c r="E142" s="109"/>
-      <c r="F142" s="109"/>
+      <c r="B142" s="111"/>
+      <c r="C142" s="111"/>
+      <c r="D142" s="111"/>
+      <c r="E142" s="111"/>
+      <c r="F142" s="111"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="22" t="s">
@@ -14676,14 +14676,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="109" t="s">
+      <c r="A155" s="111" t="s">
         <v>394</v>
       </c>
-      <c r="B155" s="109"/>
-      <c r="C155" s="109"/>
-      <c r="D155" s="109"/>
-      <c r="E155" s="109"/>
-      <c r="F155" s="109"/>
+      <c r="B155" s="111"/>
+      <c r="C155" s="111"/>
+      <c r="D155" s="111"/>
+      <c r="E155" s="111"/>
+      <c r="F155" s="111"/>
     </row>
     <row r="156" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="22" t="s">
@@ -14932,13 +14932,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="A33:F33"/>
@@ -14953,11 +14951,13 @@
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A113:F113"/>
     <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14999,14 +14999,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
     </row>
     <row r="3" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -15021,10 +15021,10 @@
       <c r="D3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="119" t="s">
         <v>1032</v>
       </c>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="119" t="s">
         <v>766</v>
       </c>
     </row>
@@ -15041,8 +15041,8 @@
       <c r="D4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
@@ -15113,10 +15113,10 @@
       <c r="D8" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="115" t="s">
+      <c r="E8" s="119" t="s">
         <v>1036</v>
       </c>
-      <c r="F8" s="115" t="s">
+      <c r="F8" s="119" t="s">
         <v>1018</v>
       </c>
     </row>
@@ -15133,18 +15133,18 @@
       <c r="D9" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
     </row>
     <row r="11" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
@@ -15159,10 +15159,10 @@
       <c r="D11" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="125" t="s">
+      <c r="E11" s="130" t="s">
         <v>1026</v>
       </c>
-      <c r="F11" s="111" t="s">
+      <c r="F11" s="115" t="s">
         <v>1025</v>
       </c>
     </row>
@@ -15179,8 +15179,8 @@
       <c r="D12" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="127"/>
-      <c r="F12" s="122"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="124"/>
     </row>
     <row r="13" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
@@ -15195,8 +15195,8 @@
       <c r="D13" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="126"/>
-      <c r="F13" s="112"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="116"/>
     </row>
     <row r="14" spans="1:6" ht="193.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
@@ -15299,14 +15299,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
     </row>
     <row r="20" spans="1:6" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -15321,10 +15321,10 @@
       <c r="D20" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="111" t="s">
+      <c r="E20" s="115" t="s">
         <v>1039</v>
       </c>
-      <c r="F20" s="111" t="s">
+      <c r="F20" s="115" t="s">
         <v>1037</v>
       </c>
     </row>
@@ -15341,8 +15341,8 @@
       <c r="D21" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
     </row>
     <row r="22" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
@@ -15504,7 +15504,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="156" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="140.4" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
         <v>97</v>
       </c>
@@ -15565,14 +15565,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="109" t="s">
+      <c r="A33" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
@@ -15587,7 +15587,7 @@
       <c r="D34" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="130" t="s">
+      <c r="E34" s="127" t="s">
         <v>1042</v>
       </c>
       <c r="F34" s="108" t="s">
@@ -15607,7 +15607,7 @@
       <c r="D35" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="131"/>
+      <c r="E35" s="129"/>
       <c r="F35" s="108" t="s">
         <v>29</v>
       </c>
@@ -15625,7 +15625,7 @@
       <c r="D36" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="131"/>
+      <c r="E36" s="129"/>
       <c r="F36" s="108" t="s">
         <v>29</v>
       </c>
@@ -15643,7 +15643,7 @@
       <c r="D37" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="132"/>
+      <c r="E37" s="128"/>
       <c r="F37" s="108" t="s">
         <v>29</v>
       </c>
@@ -15695,7 +15695,7 @@
       <c r="B40" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="128" t="s">
+      <c r="C40" s="109" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="43" t="s">
@@ -15731,13 +15731,13 @@
       <c r="B42" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="128" t="s">
+      <c r="C42" s="109" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="129" t="s">
+      <c r="E42" s="110" t="s">
         <v>1029</v>
       </c>
       <c r="F42" s="106"/>
@@ -15759,14 +15759,14 @@
       <c r="F43" s="106"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
@@ -15949,14 +15949,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="109" t="s">
+      <c r="A54" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
@@ -16119,14 +16119,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="109" t="s">
+      <c r="A63" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="B63" s="109"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="111"/>
+      <c r="F63" s="111"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
@@ -16229,14 +16229,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="109" t="s">
+      <c r="A69" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="B69" s="109"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="109"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
     </row>
     <row r="70" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
@@ -16431,14 +16431,14 @@
       <c r="F81" s="106"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="109" t="s">
+      <c r="A82" s="111" t="s">
         <v>221</v>
       </c>
-      <c r="B82" s="109"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="109"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
     </row>
     <row r="83" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
@@ -16601,14 +16601,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="109" t="s">
+      <c r="A91" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="B91" s="109"/>
-      <c r="C91" s="109"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="109"/>
-      <c r="F91" s="109"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="111"/>
+      <c r="F91" s="111"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="22" t="s">
@@ -16803,14 +16803,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="109" t="s">
+      <c r="A102" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="B102" s="109"/>
-      <c r="C102" s="109"/>
-      <c r="D102" s="109"/>
-      <c r="E102" s="109"/>
-      <c r="F102" s="109"/>
+      <c r="B102" s="111"/>
+      <c r="C102" s="111"/>
+      <c r="D102" s="111"/>
+      <c r="E102" s="111"/>
+      <c r="F102" s="111"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
@@ -17013,14 +17013,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="109" t="s">
+      <c r="A113" s="111" t="s">
         <v>292</v>
       </c>
-      <c r="B113" s="109"/>
-      <c r="C113" s="109"/>
-      <c r="D113" s="109"/>
-      <c r="E113" s="109"/>
-      <c r="F113" s="109"/>
+      <c r="B113" s="111"/>
+      <c r="C113" s="111"/>
+      <c r="D113" s="111"/>
+      <c r="E113" s="111"/>
+      <c r="F113" s="111"/>
     </row>
     <row r="114" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
@@ -17237,14 +17237,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="109" t="s">
+      <c r="A125" s="111" t="s">
         <v>319</v>
       </c>
-      <c r="B125" s="109"/>
-      <c r="C125" s="109"/>
-      <c r="D125" s="109"/>
-      <c r="E125" s="109"/>
-      <c r="F125" s="109"/>
+      <c r="B125" s="111"/>
+      <c r="C125" s="111"/>
+      <c r="D125" s="111"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="111"/>
     </row>
     <row r="126" spans="1:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
@@ -17259,10 +17259,10 @@
       <c r="D126" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="111" t="s">
+      <c r="E126" s="115" t="s">
         <v>1015</v>
       </c>
-      <c r="F126" s="111" t="s">
+      <c r="F126" s="115" t="s">
         <v>1016</v>
       </c>
     </row>
@@ -17279,8 +17279,8 @@
       <c r="D127" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="122"/>
-      <c r="F127" s="122"/>
+      <c r="E127" s="124"/>
+      <c r="F127" s="124"/>
     </row>
     <row r="128" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
@@ -17295,10 +17295,10 @@
       <c r="D128" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E128" s="112"/>
-      <c r="F128" s="112"/>
-    </row>
-    <row r="129" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="E128" s="116"/>
+      <c r="F128" s="116"/>
+    </row>
+    <row r="129" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A129" s="22" t="s">
         <v>328</v>
       </c>
@@ -17339,14 +17339,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="109" t="s">
+      <c r="A131" s="111" t="s">
         <v>332</v>
       </c>
-      <c r="B131" s="109"/>
-      <c r="C131" s="109"/>
-      <c r="D131" s="109"/>
-      <c r="E131" s="109"/>
-      <c r="F131" s="109"/>
+      <c r="B131" s="111"/>
+      <c r="C131" s="111"/>
+      <c r="D131" s="111"/>
+      <c r="E131" s="111"/>
+      <c r="F131" s="111"/>
     </row>
     <row r="132" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
@@ -17361,10 +17361,10 @@
       <c r="D132" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="125" t="s">
+      <c r="E132" s="130" t="s">
         <v>1022</v>
       </c>
-      <c r="F132" s="125" t="s">
+      <c r="F132" s="130" t="s">
         <v>1019</v>
       </c>
     </row>
@@ -17381,8 +17381,8 @@
       <c r="D133" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="126"/>
-      <c r="F133" s="126"/>
+      <c r="E133" s="132"/>
+      <c r="F133" s="132"/>
     </row>
     <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="22" t="s">
@@ -17531,14 +17531,14 @@
       <c r="F141" s="106"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="109" t="s">
+      <c r="A142" s="111" t="s">
         <v>355</v>
       </c>
-      <c r="B142" s="109"/>
-      <c r="C142" s="109"/>
-      <c r="D142" s="109"/>
-      <c r="E142" s="109"/>
-      <c r="F142" s="109"/>
+      <c r="B142" s="111"/>
+      <c r="C142" s="111"/>
+      <c r="D142" s="111"/>
+      <c r="E142" s="111"/>
+      <c r="F142" s="111"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="22" t="s">
@@ -17781,14 +17781,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="109" t="s">
+      <c r="A155" s="111" t="s">
         <v>394</v>
       </c>
-      <c r="B155" s="109"/>
-      <c r="C155" s="109"/>
-      <c r="D155" s="109"/>
-      <c r="E155" s="109"/>
-      <c r="F155" s="109"/>
+      <c r="B155" s="111"/>
+      <c r="C155" s="111"/>
+      <c r="D155" s="111"/>
+      <c r="E155" s="111"/>
+      <c r="F155" s="111"/>
     </row>
     <row r="156" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="22" t="s">
@@ -17803,7 +17803,7 @@
       <c r="D156" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E156" s="130" t="s">
+      <c r="E156" s="127" t="s">
         <v>1042</v>
       </c>
       <c r="F156" s="106"/>
@@ -17821,7 +17821,7 @@
       <c r="D157" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E157" s="132"/>
+      <c r="E157" s="128"/>
       <c r="F157" s="106"/>
     </row>
     <row r="158" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
@@ -17990,6 +17990,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E126:E128"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F126:F128"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="E156:E157"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
@@ -17997,18 +18013,7 @@
     <mergeCell ref="E114:E115"/>
     <mergeCell ref="F114:F115"/>
     <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
     <mergeCell ref="A54:F54"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A69:F69"/>
     <mergeCell ref="A82:F82"/>
@@ -18017,11 +18022,6 @@
     <mergeCell ref="A125:F125"/>
     <mergeCell ref="A131:F131"/>
     <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="E126:E128"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F126:F128"/>
-    <mergeCell ref="F132:F133"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18065,14 +18065,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
     </row>
     <row r="3" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -18215,14 +18215,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
     </row>
     <row r="11" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
@@ -18385,14 +18385,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
     </row>
     <row r="20" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -18655,14 +18655,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="109" t="s">
+      <c r="A33" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
@@ -18865,14 +18865,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
@@ -19055,14 +19055,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="109" t="s">
+      <c r="A54" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
@@ -19225,14 +19225,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="109" t="s">
+      <c r="A63" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="B63" s="109"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="111"/>
+      <c r="F63" s="111"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
@@ -19335,14 +19335,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="109" t="s">
+      <c r="A69" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="B69" s="109"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="109"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
     </row>
     <row r="70" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
@@ -19585,14 +19585,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="109" t="s">
+      <c r="A82" s="111" t="s">
         <v>221</v>
       </c>
-      <c r="B82" s="109"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="109"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
     </row>
     <row r="83" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
@@ -19755,14 +19755,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="109" t="s">
+      <c r="A91" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="B91" s="109"/>
-      <c r="C91" s="109"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="109"/>
-      <c r="F91" s="109"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="111"/>
+      <c r="F91" s="111"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="22" t="s">
@@ -19965,14 +19965,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="109" t="s">
+      <c r="A102" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="B102" s="109"/>
-      <c r="C102" s="109"/>
-      <c r="D102" s="109"/>
-      <c r="E102" s="109"/>
-      <c r="F102" s="109"/>
+      <c r="B102" s="111"/>
+      <c r="C102" s="111"/>
+      <c r="D102" s="111"/>
+      <c r="E102" s="111"/>
+      <c r="F102" s="111"/>
     </row>
     <row r="103" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
@@ -20173,14 +20173,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="109" t="s">
+      <c r="A113" s="111" t="s">
         <v>292</v>
       </c>
-      <c r="B113" s="109"/>
-      <c r="C113" s="109"/>
-      <c r="D113" s="109"/>
-      <c r="E113" s="109"/>
-      <c r="F113" s="109"/>
+      <c r="B113" s="111"/>
+      <c r="C113" s="111"/>
+      <c r="D113" s="111"/>
+      <c r="E113" s="111"/>
+      <c r="F113" s="111"/>
     </row>
     <row r="114" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
@@ -20403,14 +20403,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="109" t="s">
+      <c r="A125" s="111" t="s">
         <v>319</v>
       </c>
-      <c r="B125" s="109"/>
-      <c r="C125" s="109"/>
-      <c r="D125" s="109"/>
-      <c r="E125" s="109"/>
-      <c r="F125" s="109"/>
+      <c r="B125" s="111"/>
+      <c r="C125" s="111"/>
+      <c r="D125" s="111"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="111"/>
     </row>
     <row r="126" spans="1:6" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
@@ -20425,10 +20425,10 @@
       <c r="D126" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="110" t="s">
+      <c r="E126" s="114" t="s">
         <v>452</v>
       </c>
-      <c r="F126" s="111" t="s">
+      <c r="F126" s="115" t="s">
         <v>453</v>
       </c>
     </row>
@@ -20445,8 +20445,8 @@
       <c r="D127" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="110"/>
-      <c r="F127" s="112"/>
+      <c r="E127" s="114"/>
+      <c r="F127" s="116"/>
     </row>
     <row r="128" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
@@ -20509,14 +20509,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="109" t="s">
+      <c r="A131" s="111" t="s">
         <v>332</v>
       </c>
-      <c r="B131" s="109"/>
-      <c r="C131" s="109"/>
-      <c r="D131" s="109"/>
-      <c r="E131" s="109"/>
-      <c r="F131" s="109"/>
+      <c r="B131" s="111"/>
+      <c r="C131" s="111"/>
+      <c r="D131" s="111"/>
+      <c r="E131" s="111"/>
+      <c r="F131" s="111"/>
     </row>
     <row r="132" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
@@ -20719,14 +20719,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="109" t="s">
+      <c r="A142" s="111" t="s">
         <v>355</v>
       </c>
-      <c r="B142" s="109"/>
-      <c r="C142" s="109"/>
-      <c r="D142" s="109"/>
-      <c r="E142" s="109"/>
-      <c r="F142" s="109"/>
+      <c r="B142" s="111"/>
+      <c r="C142" s="111"/>
+      <c r="D142" s="111"/>
+      <c r="E142" s="111"/>
+      <c r="F142" s="111"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="22" t="s">
@@ -20969,14 +20969,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="109" t="s">
+      <c r="A155" s="111" t="s">
         <v>394</v>
       </c>
-      <c r="B155" s="109"/>
-      <c r="C155" s="109"/>
-      <c r="D155" s="109"/>
-      <c r="E155" s="109"/>
-      <c r="F155" s="109"/>
+      <c r="B155" s="111"/>
+      <c r="C155" s="111"/>
+      <c r="D155" s="111"/>
+      <c r="E155" s="111"/>
+      <c r="F155" s="111"/>
     </row>
     <row r="156" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="22" t="s">
@@ -21220,12 +21220,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A69:F69"/>
@@ -21238,6 +21232,12 @@
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="A131:F131"/>
     <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21279,14 +21279,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
     </row>
     <row r="3" spans="1:6" ht="197.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -21301,10 +21301,10 @@
       <c r="D3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="110" t="s">
+      <c r="E3" s="114" t="s">
         <v>919</v>
       </c>
-      <c r="F3" s="110" t="s">
+      <c r="F3" s="114" t="s">
         <v>920</v>
       </c>
     </row>
@@ -21321,8 +21321,8 @@
       <c r="D4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
     </row>
     <row r="5" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
@@ -21425,14 +21425,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
     </row>
     <row r="11" spans="1:6" ht="173.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
@@ -21447,7 +21447,7 @@
       <c r="D11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="115" t="s">
+      <c r="E11" s="119" t="s">
         <v>48</v>
       </c>
       <c r="F11" s="117" t="s">
@@ -21467,8 +21467,8 @@
       <c r="D12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
     </row>
     <row r="13" spans="1:6" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
@@ -21483,8 +21483,8 @@
       <c r="D13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
     </row>
     <row r="14" spans="1:6" ht="228.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
@@ -21587,14 +21587,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
     </row>
     <row r="20" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -21849,14 +21849,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="109" t="s">
+      <c r="A33" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
     </row>
     <row r="34" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
@@ -22059,14 +22059,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
     </row>
     <row r="45" spans="1:6" ht="233.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
@@ -22249,14 +22249,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="109" t="s">
+      <c r="A54" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
     </row>
     <row r="55" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
@@ -22419,14 +22419,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="109" t="s">
+      <c r="A63" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="B63" s="109"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="111"/>
+      <c r="F63" s="111"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
@@ -22529,14 +22529,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="109" t="s">
+      <c r="A69" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="B69" s="109"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="109"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
     </row>
     <row r="70" spans="1:6" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
@@ -22551,10 +22551,10 @@
       <c r="D70" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="110" t="s">
+      <c r="E70" s="114" t="s">
         <v>190</v>
       </c>
-      <c r="F70" s="110" t="s">
+      <c r="F70" s="114" t="s">
         <v>191</v>
       </c>
     </row>
@@ -22571,8 +22571,8 @@
       <c r="D71" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="110"/>
-      <c r="F71" s="110"/>
+      <c r="E71" s="114"/>
+      <c r="F71" s="114"/>
     </row>
     <row r="72" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="22" t="s">
@@ -22775,14 +22775,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="109" t="s">
+      <c r="A82" s="111" t="s">
         <v>221</v>
       </c>
-      <c r="B82" s="109"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="109"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
     </row>
     <row r="83" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
@@ -22945,14 +22945,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="109" t="s">
+      <c r="A91" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="B91" s="109"/>
-      <c r="C91" s="109"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="109"/>
-      <c r="F91" s="109"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="111"/>
+      <c r="F91" s="111"/>
     </row>
     <row r="92" spans="1:6" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="22" t="s">
@@ -23155,14 +23155,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="109" t="s">
+      <c r="A102" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="B102" s="109"/>
-      <c r="C102" s="109"/>
-      <c r="D102" s="109"/>
-      <c r="E102" s="109"/>
-      <c r="F102" s="109"/>
+      <c r="B102" s="111"/>
+      <c r="C102" s="111"/>
+      <c r="D102" s="111"/>
+      <c r="E102" s="111"/>
+      <c r="F102" s="111"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
@@ -23365,14 +23365,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="109" t="s">
+      <c r="A113" s="111" t="s">
         <v>292</v>
       </c>
-      <c r="B113" s="109"/>
-      <c r="C113" s="109"/>
-      <c r="D113" s="109"/>
-      <c r="E113" s="109"/>
-      <c r="F113" s="109"/>
+      <c r="B113" s="111"/>
+      <c r="C113" s="111"/>
+      <c r="D113" s="111"/>
+      <c r="E113" s="111"/>
+      <c r="F113" s="111"/>
     </row>
     <row r="114" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
@@ -23591,14 +23591,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="109" t="s">
+      <c r="A125" s="111" t="s">
         <v>319</v>
       </c>
-      <c r="B125" s="109"/>
-      <c r="C125" s="109"/>
-      <c r="D125" s="109"/>
-      <c r="E125" s="109"/>
-      <c r="F125" s="109"/>
+      <c r="B125" s="111"/>
+      <c r="C125" s="111"/>
+      <c r="D125" s="111"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="111"/>
     </row>
     <row r="126" spans="1:6" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
@@ -23697,14 +23697,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="109" t="s">
+      <c r="A131" s="111" t="s">
         <v>332</v>
       </c>
-      <c r="B131" s="109"/>
-      <c r="C131" s="109"/>
-      <c r="D131" s="109"/>
-      <c r="E131" s="109"/>
-      <c r="F131" s="109"/>
+      <c r="B131" s="111"/>
+      <c r="C131" s="111"/>
+      <c r="D131" s="111"/>
+      <c r="E131" s="111"/>
+      <c r="F131" s="111"/>
     </row>
     <row r="132" spans="1:6" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
@@ -23903,14 +23903,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="109" t="s">
+      <c r="A142" s="111" t="s">
         <v>355</v>
       </c>
-      <c r="B142" s="109"/>
-      <c r="C142" s="109"/>
-      <c r="D142" s="109"/>
-      <c r="E142" s="109"/>
-      <c r="F142" s="109"/>
+      <c r="B142" s="111"/>
+      <c r="C142" s="111"/>
+      <c r="D142" s="111"/>
+      <c r="E142" s="111"/>
+      <c r="F142" s="111"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="22" t="s">
@@ -24105,10 +24105,10 @@
       <c r="D152" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="119" t="s">
+      <c r="E152" s="118" t="s">
         <v>387</v>
       </c>
-      <c r="F152" s="119" t="s">
+      <c r="F152" s="118" t="s">
         <v>388</v>
       </c>
     </row>
@@ -24125,8 +24125,8 @@
       <c r="D153" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="119"/>
-      <c r="F153" s="119"/>
+      <c r="E153" s="118"/>
+      <c r="F153" s="118"/>
     </row>
     <row r="154" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="22" t="s">
@@ -24149,14 +24149,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="109" t="s">
+      <c r="A155" s="111" t="s">
         <v>394</v>
       </c>
-      <c r="B155" s="109"/>
-      <c r="C155" s="109"/>
-      <c r="D155" s="109"/>
-      <c r="E155" s="109"/>
-      <c r="F155" s="109"/>
+      <c r="B155" s="111"/>
+      <c r="C155" s="111"/>
+      <c r="D155" s="111"/>
+      <c r="E155" s="111"/>
+      <c r="F155" s="111"/>
     </row>
     <row r="156" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="22" t="s">
@@ -24171,10 +24171,10 @@
       <c r="D156" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E156" s="115" t="s">
+      <c r="E156" s="119" t="s">
         <v>397</v>
       </c>
-      <c r="F156" s="115" t="s">
+      <c r="F156" s="119" t="s">
         <v>398</v>
       </c>
     </row>
@@ -24191,8 +24191,8 @@
       <c r="D157" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E157" s="116"/>
-      <c r="F157" s="116"/>
+      <c r="E157" s="120"/>
+      <c r="F157" s="120"/>
     </row>
     <row r="158" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A158" s="22" t="s">
@@ -24396,22 +24396,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="F152:F153"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="F156:F157"/>
     <mergeCell ref="E156:E157"/>
@@ -24428,6 +24412,22 @@
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="A125:F125"/>
     <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A82:F82"/>
   </mergeCells>
   <conditionalFormatting sqref="E109">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -24477,14 +24477,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
     </row>
     <row r="3" spans="1:6" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -24623,14 +24623,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
     </row>
     <row r="11" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
@@ -24785,14 +24785,14 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
     </row>
     <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -25054,14 +25054,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="109" t="s">
+      <c r="A33" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
@@ -25264,14 +25264,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
@@ -25454,14 +25454,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="109" t="s">
+      <c r="A54" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
     </row>
     <row r="55" spans="1:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
@@ -25624,14 +25624,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="109" t="s">
+      <c r="A63" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="B63" s="109"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="111"/>
+      <c r="F63" s="111"/>
     </row>
     <row r="64" spans="1:6" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
@@ -25730,14 +25730,14 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="109" t="s">
+      <c r="A69" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="B69" s="109"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="109"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
     </row>
     <row r="70" spans="1:7" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
@@ -25979,14 +25979,14 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="109" t="s">
+      <c r="A82" s="111" t="s">
         <v>221</v>
       </c>
-      <c r="B82" s="109"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="109"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
     </row>
     <row r="83" spans="1:7" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
@@ -26150,14 +26150,14 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="109" t="s">
+      <c r="A91" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="B91" s="109"/>
-      <c r="C91" s="109"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="109"/>
-      <c r="F91" s="109"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="111"/>
+      <c r="F91" s="111"/>
     </row>
     <row r="92" spans="1:7" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="22" t="s">
@@ -26360,14 +26360,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="109" t="s">
+      <c r="A102" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="B102" s="109"/>
-      <c r="C102" s="109"/>
-      <c r="D102" s="109"/>
-      <c r="E102" s="109"/>
-      <c r="F102" s="109"/>
+      <c r="B102" s="111"/>
+      <c r="C102" s="111"/>
+      <c r="D102" s="111"/>
+      <c r="E102" s="111"/>
+      <c r="F102" s="111"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
@@ -26570,14 +26570,14 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="109" t="s">
+      <c r="A113" s="111" t="s">
         <v>292</v>
       </c>
-      <c r="B113" s="109"/>
-      <c r="C113" s="109"/>
-      <c r="D113" s="109"/>
-      <c r="E113" s="109"/>
-      <c r="F113" s="109"/>
+      <c r="B113" s="111"/>
+      <c r="C113" s="111"/>
+      <c r="D113" s="111"/>
+      <c r="E113" s="111"/>
+      <c r="F113" s="111"/>
     </row>
     <row r="114" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
@@ -26592,10 +26592,10 @@
       <c r="D114" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="121" t="s">
+      <c r="E114" s="122" t="s">
         <v>491</v>
       </c>
-      <c r="F114" s="110" t="s">
+      <c r="F114" s="114" t="s">
         <v>492</v>
       </c>
     </row>
@@ -26612,8 +26612,8 @@
       <c r="D115" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="121"/>
-      <c r="F115" s="110"/>
+      <c r="E115" s="122"/>
+      <c r="F115" s="114"/>
     </row>
     <row r="116" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="22" t="s">
@@ -26796,14 +26796,14 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="109" t="s">
+      <c r="A125" s="111" t="s">
         <v>319</v>
       </c>
-      <c r="B125" s="109"/>
-      <c r="C125" s="109"/>
-      <c r="D125" s="109"/>
-      <c r="E125" s="109"/>
-      <c r="F125" s="109"/>
+      <c r="B125" s="111"/>
+      <c r="C125" s="111"/>
+      <c r="D125" s="111"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="111"/>
     </row>
     <row r="126" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
@@ -26818,10 +26818,10 @@
       <c r="D126" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="110" t="s">
+      <c r="E126" s="114" t="s">
         <v>495</v>
       </c>
-      <c r="F126" s="111" t="s">
+      <c r="F126" s="115" t="s">
         <v>496</v>
       </c>
     </row>
@@ -26838,8 +26838,8 @@
       <c r="D127" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="110"/>
-      <c r="F127" s="112"/>
+      <c r="E127" s="114"/>
+      <c r="F127" s="116"/>
     </row>
     <row r="128" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
@@ -26901,14 +26901,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="109" t="s">
+      <c r="A131" s="111" t="s">
         <v>332</v>
       </c>
-      <c r="B131" s="109"/>
-      <c r="C131" s="109"/>
-      <c r="D131" s="109"/>
-      <c r="E131" s="109"/>
-      <c r="F131" s="109"/>
+      <c r="B131" s="111"/>
+      <c r="C131" s="111"/>
+      <c r="D131" s="111"/>
+      <c r="E131" s="111"/>
+      <c r="F131" s="111"/>
     </row>
     <row r="132" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
@@ -26923,10 +26923,10 @@
       <c r="D132" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="110" t="s">
+      <c r="E132" s="114" t="s">
         <v>497</v>
       </c>
-      <c r="F132" s="110" t="s">
+      <c r="F132" s="114" t="s">
         <v>498</v>
       </c>
     </row>
@@ -26943,8 +26943,8 @@
       <c r="D133" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="110"/>
-      <c r="F133" s="110"/>
+      <c r="E133" s="114"/>
+      <c r="F133" s="114"/>
     </row>
     <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="22" t="s">
@@ -26959,8 +26959,8 @@
       <c r="D134" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E134" s="110"/>
-      <c r="F134" s="110"/>
+      <c r="E134" s="114"/>
+      <c r="F134" s="114"/>
     </row>
     <row r="135" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A135" s="22" t="s">
@@ -27103,14 +27103,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="109" t="s">
+      <c r="A142" s="111" t="s">
         <v>355</v>
       </c>
-      <c r="B142" s="109"/>
-      <c r="C142" s="109"/>
-      <c r="D142" s="109"/>
-      <c r="E142" s="109"/>
-      <c r="F142" s="109"/>
+      <c r="B142" s="111"/>
+      <c r="C142" s="111"/>
+      <c r="D142" s="111"/>
+      <c r="E142" s="111"/>
+      <c r="F142" s="111"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="22" t="s">
@@ -27263,10 +27263,10 @@
       <c r="D150" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E150" s="111" t="s">
+      <c r="E150" s="115" t="s">
         <v>506</v>
       </c>
-      <c r="F150" s="111" t="s">
+      <c r="F150" s="115" t="s">
         <v>507</v>
       </c>
       <c r="G150" s="64"/>
@@ -27284,8 +27284,8 @@
       <c r="D151" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E151" s="112"/>
-      <c r="F151" s="112"/>
+      <c r="E151" s="116"/>
+      <c r="F151" s="116"/>
       <c r="G151" s="60"/>
     </row>
     <row r="152" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -27301,10 +27301,10 @@
       <c r="D152" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="120" t="s">
+      <c r="E152" s="123" t="s">
         <v>508</v>
       </c>
-      <c r="F152" s="120" t="s">
+      <c r="F152" s="123" t="s">
         <v>484</v>
       </c>
     </row>
@@ -27321,8 +27321,8 @@
       <c r="D153" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="120"/>
-      <c r="F153" s="120"/>
+      <c r="E153" s="123"/>
+      <c r="F153" s="123"/>
     </row>
     <row r="154" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A154" s="22" t="s">
@@ -27345,14 +27345,14 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="109" t="s">
+      <c r="A155" s="111" t="s">
         <v>394</v>
       </c>
-      <c r="B155" s="109"/>
-      <c r="C155" s="109"/>
-      <c r="D155" s="109"/>
-      <c r="E155" s="109"/>
-      <c r="F155" s="109"/>
+      <c r="B155" s="111"/>
+      <c r="C155" s="111"/>
+      <c r="D155" s="111"/>
+      <c r="E155" s="111"/>
+      <c r="F155" s="111"/>
     </row>
     <row r="156" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="22" t="s">
@@ -27596,12 +27596,22 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="F132:F134"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A33:F33"/>
@@ -27615,22 +27625,12 @@
     <mergeCell ref="F70:F71"/>
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="F132:F134"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27672,14 +27672,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
     </row>
     <row r="3" spans="1:6" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -27697,7 +27697,7 @@
       <c r="E3" s="117" t="s">
         <v>510</v>
       </c>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="119" t="s">
         <v>511</v>
       </c>
     </row>
@@ -27715,7 +27715,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="117"/>
-      <c r="F4" s="116"/>
+      <c r="F4" s="120"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
@@ -27818,14 +27818,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
     </row>
     <row r="11" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
@@ -27840,10 +27840,10 @@
       <c r="D11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="115" t="s">
+      <c r="E11" s="119" t="s">
         <v>515</v>
       </c>
-      <c r="F11" s="115" t="s">
+      <c r="F11" s="119" t="s">
         <v>516</v>
       </c>
     </row>
@@ -27860,8 +27860,8 @@
       <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
     </row>
     <row r="13" spans="1:6" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
@@ -27876,8 +27876,8 @@
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
     </row>
     <row r="14" spans="1:6" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
@@ -27980,14 +27980,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
     </row>
     <row r="20" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -28248,14 +28248,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="109" t="s">
+      <c r="A33" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
@@ -28458,14 +28458,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
@@ -28648,14 +28648,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="109" t="s">
+      <c r="A54" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
     </row>
     <row r="55" spans="1:6" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
@@ -28810,14 +28810,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="109" t="s">
+      <c r="A63" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="B63" s="109"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="111"/>
+      <c r="F63" s="111"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
@@ -28920,14 +28920,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="109" t="s">
+      <c r="A69" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="B69" s="109"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="109"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
     </row>
     <row r="70" spans="1:6" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
@@ -28942,10 +28942,10 @@
       <c r="D70" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="115" t="s">
+      <c r="E70" s="119" t="s">
         <v>526</v>
       </c>
-      <c r="F70" s="111" t="s">
+      <c r="F70" s="115" t="s">
         <v>527</v>
       </c>
     </row>
@@ -28962,8 +28962,8 @@
       <c r="D71" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="116"/>
-      <c r="F71" s="122"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="124"/>
     </row>
     <row r="72" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="22" t="s">
@@ -29166,14 +29166,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="109" t="s">
+      <c r="A82" s="111" t="s">
         <v>221</v>
       </c>
-      <c r="B82" s="109"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="109"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
     </row>
     <row r="83" spans="1:6" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
@@ -29336,14 +29336,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="109" t="s">
+      <c r="A91" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="B91" s="109"/>
-      <c r="C91" s="109"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="109"/>
-      <c r="F91" s="109"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="111"/>
+      <c r="F91" s="111"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="22" t="s">
@@ -29542,14 +29542,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="109" t="s">
+      <c r="A102" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="B102" s="109"/>
-      <c r="C102" s="109"/>
-      <c r="D102" s="109"/>
-      <c r="E102" s="109"/>
-      <c r="F102" s="109"/>
+      <c r="B102" s="111"/>
+      <c r="C102" s="111"/>
+      <c r="D102" s="111"/>
+      <c r="E102" s="111"/>
+      <c r="F102" s="111"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
@@ -29752,14 +29752,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="109" t="s">
+      <c r="A113" s="111" t="s">
         <v>292</v>
       </c>
-      <c r="B113" s="109"/>
-      <c r="C113" s="109"/>
-      <c r="D113" s="109"/>
-      <c r="E113" s="109"/>
-      <c r="F113" s="109"/>
+      <c r="B113" s="111"/>
+      <c r="C113" s="111"/>
+      <c r="D113" s="111"/>
+      <c r="E113" s="111"/>
+      <c r="F113" s="111"/>
     </row>
     <row r="114" spans="1:6" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
@@ -29982,14 +29982,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="109" t="s">
+      <c r="A125" s="111" t="s">
         <v>319</v>
       </c>
-      <c r="B125" s="109"/>
-      <c r="C125" s="109"/>
-      <c r="D125" s="109"/>
-      <c r="E125" s="109"/>
-      <c r="F125" s="109"/>
+      <c r="B125" s="111"/>
+      <c r="C125" s="111"/>
+      <c r="D125" s="111"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="111"/>
     </row>
     <row r="126" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
@@ -30004,10 +30004,10 @@
       <c r="D126" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="110" t="s">
+      <c r="E126" s="114" t="s">
         <v>534</v>
       </c>
-      <c r="F126" s="111" t="s">
+      <c r="F126" s="115" t="s">
         <v>535</v>
       </c>
     </row>
@@ -30024,8 +30024,8 @@
       <c r="D127" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="110"/>
-      <c r="F127" s="112"/>
+      <c r="E127" s="114"/>
+      <c r="F127" s="116"/>
     </row>
     <row r="128" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
@@ -30086,14 +30086,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="109" t="s">
+      <c r="A131" s="111" t="s">
         <v>332</v>
       </c>
-      <c r="B131" s="109"/>
-      <c r="C131" s="109"/>
-      <c r="D131" s="109"/>
-      <c r="E131" s="109"/>
-      <c r="F131" s="109"/>
+      <c r="B131" s="111"/>
+      <c r="C131" s="111"/>
+      <c r="D131" s="111"/>
+      <c r="E131" s="111"/>
+      <c r="F131" s="111"/>
     </row>
     <row r="132" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
@@ -30108,10 +30108,10 @@
       <c r="D132" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="110" t="s">
+      <c r="E132" s="114" t="s">
         <v>536</v>
       </c>
-      <c r="F132" s="111" t="s">
+      <c r="F132" s="115" t="s">
         <v>537</v>
       </c>
     </row>
@@ -30128,8 +30128,8 @@
       <c r="D133" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="110"/>
-      <c r="F133" s="112"/>
+      <c r="E133" s="114"/>
+      <c r="F133" s="116"/>
     </row>
     <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="22" t="s">
@@ -30292,14 +30292,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="109" t="s">
+      <c r="A142" s="111" t="s">
         <v>355</v>
       </c>
-      <c r="B142" s="109"/>
-      <c r="C142" s="109"/>
-      <c r="D142" s="109"/>
-      <c r="E142" s="109"/>
-      <c r="F142" s="109"/>
+      <c r="B142" s="111"/>
+      <c r="C142" s="111"/>
+      <c r="D142" s="111"/>
+      <c r="E142" s="111"/>
+      <c r="F142" s="111"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="22" t="s">
@@ -30542,14 +30542,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="109" t="s">
+      <c r="A155" s="111" t="s">
         <v>394</v>
       </c>
-      <c r="B155" s="109"/>
-      <c r="C155" s="109"/>
-      <c r="D155" s="109"/>
-      <c r="E155" s="109"/>
-      <c r="F155" s="109"/>
+      <c r="B155" s="111"/>
+      <c r="C155" s="111"/>
+      <c r="D155" s="111"/>
+      <c r="E155" s="111"/>
+      <c r="F155" s="111"/>
     </row>
     <row r="156" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="22" t="s">
@@ -30624,10 +30624,10 @@
       <c r="D159" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E159" s="110" t="s">
+      <c r="E159" s="114" t="s">
         <v>547</v>
       </c>
-      <c r="F159" s="111" t="s">
+      <c r="F159" s="115" t="s">
         <v>982</v>
       </c>
     </row>
@@ -30644,8 +30644,8 @@
       <c r="D160" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E160" s="110"/>
-      <c r="F160" s="112"/>
+      <c r="E160" s="114"/>
+      <c r="F160" s="116"/>
     </row>
     <row r="161" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A161" s="22" t="s">
@@ -30789,16 +30789,12 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
     <mergeCell ref="A113:F113"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A33:F33"/>
@@ -30811,12 +30807,16 @@
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30857,14 +30857,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
     </row>
     <row r="3" spans="1:6" ht="288" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -31007,14 +31007,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
     </row>
     <row r="11" spans="1:6" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
@@ -31173,14 +31173,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
     </row>
     <row r="20" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -31195,10 +31195,10 @@
       <c r="D20" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="110" t="s">
+      <c r="E20" s="114" t="s">
         <v>840</v>
       </c>
-      <c r="F20" s="110" t="s">
+      <c r="F20" s="114" t="s">
         <v>841</v>
       </c>
     </row>
@@ -31215,8 +31215,8 @@
       <c r="D21" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
     </row>
     <row r="22" spans="1:6" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
@@ -31439,14 +31439,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="109" t="s">
+      <c r="A33" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
     </row>
     <row r="34" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
@@ -31647,14 +31647,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
     </row>
     <row r="45" spans="1:6" ht="298.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
@@ -31837,14 +31837,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="109" t="s">
+      <c r="A54" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
     </row>
     <row r="55" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
@@ -32003,14 +32003,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="109" t="s">
+      <c r="A63" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="B63" s="109"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="111"/>
+      <c r="F63" s="111"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
@@ -32113,14 +32113,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="109" t="s">
+      <c r="A69" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="B69" s="109"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="109"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
     </row>
     <row r="70" spans="1:6" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
@@ -32211,10 +32211,10 @@
       <c r="D74" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="110" t="s">
+      <c r="E74" s="114" t="s">
         <v>970</v>
       </c>
-      <c r="F74" s="110" t="s">
+      <c r="F74" s="114" t="s">
         <v>851</v>
       </c>
     </row>
@@ -32231,8 +32231,8 @@
       <c r="D75" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="110"/>
-      <c r="F75" s="110"/>
+      <c r="E75" s="114"/>
+      <c r="F75" s="114"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="22" t="s">
@@ -32355,14 +32355,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="109" t="s">
+      <c r="A82" s="111" t="s">
         <v>221</v>
       </c>
-      <c r="B82" s="109"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="109"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
     </row>
     <row r="83" spans="1:6" ht="351.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
@@ -32525,14 +32525,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="109" t="s">
+      <c r="A91" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="B91" s="109"/>
-      <c r="C91" s="109"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="109"/>
-      <c r="F91" s="109"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="111"/>
+      <c r="F91" s="111"/>
     </row>
     <row r="92" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="22" t="s">
@@ -32567,10 +32567,10 @@
       <c r="D93" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="111" t="s">
+      <c r="E93" s="115" t="s">
         <v>855</v>
       </c>
-      <c r="F93" s="111" t="s">
+      <c r="F93" s="115" t="s">
         <v>856</v>
       </c>
     </row>
@@ -32587,8 +32587,8 @@
       <c r="D94" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="112"/>
-      <c r="F94" s="112"/>
+      <c r="E94" s="116"/>
+      <c r="F94" s="116"/>
     </row>
     <row r="95" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A95" s="22" t="s">
@@ -32731,14 +32731,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="109" t="s">
+      <c r="A102" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="B102" s="109"/>
-      <c r="C102" s="109"/>
-      <c r="D102" s="109"/>
-      <c r="E102" s="109"/>
-      <c r="F102" s="109"/>
+      <c r="B102" s="111"/>
+      <c r="C102" s="111"/>
+      <c r="D102" s="111"/>
+      <c r="E102" s="111"/>
+      <c r="F102" s="111"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
@@ -32941,14 +32941,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="109" t="s">
+      <c r="A113" s="111" t="s">
         <v>292</v>
       </c>
-      <c r="B113" s="109"/>
-      <c r="C113" s="109"/>
-      <c r="D113" s="109"/>
-      <c r="E113" s="109"/>
-      <c r="F113" s="109"/>
+      <c r="B113" s="111"/>
+      <c r="C113" s="111"/>
+      <c r="D113" s="111"/>
+      <c r="E113" s="111"/>
+      <c r="F113" s="111"/>
     </row>
     <row r="114" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
@@ -32963,10 +32963,10 @@
       <c r="D114" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="110" t="s">
+      <c r="E114" s="114" t="s">
         <v>864</v>
       </c>
-      <c r="F114" s="110" t="s">
+      <c r="F114" s="114" t="s">
         <v>865</v>
       </c>
     </row>
@@ -32983,8 +32983,8 @@
       <c r="D115" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="110"/>
-      <c r="F115" s="110"/>
+      <c r="E115" s="114"/>
+      <c r="F115" s="114"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="22" t="s">
@@ -33167,14 +33167,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="109" t="s">
+      <c r="A125" s="111" t="s">
         <v>319</v>
       </c>
-      <c r="B125" s="109"/>
-      <c r="C125" s="109"/>
-      <c r="D125" s="109"/>
-      <c r="E125" s="109"/>
-      <c r="F125" s="109"/>
+      <c r="B125" s="111"/>
+      <c r="C125" s="111"/>
+      <c r="D125" s="111"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="111"/>
     </row>
     <row r="126" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
@@ -33189,10 +33189,10 @@
       <c r="D126" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="123" t="s">
+      <c r="E126" s="125" t="s">
         <v>913</v>
       </c>
-      <c r="F126" s="123" t="s">
+      <c r="F126" s="125" t="s">
         <v>914</v>
       </c>
     </row>
@@ -33209,8 +33209,8 @@
       <c r="D127" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="124"/>
-      <c r="F127" s="124"/>
+      <c r="E127" s="126"/>
+      <c r="F127" s="126"/>
     </row>
     <row r="128" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
@@ -33273,14 +33273,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="109" t="s">
+      <c r="A131" s="111" t="s">
         <v>332</v>
       </c>
-      <c r="B131" s="109"/>
-      <c r="C131" s="109"/>
-      <c r="D131" s="109"/>
-      <c r="E131" s="109"/>
-      <c r="F131" s="109"/>
+      <c r="B131" s="111"/>
+      <c r="C131" s="111"/>
+      <c r="D131" s="111"/>
+      <c r="E131" s="111"/>
+      <c r="F131" s="111"/>
     </row>
     <row r="132" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
@@ -33483,14 +33483,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="109" t="s">
+      <c r="A142" s="111" t="s">
         <v>355</v>
       </c>
-      <c r="B142" s="109"/>
-      <c r="C142" s="109"/>
-      <c r="D142" s="109"/>
-      <c r="E142" s="109"/>
-      <c r="F142" s="109"/>
+      <c r="B142" s="111"/>
+      <c r="C142" s="111"/>
+      <c r="D142" s="111"/>
+      <c r="E142" s="111"/>
+      <c r="F142" s="111"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="22" t="s">
@@ -33683,10 +33683,10 @@
       <c r="D152" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="123" t="s">
+      <c r="E152" s="125" t="s">
         <v>882</v>
       </c>
-      <c r="F152" s="123" t="s">
+      <c r="F152" s="125" t="s">
         <v>484</v>
       </c>
     </row>
@@ -33703,8 +33703,8 @@
       <c r="D153" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="124"/>
-      <c r="F153" s="124"/>
+      <c r="E153" s="126"/>
+      <c r="F153" s="126"/>
     </row>
     <row r="154" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A154" s="22" t="s">
@@ -33727,14 +33727,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="109" t="s">
+      <c r="A155" s="111" t="s">
         <v>394</v>
       </c>
-      <c r="B155" s="109"/>
-      <c r="C155" s="109"/>
-      <c r="D155" s="109"/>
-      <c r="E155" s="109"/>
-      <c r="F155" s="109"/>
+      <c r="B155" s="111"/>
+      <c r="C155" s="111"/>
+      <c r="D155" s="111"/>
+      <c r="E155" s="111"/>
+      <c r="F155" s="111"/>
     </row>
     <row r="156" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="22" t="s">
@@ -33976,6 +33976,28 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A10:F10"/>
@@ -33989,28 +34011,6 @@
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="E56:E57"/>
     <mergeCell ref="F56:F57"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="F144:F145"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34053,14 +34053,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
     </row>
     <row r="3" spans="1:6" ht="128.55000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -34203,14 +34203,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
     </row>
     <row r="11" spans="1:6" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
@@ -34225,7 +34225,7 @@
       <c r="D11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="115" t="s">
+      <c r="E11" s="119" t="s">
         <v>786</v>
       </c>
       <c r="F11" s="117" t="s">
@@ -34245,7 +34245,7 @@
       <c r="D12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="116"/>
+      <c r="E12" s="120"/>
       <c r="F12" s="117"/>
     </row>
     <row r="13" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.3">
@@ -34369,14 +34369,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
     </row>
     <row r="20" spans="1:6" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -34391,10 +34391,10 @@
       <c r="D20" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="110" t="s">
+      <c r="E20" s="114" t="s">
         <v>899</v>
       </c>
-      <c r="F20" s="110" t="s">
+      <c r="F20" s="114" t="s">
         <v>935</v>
       </c>
     </row>
@@ -34411,8 +34411,8 @@
       <c r="D21" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
     </row>
     <row r="22" spans="1:6" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
@@ -34635,14 +34635,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="109" t="s">
+      <c r="A33" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
@@ -34843,14 +34843,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
@@ -35033,14 +35033,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="109" t="s">
+      <c r="A54" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
@@ -35075,10 +35075,10 @@
       <c r="D56" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="115" t="s">
+      <c r="E56" s="119" t="s">
         <v>897</v>
       </c>
-      <c r="F56" s="115" t="s">
+      <c r="F56" s="119" t="s">
         <v>898</v>
       </c>
     </row>
@@ -35095,8 +35095,8 @@
       <c r="D57" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="116"/>
-      <c r="F57" s="116"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="120"/>
     </row>
     <row r="58" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
@@ -35199,14 +35199,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="109" t="s">
+      <c r="A63" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="B63" s="109"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="111"/>
+      <c r="F63" s="111"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
@@ -35309,14 +35309,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="109" t="s">
+      <c r="A69" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="B69" s="109"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="109"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
     </row>
     <row r="70" spans="1:6" ht="216" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
@@ -35331,10 +35331,10 @@
       <c r="D70" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="115" t="s">
+      <c r="E70" s="119" t="s">
         <v>799</v>
       </c>
-      <c r="F70" s="115" t="s">
+      <c r="F70" s="119" t="s">
         <v>800</v>
       </c>
     </row>
@@ -35351,8 +35351,8 @@
       <c r="D71" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="116"/>
-      <c r="F71" s="116"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="120"/>
     </row>
     <row r="72" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="22" t="s">
@@ -35407,10 +35407,10 @@
       <c r="D74" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="111" t="s">
+      <c r="E74" s="115" t="s">
         <v>802</v>
       </c>
-      <c r="F74" s="111" t="s">
+      <c r="F74" s="115" t="s">
         <v>801</v>
       </c>
     </row>
@@ -35427,8 +35427,8 @@
       <c r="D75" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="112"/>
-      <c r="F75" s="112"/>
+      <c r="E75" s="116"/>
+      <c r="F75" s="116"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="22" t="s">
@@ -35551,14 +35551,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="109" t="s">
+      <c r="A82" s="111" t="s">
         <v>221</v>
       </c>
-      <c r="B82" s="109"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="109"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
     </row>
     <row r="83" spans="1:6" ht="98.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
@@ -35721,14 +35721,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="109" t="s">
+      <c r="A91" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="B91" s="109"/>
-      <c r="C91" s="109"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="109"/>
-      <c r="F91" s="109"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="111"/>
+      <c r="F91" s="111"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="22" t="s">
@@ -35931,14 +35931,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="109" t="s">
+      <c r="A102" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="B102" s="109"/>
-      <c r="C102" s="109"/>
-      <c r="D102" s="109"/>
-      <c r="E102" s="109"/>
-      <c r="F102" s="109"/>
+      <c r="B102" s="111"/>
+      <c r="C102" s="111"/>
+      <c r="D102" s="111"/>
+      <c r="E102" s="111"/>
+      <c r="F102" s="111"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
@@ -36141,14 +36141,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="109" t="s">
+      <c r="A113" s="111" t="s">
         <v>292</v>
       </c>
-      <c r="B113" s="109"/>
-      <c r="C113" s="109"/>
-      <c r="D113" s="109"/>
-      <c r="E113" s="109"/>
-      <c r="F113" s="109"/>
+      <c r="B113" s="111"/>
+      <c r="C113" s="111"/>
+      <c r="D113" s="111"/>
+      <c r="E113" s="111"/>
+      <c r="F113" s="111"/>
     </row>
     <row r="114" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
@@ -36163,10 +36163,10 @@
       <c r="D114" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="110" t="s">
+      <c r="E114" s="114" t="s">
         <v>811</v>
       </c>
-      <c r="F114" s="111" t="s">
+      <c r="F114" s="115" t="s">
         <v>812</v>
       </c>
     </row>
@@ -36183,8 +36183,8 @@
       <c r="D115" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="110"/>
-      <c r="F115" s="112"/>
+      <c r="E115" s="114"/>
+      <c r="F115" s="116"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="22" t="s">
@@ -36367,14 +36367,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="109" t="s">
+      <c r="A125" s="111" t="s">
         <v>319</v>
       </c>
-      <c r="B125" s="109"/>
-      <c r="C125" s="109"/>
-      <c r="D125" s="109"/>
-      <c r="E125" s="109"/>
-      <c r="F125" s="109"/>
+      <c r="B125" s="111"/>
+      <c r="C125" s="111"/>
+      <c r="D125" s="111"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="111"/>
     </row>
     <row r="126" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
@@ -36389,10 +36389,10 @@
       <c r="D126" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="123" t="s">
+      <c r="E126" s="125" t="s">
         <v>815</v>
       </c>
-      <c r="F126" s="123" t="s">
+      <c r="F126" s="125" t="s">
         <v>816</v>
       </c>
     </row>
@@ -36409,8 +36409,8 @@
       <c r="D127" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="124"/>
-      <c r="F127" s="124"/>
+      <c r="E127" s="126"/>
+      <c r="F127" s="126"/>
     </row>
     <row r="128" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
@@ -36471,14 +36471,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="109" t="s">
+      <c r="A131" s="111" t="s">
         <v>332</v>
       </c>
-      <c r="B131" s="109"/>
-      <c r="C131" s="109"/>
-      <c r="D131" s="109"/>
-      <c r="E131" s="109"/>
-      <c r="F131" s="109"/>
+      <c r="B131" s="111"/>
+      <c r="C131" s="111"/>
+      <c r="D131" s="111"/>
+      <c r="E131" s="111"/>
+      <c r="F131" s="111"/>
     </row>
     <row r="132" spans="1:6" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
@@ -36681,14 +36681,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="109" t="s">
+      <c r="A142" s="111" t="s">
         <v>355</v>
       </c>
-      <c r="B142" s="109"/>
-      <c r="C142" s="109"/>
-      <c r="D142" s="109"/>
-      <c r="E142" s="109"/>
-      <c r="F142" s="109"/>
+      <c r="B142" s="111"/>
+      <c r="C142" s="111"/>
+      <c r="D142" s="111"/>
+      <c r="E142" s="111"/>
+      <c r="F142" s="111"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="22" t="s">
@@ -36883,10 +36883,10 @@
       <c r="D152" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="123" t="s">
+      <c r="E152" s="125" t="s">
         <v>828</v>
       </c>
-      <c r="F152" s="123" t="s">
+      <c r="F152" s="125" t="s">
         <v>484</v>
       </c>
     </row>
@@ -36903,8 +36903,8 @@
       <c r="D153" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="124"/>
-      <c r="F153" s="124"/>
+      <c r="E153" s="126"/>
+      <c r="F153" s="126"/>
     </row>
     <row r="154" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A154" s="22" t="s">
@@ -36927,14 +36927,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="109" t="s">
+      <c r="A155" s="111" t="s">
         <v>394</v>
       </c>
-      <c r="B155" s="109"/>
-      <c r="C155" s="109"/>
-      <c r="D155" s="109"/>
-      <c r="E155" s="109"/>
-      <c r="F155" s="109"/>
+      <c r="B155" s="111"/>
+      <c r="C155" s="111"/>
+      <c r="D155" s="111"/>
+      <c r="E155" s="111"/>
+      <c r="F155" s="111"/>
     </row>
     <row r="156" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="22" t="s">
@@ -37178,28 +37178,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="E74:E75"/>
     <mergeCell ref="F152:F153"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="F114:F115"/>
@@ -37210,6 +37188,28 @@
     <mergeCell ref="E114:E115"/>
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -37251,14 +37251,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
     </row>
     <row r="3" spans="1:6" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -37276,7 +37276,7 @@
       <c r="E3" s="117" t="s">
         <v>720</v>
       </c>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="119" t="s">
         <v>721</v>
       </c>
     </row>
@@ -37294,7 +37294,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="117"/>
-      <c r="F4" s="116"/>
+      <c r="F4" s="120"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
@@ -37397,14 +37397,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
     </row>
     <row r="11" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
@@ -37419,10 +37419,10 @@
       <c r="D11" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="115" t="s">
+      <c r="E11" s="119" t="s">
         <v>929</v>
       </c>
-      <c r="F11" s="115" t="s">
+      <c r="F11" s="119" t="s">
         <v>726</v>
       </c>
     </row>
@@ -37439,8 +37439,8 @@
       <c r="D12" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
     </row>
     <row r="13" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
@@ -37455,8 +37455,8 @@
       <c r="D13" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
     </row>
     <row r="14" spans="1:6" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
@@ -37559,14 +37559,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
     </row>
     <row r="20" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -37584,7 +37584,7 @@
       <c r="E20" s="117" t="s">
         <v>729</v>
       </c>
-      <c r="F20" s="115" t="s">
+      <c r="F20" s="119" t="s">
         <v>730</v>
       </c>
     </row>
@@ -37602,7 +37602,7 @@
         <v>6</v>
       </c>
       <c r="E21" s="117"/>
-      <c r="F21" s="116"/>
+      <c r="F21" s="120"/>
     </row>
     <row r="22" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
@@ -37825,14 +37825,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="109" t="s">
+      <c r="A33" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
@@ -38033,14 +38033,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
     </row>
     <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
@@ -38223,14 +38223,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="109" t="s">
+      <c r="A54" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
@@ -38393,14 +38393,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="109" t="s">
+      <c r="A63" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="B63" s="109"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="111"/>
+      <c r="F63" s="111"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
@@ -38415,10 +38415,10 @@
       <c r="D64" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="115" t="s">
+      <c r="E64" s="119" t="s">
         <v>740</v>
       </c>
-      <c r="F64" s="115" t="s">
+      <c r="F64" s="119" t="s">
         <v>741</v>
       </c>
     </row>
@@ -38435,8 +38435,8 @@
       <c r="D65" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="116"/>
-      <c r="F65" s="116"/>
+      <c r="E65" s="120"/>
+      <c r="F65" s="120"/>
     </row>
     <row r="66" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="22" t="s">
@@ -38499,14 +38499,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="109" t="s">
+      <c r="A69" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="B69" s="109"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="109"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
     </row>
     <row r="70" spans="1:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
@@ -38524,7 +38524,7 @@
       <c r="E70" s="117" t="s">
         <v>742</v>
       </c>
-      <c r="F70" s="115" t="s">
+      <c r="F70" s="119" t="s">
         <v>743</v>
       </c>
     </row>
@@ -38542,7 +38542,7 @@
         <v>6</v>
       </c>
       <c r="E71" s="117"/>
-      <c r="F71" s="116"/>
+      <c r="F71" s="120"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="22" t="s">
@@ -38597,10 +38597,10 @@
       <c r="D74" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="115" t="s">
+      <c r="E74" s="119" t="s">
         <v>744</v>
       </c>
-      <c r="F74" s="118" t="s">
+      <c r="F74" s="121" t="s">
         <v>200</v>
       </c>
     </row>
@@ -38617,8 +38617,8 @@
       <c r="D75" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="116"/>
-      <c r="F75" s="116"/>
+      <c r="E75" s="120"/>
+      <c r="F75" s="120"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="22" t="s">
@@ -38741,14 +38741,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="109" t="s">
+      <c r="A82" s="111" t="s">
         <v>221</v>
       </c>
-      <c r="B82" s="109"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="109"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
     </row>
     <row r="83" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
@@ -38911,14 +38911,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="109" t="s">
+      <c r="A91" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="B91" s="109"/>
-      <c r="C91" s="109"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="109"/>
-      <c r="F91" s="109"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="111"/>
+      <c r="F91" s="111"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="22" t="s">
@@ -39121,14 +39121,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="109" t="s">
+      <c r="A102" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="B102" s="109"/>
-      <c r="C102" s="109"/>
-      <c r="D102" s="109"/>
-      <c r="E102" s="109"/>
-      <c r="F102" s="109"/>
+      <c r="B102" s="111"/>
+      <c r="C102" s="111"/>
+      <c r="D102" s="111"/>
+      <c r="E102" s="111"/>
+      <c r="F102" s="111"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
@@ -39331,14 +39331,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="109" t="s">
+      <c r="A113" s="111" t="s">
         <v>292</v>
       </c>
-      <c r="B113" s="109"/>
-      <c r="C113" s="109"/>
-      <c r="D113" s="109"/>
-      <c r="E113" s="109"/>
-      <c r="F113" s="109"/>
+      <c r="B113" s="111"/>
+      <c r="C113" s="111"/>
+      <c r="D113" s="111"/>
+      <c r="E113" s="111"/>
+      <c r="F113" s="111"/>
     </row>
     <row r="114" spans="1:6" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
@@ -39353,10 +39353,10 @@
       <c r="D114" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="115" t="s">
+      <c r="E114" s="119" t="s">
         <v>755</v>
       </c>
-      <c r="F114" s="115" t="s">
+      <c r="F114" s="119" t="s">
         <v>756</v>
       </c>
     </row>
@@ -39373,8 +39373,8 @@
       <c r="D115" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="116"/>
-      <c r="F115" s="116"/>
+      <c r="E115" s="120"/>
+      <c r="F115" s="120"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="22" t="s">
@@ -39557,14 +39557,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="109" t="s">
+      <c r="A125" s="111" t="s">
         <v>319</v>
       </c>
-      <c r="B125" s="109"/>
-      <c r="C125" s="109"/>
-      <c r="D125" s="109"/>
-      <c r="E125" s="109"/>
-      <c r="F125" s="109"/>
+      <c r="B125" s="111"/>
+      <c r="C125" s="111"/>
+      <c r="D125" s="111"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="111"/>
     </row>
     <row r="126" spans="1:6" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
@@ -39579,10 +39579,10 @@
       <c r="D126" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="123" t="s">
+      <c r="E126" s="125" t="s">
         <v>757</v>
       </c>
-      <c r="F126" s="123" t="s">
+      <c r="F126" s="125" t="s">
         <v>758</v>
       </c>
     </row>
@@ -39599,8 +39599,8 @@
       <c r="D127" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="124"/>
-      <c r="F127" s="124"/>
+      <c r="E127" s="126"/>
+      <c r="F127" s="126"/>
     </row>
     <row r="128" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
@@ -39661,14 +39661,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="109" t="s">
+      <c r="A131" s="111" t="s">
         <v>332</v>
       </c>
-      <c r="B131" s="109"/>
-      <c r="C131" s="109"/>
-      <c r="D131" s="109"/>
-      <c r="E131" s="109"/>
-      <c r="F131" s="109"/>
+      <c r="B131" s="111"/>
+      <c r="C131" s="111"/>
+      <c r="D131" s="111"/>
+      <c r="E131" s="111"/>
+      <c r="F131" s="111"/>
     </row>
     <row r="132" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
@@ -39869,14 +39869,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="109" t="s">
+      <c r="A142" s="111" t="s">
         <v>355</v>
       </c>
-      <c r="B142" s="109"/>
-      <c r="C142" s="109"/>
-      <c r="D142" s="109"/>
-      <c r="E142" s="109"/>
-      <c r="F142" s="109"/>
+      <c r="B142" s="111"/>
+      <c r="C142" s="111"/>
+      <c r="D142" s="111"/>
+      <c r="E142" s="111"/>
+      <c r="F142" s="111"/>
     </row>
     <row r="143" spans="1:6" ht="129" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="22" t="s">
@@ -40119,14 +40119,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="109" t="s">
+      <c r="A155" s="111" t="s">
         <v>394</v>
       </c>
-      <c r="B155" s="109"/>
-      <c r="C155" s="109"/>
-      <c r="D155" s="109"/>
-      <c r="E155" s="109"/>
-      <c r="F155" s="109"/>
+      <c r="B155" s="111"/>
+      <c r="C155" s="111"/>
+      <c r="D155" s="111"/>
+      <c r="E155" s="111"/>
+      <c r="F155" s="111"/>
     </row>
     <row r="156" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="22" t="s">
@@ -40370,6 +40370,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="F20:F21"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="E64:E65"/>
     <mergeCell ref="E70:E71"/>
@@ -40386,22 +40402,6 @@
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="A131:F131"/>
     <mergeCell ref="A142:F142"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A82:F82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40443,14 +40443,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
     </row>
     <row r="3" spans="1:6" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -40465,10 +40465,10 @@
       <c r="D3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="119" t="s">
         <v>550</v>
       </c>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="119" t="s">
         <v>551</v>
       </c>
     </row>
@@ -40485,8 +40485,8 @@
       <c r="D4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
@@ -40589,14 +40589,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="109" t="s">
+      <c r="A10" s="111" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
     </row>
     <row r="11" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
@@ -40611,10 +40611,10 @@
       <c r="D11" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="115" t="s">
+      <c r="E11" s="119" t="s">
         <v>930</v>
       </c>
-      <c r="F11" s="115" t="s">
+      <c r="F11" s="119" t="s">
         <v>559</v>
       </c>
     </row>
@@ -40631,8 +40631,8 @@
       <c r="D12" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
     </row>
     <row r="13" spans="1:6" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
@@ -40647,8 +40647,8 @@
       <c r="D13" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
     </row>
     <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
@@ -40663,8 +40663,8 @@
       <c r="D14" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
     </row>
     <row r="15" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
@@ -40747,14 +40747,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
     </row>
     <row r="20" spans="1:6" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
@@ -40769,10 +40769,10 @@
       <c r="D20" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="115" t="s">
+      <c r="E20" s="119" t="s">
         <v>936</v>
       </c>
-      <c r="F20" s="115" t="s">
+      <c r="F20" s="119" t="s">
         <v>560</v>
       </c>
     </row>
@@ -40789,8 +40789,8 @@
       <c r="D21" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
     </row>
     <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
@@ -41013,14 +41013,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="109" t="s">
+      <c r="A33" s="111" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
     </row>
     <row r="34" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
@@ -41221,14 +41221,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="111" t="s">
         <v>132</v>
       </c>
-      <c r="B44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
     </row>
     <row r="45" spans="1:6" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
@@ -41411,14 +41411,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="109" t="s">
+      <c r="A54" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="B54" s="109"/>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="22" t="s">
@@ -41581,14 +41581,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="109" t="s">
+      <c r="A63" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="B63" s="109"/>
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="111"/>
+      <c r="E63" s="111"/>
+      <c r="F63" s="111"/>
     </row>
     <row r="64" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="22" t="s">
@@ -41691,14 +41691,14 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="109" t="s">
+      <c r="A69" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="B69" s="109"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="109"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
     </row>
     <row r="70" spans="1:6" ht="152.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="22" t="s">
@@ -41713,10 +41713,10 @@
       <c r="D70" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="115" t="s">
+      <c r="E70" s="119" t="s">
         <v>567</v>
       </c>
-      <c r="F70" s="115" t="s">
+      <c r="F70" s="119" t="s">
         <v>568</v>
       </c>
     </row>
@@ -41733,8 +41733,8 @@
       <c r="D71" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="116"/>
-      <c r="F71" s="116"/>
+      <c r="E71" s="120"/>
+      <c r="F71" s="120"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="22" t="s">
@@ -41789,10 +41789,10 @@
       <c r="D74" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="110" t="s">
+      <c r="E74" s="114" t="s">
         <v>569</v>
       </c>
-      <c r="F74" s="110" t="s">
+      <c r="F74" s="114" t="s">
         <v>569</v>
       </c>
     </row>
@@ -41809,8 +41809,8 @@
       <c r="D75" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="110"/>
-      <c r="F75" s="110"/>
+      <c r="E75" s="114"/>
+      <c r="F75" s="114"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="22" t="s">
@@ -41933,14 +41933,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="109" t="s">
+      <c r="A82" s="111" t="s">
         <v>221</v>
       </c>
-      <c r="B82" s="109"/>
-      <c r="C82" s="109"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="109"/>
-      <c r="F82" s="109"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
     </row>
     <row r="83" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
@@ -42103,14 +42103,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="109" t="s">
+      <c r="A91" s="111" t="s">
         <v>243</v>
       </c>
-      <c r="B91" s="109"/>
-      <c r="C91" s="109"/>
-      <c r="D91" s="109"/>
-      <c r="E91" s="109"/>
-      <c r="F91" s="109"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="111"/>
+      <c r="F91" s="111"/>
     </row>
     <row r="92" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A92" s="22" t="s">
@@ -42145,10 +42145,10 @@
       <c r="D93" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="115" t="s">
+      <c r="E93" s="119" t="s">
         <v>577</v>
       </c>
-      <c r="F93" s="115" t="s">
+      <c r="F93" s="119" t="s">
         <v>565</v>
       </c>
     </row>
@@ -42165,8 +42165,8 @@
       <c r="D94" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="116"/>
-      <c r="F94" s="116"/>
+      <c r="E94" s="120"/>
+      <c r="F94" s="120"/>
     </row>
     <row r="95" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A95" s="22" t="s">
@@ -42309,14 +42309,14 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="109" t="s">
+      <c r="A102" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="B102" s="109"/>
-      <c r="C102" s="109"/>
-      <c r="D102" s="109"/>
-      <c r="E102" s="109"/>
-      <c r="F102" s="109"/>
+      <c r="B102" s="111"/>
+      <c r="C102" s="111"/>
+      <c r="D102" s="111"/>
+      <c r="E102" s="111"/>
+      <c r="F102" s="111"/>
     </row>
     <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A103" s="22" t="s">
@@ -42519,14 +42519,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="109" t="s">
+      <c r="A113" s="111" t="s">
         <v>292</v>
       </c>
-      <c r="B113" s="109"/>
-      <c r="C113" s="109"/>
-      <c r="D113" s="109"/>
-      <c r="E113" s="109"/>
-      <c r="F113" s="109"/>
+      <c r="B113" s="111"/>
+      <c r="C113" s="111"/>
+      <c r="D113" s="111"/>
+      <c r="E113" s="111"/>
+      <c r="F113" s="111"/>
     </row>
     <row r="114" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A114" s="22" t="s">
@@ -42544,7 +42544,7 @@
       <c r="E114" s="117" t="s">
         <v>584</v>
       </c>
-      <c r="F114" s="115" t="s">
+      <c r="F114" s="119" t="s">
         <v>585</v>
       </c>
     </row>
@@ -42562,7 +42562,7 @@
         <v>6</v>
       </c>
       <c r="E115" s="117"/>
-      <c r="F115" s="116"/>
+      <c r="F115" s="120"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="22" t="s">
@@ -42745,14 +42745,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="109" t="s">
+      <c r="A125" s="111" t="s">
         <v>319</v>
       </c>
-      <c r="B125" s="109"/>
-      <c r="C125" s="109"/>
-      <c r="D125" s="109"/>
-      <c r="E125" s="109"/>
-      <c r="F125" s="109"/>
+      <c r="B125" s="111"/>
+      <c r="C125" s="111"/>
+      <c r="D125" s="111"/>
+      <c r="E125" s="111"/>
+      <c r="F125" s="111"/>
     </row>
     <row r="126" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A126" s="22" t="s">
@@ -42767,10 +42767,10 @@
       <c r="D126" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="123" t="s">
+      <c r="E126" s="125" t="s">
         <v>587</v>
       </c>
-      <c r="F126" s="123" t="s">
+      <c r="F126" s="125" t="s">
         <v>588</v>
       </c>
     </row>
@@ -42787,8 +42787,8 @@
       <c r="D127" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="124"/>
-      <c r="F127" s="124"/>
+      <c r="E127" s="126"/>
+      <c r="F127" s="126"/>
     </row>
     <row r="128" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
@@ -42849,14 +42849,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="109" t="s">
+      <c r="A131" s="111" t="s">
         <v>332</v>
       </c>
-      <c r="B131" s="109"/>
-      <c r="C131" s="109"/>
-      <c r="D131" s="109"/>
-      <c r="E131" s="109"/>
-      <c r="F131" s="109"/>
+      <c r="B131" s="111"/>
+      <c r="C131" s="111"/>
+      <c r="D131" s="111"/>
+      <c r="E131" s="111"/>
+      <c r="F131" s="111"/>
     </row>
     <row r="132" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A132" s="22" t="s">
@@ -43057,14 +43057,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="109" t="s">
+      <c r="A142" s="111" t="s">
         <v>355</v>
       </c>
-      <c r="B142" s="109"/>
-      <c r="C142" s="109"/>
-      <c r="D142" s="109"/>
-      <c r="E142" s="109"/>
-      <c r="F142" s="109"/>
+      <c r="B142" s="111"/>
+      <c r="C142" s="111"/>
+      <c r="D142" s="111"/>
+      <c r="E142" s="111"/>
+      <c r="F142" s="111"/>
     </row>
     <row r="143" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A143" s="22" t="s">
@@ -43307,14 +43307,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="109" t="s">
+      <c r="A155" s="111" t="s">
         <v>394</v>
       </c>
-      <c r="B155" s="109"/>
-      <c r="C155" s="109"/>
-      <c r="D155" s="109"/>
-      <c r="E155" s="109"/>
-      <c r="F155" s="109"/>
+      <c r="B155" s="111"/>
+      <c r="C155" s="111"/>
+      <c r="D155" s="111"/>
+      <c r="E155" s="111"/>
+      <c r="F155" s="111"/>
     </row>
     <row r="156" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="22" t="s">
@@ -43558,14 +43558,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
     <mergeCell ref="A113:F113"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A69:F69"/>
@@ -43578,18 +43582,14 @@
     <mergeCell ref="E93:E94"/>
     <mergeCell ref="F93:F94"/>
     <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rawdata/supplementary_material_V3.xlsx
+++ b/rawdata/supplementary_material_V3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1B0001-6153-4ADF-82F7-12B61A3A7D68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46719F92-4A03-4959-8052-9845F0195DD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="859" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" tabRatio="859" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scoring system" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10780" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10782" uniqueCount="1044">
   <si>
     <t>Score</t>
   </si>
@@ -4291,6 +4291,9 @@
   </si>
   <si>
     <t>Do you have any paper on the link between unsustainable bottom trawl fisheries and modern slavery and child labor?</t>
+  </si>
+  <si>
+    <t>As targets 1.1 and 1.2 ?</t>
   </si>
 </sst>
 </file>
@@ -4922,12 +4925,6 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4937,11 +4934,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4949,13 +4946,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4967,6 +4970,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4974,15 +4986,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5375,7 +5378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801CB5DA-4450-43AD-9D1A-DDD187F5639A}">
   <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
@@ -5429,10 +5432,10 @@
       <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="117" t="s">
+      <c r="E3" s="119" t="s">
         <v>922</v>
       </c>
-      <c r="F3" s="117" t="s">
+      <c r="F3" s="119" t="s">
         <v>601</v>
       </c>
     </row>
@@ -5449,8 +5452,8 @@
       <c r="D4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
@@ -5575,10 +5578,10 @@
       <c r="D11" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="117" t="s">
+      <c r="E11" s="119" t="s">
         <v>609</v>
       </c>
-      <c r="F11" s="117" t="s">
+      <c r="F11" s="119" t="s">
         <v>610</v>
       </c>
     </row>
@@ -5595,8 +5598,8 @@
       <c r="D12" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
     </row>
     <row r="13" spans="1:6" ht="232.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
@@ -5611,8 +5614,8 @@
       <c r="D13" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
     </row>
     <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
@@ -5737,10 +5740,10 @@
       <c r="D20" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="117" t="s">
+      <c r="E20" s="119" t="s">
         <v>613</v>
       </c>
-      <c r="F20" s="117" t="s">
+      <c r="F20" s="119" t="s">
         <v>614</v>
       </c>
     </row>
@@ -5757,8 +5760,8 @@
       <c r="D21" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
     </row>
     <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
@@ -6681,10 +6684,10 @@
       <c r="D70" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="117" t="s">
+      <c r="E70" s="119" t="s">
         <v>1040</v>
       </c>
-      <c r="F70" s="117" t="s">
+      <c r="F70" s="119" t="s">
         <v>620</v>
       </c>
     </row>
@@ -6701,8 +6704,8 @@
       <c r="D71" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="117"/>
-      <c r="F71" s="117"/>
+      <c r="E71" s="119"/>
+      <c r="F71" s="119"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="22" t="s">
@@ -6987,10 +6990,10 @@
       <c r="D86" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E86" s="114" t="s">
+      <c r="E86" s="112" t="s">
         <v>626</v>
       </c>
-      <c r="F86" s="114" t="s">
+      <c r="F86" s="112" t="s">
         <v>627</v>
       </c>
     </row>
@@ -7007,8 +7010,8 @@
       <c r="D87" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E87" s="114"/>
-      <c r="F87" s="114"/>
+      <c r="E87" s="112"/>
+      <c r="F87" s="112"/>
     </row>
     <row r="88" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A88" s="22" t="s">
@@ -7023,8 +7026,8 @@
       <c r="D88" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="114"/>
-      <c r="F88" s="114"/>
+      <c r="E88" s="112"/>
+      <c r="F88" s="112"/>
     </row>
     <row r="89" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A89" s="22" t="s">
@@ -7509,10 +7512,10 @@
       <c r="D114" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="117" t="s">
+      <c r="E114" s="119" t="s">
         <v>630</v>
       </c>
-      <c r="F114" s="117" t="s">
+      <c r="F114" s="119" t="s">
         <v>296</v>
       </c>
     </row>
@@ -7529,8 +7532,8 @@
       <c r="D115" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="117"/>
-      <c r="F115" s="117"/>
+      <c r="E115" s="119"/>
+      <c r="F115" s="119"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="22" t="s">
@@ -8293,10 +8296,10 @@
       <c r="D156" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E156" s="117" t="s">
+      <c r="E156" s="119" t="s">
         <v>649</v>
       </c>
-      <c r="F156" s="117" t="s">
+      <c r="F156" s="119" t="s">
         <v>625</v>
       </c>
     </row>
@@ -8313,8 +8316,8 @@
       <c r="D157" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E157" s="117"/>
-      <c r="F157" s="117"/>
+      <c r="E157" s="119"/>
+      <c r="F157" s="119"/>
     </row>
     <row r="158" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A158" s="22" t="s">
@@ -8518,12 +8521,19 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="F156:F157"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
     <mergeCell ref="E86:E88"/>
     <mergeCell ref="F86:F88"/>
     <mergeCell ref="A19:F19"/>
@@ -8537,19 +8547,12 @@
     <mergeCell ref="E70:E71"/>
     <mergeCell ref="F70:F71"/>
     <mergeCell ref="A82:F82"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="F156:F157"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10001,10 +10004,10 @@
       <c r="D76" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E76" s="119" t="s">
+      <c r="E76" s="117" t="s">
         <v>665</v>
       </c>
-      <c r="F76" s="119" t="s">
+      <c r="F76" s="117" t="s">
         <v>666</v>
       </c>
     </row>
@@ -10021,8 +10024,8 @@
       <c r="D77" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E77" s="120"/>
-      <c r="F77" s="120"/>
+      <c r="E77" s="118"/>
+      <c r="F77" s="118"/>
     </row>
     <row r="78" spans="1:6" ht="195" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="22" t="s">
@@ -11734,6 +11737,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A10:F10"/>
@@ -11746,14 +11757,6 @@
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="E76:E77"/>
     <mergeCell ref="F76:F77"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11966,10 +11969,10 @@
       <c r="D11" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="117" t="s">
         <v>691</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="117" t="s">
         <v>933</v>
       </c>
     </row>
@@ -11986,8 +11989,8 @@
       <c r="D12" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
     </row>
     <row r="13" spans="1:6" ht="114" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
@@ -12130,10 +12133,10 @@
       <c r="D20" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="119" t="s">
+      <c r="E20" s="117" t="s">
         <v>692</v>
       </c>
-      <c r="F20" s="119" t="s">
+      <c r="F20" s="117" t="s">
         <v>693</v>
       </c>
     </row>
@@ -12150,8 +12153,8 @@
       <c r="D21" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
     </row>
     <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
@@ -13076,10 +13079,10 @@
       <c r="D70" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="119" t="s">
+      <c r="E70" s="117" t="s">
         <v>700</v>
       </c>
-      <c r="F70" s="119" t="s">
+      <c r="F70" s="117" t="s">
         <v>701</v>
       </c>
     </row>
@@ -13096,8 +13099,8 @@
       <c r="D71" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="120"/>
-      <c r="F71" s="120"/>
+      <c r="E71" s="118"/>
+      <c r="F71" s="118"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="22" t="s">
@@ -14302,10 +14305,10 @@
       <c r="D135" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E135" s="119" t="s">
+      <c r="E135" s="117" t="s">
         <v>711</v>
       </c>
-      <c r="F135" s="119" t="s">
+      <c r="F135" s="117" t="s">
         <v>702</v>
       </c>
     </row>
@@ -14322,8 +14325,8 @@
       <c r="D136" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E136" s="120"/>
-      <c r="F136" s="120"/>
+      <c r="E136" s="118"/>
+      <c r="F136" s="118"/>
     </row>
     <row r="137" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A137" s="22" t="s">
@@ -14932,11 +14935,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="A33:F33"/>
@@ -14951,13 +14956,11 @@
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A113:F113"/>
     <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14967,8 +14970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC6199F-7BDF-4EB3-87C9-BE284C303509}">
   <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162:F162"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14999,14 +15002,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
     </row>
     <row r="3" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -15021,10 +15024,10 @@
       <c r="D3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="119" t="s">
+      <c r="E3" s="117" t="s">
         <v>1032</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="117" t="s">
         <v>766</v>
       </c>
     </row>
@@ -15041,8 +15044,8 @@
       <c r="D4" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
@@ -15113,10 +15116,10 @@
       <c r="D8" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="119" t="s">
+      <c r="E8" s="117" t="s">
         <v>1036</v>
       </c>
-      <c r="F8" s="119" t="s">
+      <c r="F8" s="117" t="s">
         <v>1018</v>
       </c>
     </row>
@@ -15133,8 +15136,8 @@
       <c r="D9" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="111" t="s">
@@ -15159,10 +15162,10 @@
       <c r="D11" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="130" t="s">
+      <c r="E11" s="127" t="s">
         <v>1026</v>
       </c>
-      <c r="F11" s="115" t="s">
+      <c r="F11" s="113" t="s">
         <v>1025</v>
       </c>
     </row>
@@ -15179,7 +15182,7 @@
       <c r="D12" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="131"/>
+      <c r="E12" s="129"/>
       <c r="F12" s="124"/>
     </row>
     <row r="13" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
@@ -15195,8 +15198,8 @@
       <c r="D13" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="132"/>
-      <c r="F13" s="116"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="114"/>
     </row>
     <row r="14" spans="1:6" ht="193.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
@@ -15321,10 +15324,10 @@
       <c r="D20" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="115" t="s">
+      <c r="E20" s="113" t="s">
         <v>1039</v>
       </c>
-      <c r="F20" s="115" t="s">
+      <c r="F20" s="113" t="s">
         <v>1037</v>
       </c>
     </row>
@@ -15341,8 +15344,8 @@
       <c r="D21" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
     </row>
     <row r="22" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
@@ -15587,7 +15590,7 @@
       <c r="D34" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E34" s="127" t="s">
+      <c r="E34" s="130" t="s">
         <v>1042</v>
       </c>
       <c r="F34" s="108" t="s">
@@ -15607,7 +15610,7 @@
       <c r="D35" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="129"/>
+      <c r="E35" s="132"/>
       <c r="F35" s="108" t="s">
         <v>29</v>
       </c>
@@ -15625,7 +15628,7 @@
       <c r="D36" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="129"/>
+      <c r="E36" s="132"/>
       <c r="F36" s="108" t="s">
         <v>29</v>
       </c>
@@ -15643,7 +15646,7 @@
       <c r="D37" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="128"/>
+      <c r="E37" s="131"/>
       <c r="F37" s="108" t="s">
         <v>29</v>
       </c>
@@ -16245,14 +16248,18 @@
       <c r="B70" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C70" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" s="44"/>
-      <c r="F70" s="106"/>
+      <c r="C70" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="117" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F70" s="117" t="s">
+        <v>1043</v>
+      </c>
     </row>
     <row r="71" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A71" s="22" t="s">
@@ -16261,14 +16268,14 @@
       <c r="B71" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="C71" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="44"/>
-      <c r="F71" s="106"/>
+      <c r="C71" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="118"/>
+      <c r="F71" s="118"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="22" t="s">
@@ -17035,10 +17042,10 @@
       <c r="D114" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="117" t="s">
+      <c r="E114" s="119" t="s">
         <v>1041</v>
       </c>
-      <c r="F114" s="117" t="s">
+      <c r="F114" s="119" t="s">
         <v>296</v>
       </c>
     </row>
@@ -17055,8 +17062,8 @@
       <c r="D115" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="117"/>
-      <c r="F115" s="117"/>
+      <c r="E115" s="119"/>
+      <c r="F115" s="119"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="22" t="s">
@@ -17259,10 +17266,10 @@
       <c r="D126" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="115" t="s">
+      <c r="E126" s="113" t="s">
         <v>1015</v>
       </c>
-      <c r="F126" s="115" t="s">
+      <c r="F126" s="113" t="s">
         <v>1016</v>
       </c>
     </row>
@@ -17295,8 +17302,8 @@
       <c r="D128" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E128" s="116"/>
-      <c r="F128" s="116"/>
+      <c r="E128" s="114"/>
+      <c r="F128" s="114"/>
     </row>
     <row r="129" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A129" s="22" t="s">
@@ -17361,10 +17368,10 @@
       <c r="D132" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="130" t="s">
+      <c r="E132" s="127" t="s">
         <v>1022</v>
       </c>
-      <c r="F132" s="130" t="s">
+      <c r="F132" s="127" t="s">
         <v>1019</v>
       </c>
     </row>
@@ -17381,8 +17388,8 @@
       <c r="D133" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="132"/>
-      <c r="F133" s="132"/>
+      <c r="E133" s="128"/>
+      <c r="F133" s="128"/>
     </row>
     <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="22" t="s">
@@ -17803,7 +17810,7 @@
       <c r="D156" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E156" s="127" t="s">
+      <c r="E156" s="130" t="s">
         <v>1042</v>
       </c>
       <c r="F156" s="106"/>
@@ -17821,7 +17828,7 @@
       <c r="D157" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E157" s="128"/>
+      <c r="E157" s="131"/>
       <c r="F157" s="106"/>
     </row>
     <row r="158" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
@@ -17989,23 +17996,9 @@
       <c r="F167" s="106"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="E126:E128"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F126:F128"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
+  <mergeCells count="34">
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
     <mergeCell ref="E156:E157"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
@@ -18022,6 +18015,22 @@
     <mergeCell ref="A125:F125"/>
     <mergeCell ref="A131:F131"/>
     <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E126:E128"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F126:F128"/>
+    <mergeCell ref="F132:F133"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18065,14 +18074,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
     </row>
     <row r="3" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -20425,10 +20434,10 @@
       <c r="D126" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="114" t="s">
+      <c r="E126" s="112" t="s">
         <v>452</v>
       </c>
-      <c r="F126" s="115" t="s">
+      <c r="F126" s="113" t="s">
         <v>453</v>
       </c>
     </row>
@@ -20445,8 +20454,8 @@
       <c r="D127" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="114"/>
-      <c r="F127" s="116"/>
+      <c r="E127" s="112"/>
+      <c r="F127" s="114"/>
     </row>
     <row r="128" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
@@ -21220,6 +21229,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A69:F69"/>
@@ -21232,12 +21247,6 @@
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="A131:F131"/>
     <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21301,10 +21310,10 @@
       <c r="D3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="112" t="s">
         <v>919</v>
       </c>
-      <c r="F3" s="114" t="s">
+      <c r="F3" s="112" t="s">
         <v>920</v>
       </c>
     </row>
@@ -21321,8 +21330,8 @@
       <c r="D4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
     </row>
     <row r="5" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
@@ -21447,10 +21456,10 @@
       <c r="D11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="117" t="s">
+      <c r="F11" s="119" t="s">
         <v>928</v>
       </c>
     </row>
@@ -21467,8 +21476,8 @@
       <c r="D12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
     </row>
     <row r="13" spans="1:6" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
@@ -21483,8 +21492,8 @@
       <c r="D13" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
     </row>
     <row r="14" spans="1:6" ht="228.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
@@ -22551,10 +22560,10 @@
       <c r="D70" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="114" t="s">
+      <c r="E70" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="F70" s="114" t="s">
+      <c r="F70" s="112" t="s">
         <v>191</v>
       </c>
     </row>
@@ -22571,8 +22580,8 @@
       <c r="D71" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="114"/>
-      <c r="F71" s="114"/>
+      <c r="E71" s="112"/>
+      <c r="F71" s="112"/>
     </row>
     <row r="72" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="22" t="s">
@@ -23387,10 +23396,10 @@
       <c r="D114" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="117" t="s">
+      <c r="E114" s="119" t="s">
         <v>295</v>
       </c>
-      <c r="F114" s="117" t="s">
+      <c r="F114" s="119" t="s">
         <v>296</v>
       </c>
     </row>
@@ -23407,8 +23416,8 @@
       <c r="D115" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="117"/>
-      <c r="F115" s="117"/>
+      <c r="E115" s="119"/>
+      <c r="F115" s="119"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="22" t="s">
@@ -23613,10 +23622,10 @@
       <c r="D126" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="117" t="s">
+      <c r="E126" s="119" t="s">
         <v>322</v>
       </c>
-      <c r="F126" s="117" t="s">
+      <c r="F126" s="119" t="s">
         <v>323</v>
       </c>
     </row>
@@ -23633,8 +23642,8 @@
       <c r="D127" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="117"/>
-      <c r="F127" s="117"/>
+      <c r="E127" s="119"/>
+      <c r="F127" s="119"/>
     </row>
     <row r="128" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
@@ -23719,10 +23728,10 @@
       <c r="D132" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="117" t="s">
+      <c r="E132" s="119" t="s">
         <v>335</v>
       </c>
-      <c r="F132" s="117" t="s">
+      <c r="F132" s="119" t="s">
         <v>336</v>
       </c>
     </row>
@@ -23739,8 +23748,8 @@
       <c r="D133" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="117"/>
-      <c r="F133" s="117"/>
+      <c r="E133" s="119"/>
+      <c r="F133" s="119"/>
     </row>
     <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="22" t="s">
@@ -24105,10 +24114,10 @@
       <c r="D152" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="118" t="s">
+      <c r="E152" s="121" t="s">
         <v>387</v>
       </c>
-      <c r="F152" s="118" t="s">
+      <c r="F152" s="121" t="s">
         <v>388</v>
       </c>
     </row>
@@ -24125,8 +24134,8 @@
       <c r="D153" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="118"/>
-      <c r="F153" s="118"/>
+      <c r="E153" s="121"/>
+      <c r="F153" s="121"/>
     </row>
     <row r="154" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="22" t="s">
@@ -24171,10 +24180,10 @@
       <c r="D156" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E156" s="119" t="s">
+      <c r="E156" s="117" t="s">
         <v>397</v>
       </c>
-      <c r="F156" s="119" t="s">
+      <c r="F156" s="117" t="s">
         <v>398</v>
       </c>
     </row>
@@ -24191,8 +24200,8 @@
       <c r="D157" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E157" s="120"/>
-      <c r="F157" s="120"/>
+      <c r="E157" s="118"/>
+      <c r="F157" s="118"/>
     </row>
     <row r="158" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A158" s="22" t="s">
@@ -24396,6 +24405,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="F152:F153"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="F156:F157"/>
     <mergeCell ref="E156:E157"/>
@@ -24412,22 +24437,6 @@
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="A125:F125"/>
     <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="A82:F82"/>
   </mergeCells>
   <conditionalFormatting sqref="E109">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
@@ -24499,10 +24508,10 @@
       <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="117" t="s">
+      <c r="E3" s="119" t="s">
         <v>921</v>
       </c>
-      <c r="F3" s="117" t="s">
+      <c r="F3" s="119" t="s">
         <v>465</v>
       </c>
     </row>
@@ -24519,8 +24528,8 @@
       <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
@@ -24645,10 +24654,10 @@
       <c r="D11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="117" t="s">
+      <c r="E11" s="119" t="s">
         <v>469</v>
       </c>
-      <c r="F11" s="117" t="s">
+      <c r="F11" s="119" t="s">
         <v>470</v>
       </c>
     </row>
@@ -24665,8 +24674,8 @@
       <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
     </row>
     <row r="13" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
@@ -24681,8 +24690,8 @@
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
     </row>
     <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
@@ -25646,10 +25655,10 @@
       <c r="D64" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E64" s="117" t="s">
+      <c r="E64" s="119" t="s">
         <v>486</v>
       </c>
-      <c r="F64" s="117" t="s">
+      <c r="F64" s="119" t="s">
         <v>487</v>
       </c>
     </row>
@@ -25666,8 +25675,8 @@
       <c r="D65" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E65" s="117"/>
-      <c r="F65" s="117"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="119"/>
     </row>
     <row r="66" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="22" t="s">
@@ -25752,10 +25761,10 @@
       <c r="D70" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="117" t="s">
+      <c r="E70" s="119" t="s">
         <v>947</v>
       </c>
-      <c r="F70" s="117" t="s">
+      <c r="F70" s="119" t="s">
         <v>948</v>
       </c>
       <c r="G70" s="60"/>
@@ -25773,8 +25782,8 @@
       <c r="D71" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="117"/>
-      <c r="F71" s="117"/>
+      <c r="E71" s="119"/>
+      <c r="F71" s="119"/>
       <c r="G71" s="60"/>
     </row>
     <row r="72" spans="1:7" ht="78" x14ac:dyDescent="0.3">
@@ -26592,10 +26601,10 @@
       <c r="D114" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="122" t="s">
+      <c r="E114" s="123" t="s">
         <v>491</v>
       </c>
-      <c r="F114" s="114" t="s">
+      <c r="F114" s="112" t="s">
         <v>492</v>
       </c>
     </row>
@@ -26612,8 +26621,8 @@
       <c r="D115" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="122"/>
-      <c r="F115" s="114"/>
+      <c r="E115" s="123"/>
+      <c r="F115" s="112"/>
     </row>
     <row r="116" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="22" t="s">
@@ -26818,10 +26827,10 @@
       <c r="D126" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="114" t="s">
+      <c r="E126" s="112" t="s">
         <v>495</v>
       </c>
-      <c r="F126" s="115" t="s">
+      <c r="F126" s="113" t="s">
         <v>496</v>
       </c>
     </row>
@@ -26838,8 +26847,8 @@
       <c r="D127" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="114"/>
-      <c r="F127" s="116"/>
+      <c r="E127" s="112"/>
+      <c r="F127" s="114"/>
     </row>
     <row r="128" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
@@ -26923,10 +26932,10 @@
       <c r="D132" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="114" t="s">
+      <c r="E132" s="112" t="s">
         <v>497</v>
       </c>
-      <c r="F132" s="114" t="s">
+      <c r="F132" s="112" t="s">
         <v>498</v>
       </c>
     </row>
@@ -26943,8 +26952,8 @@
       <c r="D133" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="114"/>
-      <c r="F133" s="114"/>
+      <c r="E133" s="112"/>
+      <c r="F133" s="112"/>
     </row>
     <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="22" t="s">
@@ -26959,8 +26968,8 @@
       <c r="D134" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E134" s="114"/>
-      <c r="F134" s="114"/>
+      <c r="E134" s="112"/>
+      <c r="F134" s="112"/>
     </row>
     <row r="135" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A135" s="22" t="s">
@@ -27128,7 +27137,7 @@
       <c r="E143" s="27" t="s">
         <v>499</v>
       </c>
-      <c r="F143" s="117" t="s">
+      <c r="F143" s="119" t="s">
         <v>366</v>
       </c>
     </row>
@@ -27148,7 +27157,7 @@
       <c r="E144" s="27" t="s">
         <v>500</v>
       </c>
-      <c r="F144" s="117"/>
+      <c r="F144" s="119"/>
     </row>
     <row r="145" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A145" s="22" t="s">
@@ -27263,10 +27272,10 @@
       <c r="D150" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E150" s="115" t="s">
+      <c r="E150" s="113" t="s">
         <v>506</v>
       </c>
-      <c r="F150" s="115" t="s">
+      <c r="F150" s="113" t="s">
         <v>507</v>
       </c>
       <c r="G150" s="64"/>
@@ -27284,8 +27293,8 @@
       <c r="D151" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E151" s="116"/>
-      <c r="F151" s="116"/>
+      <c r="E151" s="114"/>
+      <c r="F151" s="114"/>
       <c r="G151" s="60"/>
     </row>
     <row r="152" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -27301,10 +27310,10 @@
       <c r="D152" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="123" t="s">
+      <c r="E152" s="122" t="s">
         <v>508</v>
       </c>
-      <c r="F152" s="123" t="s">
+      <c r="F152" s="122" t="s">
         <v>484</v>
       </c>
     </row>
@@ -27321,8 +27330,8 @@
       <c r="D153" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="123"/>
-      <c r="F153" s="123"/>
+      <c r="E153" s="122"/>
+      <c r="F153" s="122"/>
     </row>
     <row r="154" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A154" s="22" t="s">
@@ -27596,22 +27605,12 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="E132:E134"/>
-    <mergeCell ref="F132:F134"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A33:F33"/>
@@ -27625,12 +27624,22 @@
     <mergeCell ref="F70:F71"/>
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="E132:E134"/>
+    <mergeCell ref="F132:F134"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="F150:F151"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27694,10 +27703,10 @@
       <c r="D3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="117" t="s">
+      <c r="E3" s="119" t="s">
         <v>510</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="117" t="s">
         <v>511</v>
       </c>
     </row>
@@ -27714,8 +27723,8 @@
       <c r="D4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="120"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="118"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
@@ -27840,10 +27849,10 @@
       <c r="D11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="117" t="s">
         <v>515</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="117" t="s">
         <v>516</v>
       </c>
     </row>
@@ -27860,8 +27869,8 @@
       <c r="D12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
     </row>
     <row r="13" spans="1:6" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
@@ -27876,8 +27885,8 @@
       <c r="D13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
     </row>
     <row r="14" spans="1:6" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
@@ -28942,10 +28951,10 @@
       <c r="D70" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="119" t="s">
+      <c r="E70" s="117" t="s">
         <v>526</v>
       </c>
-      <c r="F70" s="115" t="s">
+      <c r="F70" s="113" t="s">
         <v>527</v>
       </c>
     </row>
@@ -28962,7 +28971,7 @@
       <c r="D71" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="120"/>
+      <c r="E71" s="118"/>
       <c r="F71" s="124"/>
     </row>
     <row r="72" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.3">
@@ -30004,10 +30013,10 @@
       <c r="D126" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="114" t="s">
+      <c r="E126" s="112" t="s">
         <v>534</v>
       </c>
-      <c r="F126" s="115" t="s">
+      <c r="F126" s="113" t="s">
         <v>535</v>
       </c>
     </row>
@@ -30024,8 +30033,8 @@
       <c r="D127" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E127" s="114"/>
-      <c r="F127" s="116"/>
+      <c r="E127" s="112"/>
+      <c r="F127" s="114"/>
     </row>
     <row r="128" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A128" s="22" t="s">
@@ -30108,10 +30117,10 @@
       <c r="D132" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E132" s="114" t="s">
+      <c r="E132" s="112" t="s">
         <v>536</v>
       </c>
-      <c r="F132" s="115" t="s">
+      <c r="F132" s="113" t="s">
         <v>537</v>
       </c>
     </row>
@@ -30128,8 +30137,8 @@
       <c r="D133" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="114"/>
-      <c r="F133" s="116"/>
+      <c r="E133" s="112"/>
+      <c r="F133" s="114"/>
     </row>
     <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="22" t="s">
@@ -30624,10 +30633,10 @@
       <c r="D159" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E159" s="114" t="s">
+      <c r="E159" s="112" t="s">
         <v>547</v>
       </c>
-      <c r="F159" s="115" t="s">
+      <c r="F159" s="113" t="s">
         <v>982</v>
       </c>
     </row>
@@ -30644,8 +30653,8 @@
       <c r="D160" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E160" s="114"/>
-      <c r="F160" s="116"/>
+      <c r="E160" s="112"/>
+      <c r="F160" s="114"/>
     </row>
     <row r="161" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A161" s="22" t="s">
@@ -30789,12 +30798,16 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:F133"/>
     <mergeCell ref="A113:F113"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A33:F33"/>
@@ -30807,16 +30820,12 @@
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31029,10 +31038,10 @@
       <c r="D11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="117" t="s">
+      <c r="E11" s="119" t="s">
         <v>906</v>
       </c>
-      <c r="F11" s="117" t="s">
+      <c r="F11" s="119" t="s">
         <v>1013</v>
       </c>
     </row>
@@ -31049,8 +31058,8 @@
       <c r="D12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
     </row>
     <row r="13" spans="1:6" ht="150.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
@@ -31195,10 +31204,10 @@
       <c r="D20" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="114" t="s">
+      <c r="E20" s="112" t="s">
         <v>840</v>
       </c>
-      <c r="F20" s="114" t="s">
+      <c r="F20" s="112" t="s">
         <v>841</v>
       </c>
     </row>
@@ -31215,8 +31224,8 @@
       <c r="D21" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
     </row>
     <row r="22" spans="1:6" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
@@ -31879,10 +31888,10 @@
       <c r="D56" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="117" t="s">
+      <c r="E56" s="119" t="s">
         <v>847</v>
       </c>
-      <c r="F56" s="117" t="s">
+      <c r="F56" s="119" t="s">
         <v>848</v>
       </c>
     </row>
@@ -31899,8 +31908,8 @@
       <c r="D57" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="117"/>
-      <c r="F57" s="117"/>
+      <c r="E57" s="119"/>
+      <c r="F57" s="119"/>
     </row>
     <row r="58" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
@@ -32135,10 +32144,10 @@
       <c r="D70" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="117" t="s">
+      <c r="E70" s="119" t="s">
         <v>910</v>
       </c>
-      <c r="F70" s="117" t="s">
+      <c r="F70" s="119" t="s">
         <v>989</v>
       </c>
     </row>
@@ -32155,8 +32164,8 @@
       <c r="D71" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="117"/>
-      <c r="F71" s="117"/>
+      <c r="E71" s="119"/>
+      <c r="F71" s="119"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="22" t="s">
@@ -32211,10 +32220,10 @@
       <c r="D74" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="114" t="s">
+      <c r="E74" s="112" t="s">
         <v>970</v>
       </c>
-      <c r="F74" s="114" t="s">
+      <c r="F74" s="112" t="s">
         <v>851</v>
       </c>
     </row>
@@ -32231,8 +32240,8 @@
       <c r="D75" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="114"/>
-      <c r="F75" s="114"/>
+      <c r="E75" s="112"/>
+      <c r="F75" s="112"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="22" t="s">
@@ -32567,10 +32576,10 @@
       <c r="D93" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="115" t="s">
+      <c r="E93" s="113" t="s">
         <v>855</v>
       </c>
-      <c r="F93" s="115" t="s">
+      <c r="F93" s="113" t="s">
         <v>856</v>
       </c>
     </row>
@@ -32587,8 +32596,8 @@
       <c r="D94" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="116"/>
-      <c r="F94" s="116"/>
+      <c r="E94" s="114"/>
+      <c r="F94" s="114"/>
     </row>
     <row r="95" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A95" s="22" t="s">
@@ -32963,10 +32972,10 @@
       <c r="D114" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="114" t="s">
+      <c r="E114" s="112" t="s">
         <v>864</v>
       </c>
-      <c r="F114" s="114" t="s">
+      <c r="F114" s="112" t="s">
         <v>865</v>
       </c>
     </row>
@@ -32983,8 +32992,8 @@
       <c r="D115" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="114"/>
-      <c r="F115" s="114"/>
+      <c r="E115" s="112"/>
+      <c r="F115" s="112"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="22" t="s">
@@ -33528,7 +33537,7 @@
       <c r="E144" s="89" t="s">
         <v>878</v>
       </c>
-      <c r="F144" s="117" t="s">
+      <c r="F144" s="119" t="s">
         <v>36</v>
       </c>
     </row>
@@ -33548,7 +33557,7 @@
       <c r="E145" s="89" t="s">
         <v>879</v>
       </c>
-      <c r="F145" s="117"/>
+      <c r="F145" s="119"/>
     </row>
     <row r="146" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A146" s="22" t="s">
@@ -33976,15 +33985,19 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="F144:F145"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
     <mergeCell ref="E114:E115"/>
     <mergeCell ref="F114:F115"/>
     <mergeCell ref="A69:F69"/>
@@ -33998,19 +34011,15 @@
     <mergeCell ref="F93:F94"/>
     <mergeCell ref="A102:F102"/>
     <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="F144:F145"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -34225,10 +34234,10 @@
       <c r="D11" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="117" t="s">
         <v>786</v>
       </c>
-      <c r="F11" s="117" t="s">
+      <c r="F11" s="119" t="s">
         <v>787</v>
       </c>
     </row>
@@ -34245,8 +34254,8 @@
       <c r="D12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="120"/>
-      <c r="F12" s="117"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="119"/>
     </row>
     <row r="13" spans="1:6" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
@@ -34391,10 +34400,10 @@
       <c r="D20" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="114" t="s">
+      <c r="E20" s="112" t="s">
         <v>899</v>
       </c>
-      <c r="F20" s="114" t="s">
+      <c r="F20" s="112" t="s">
         <v>935</v>
       </c>
     </row>
@@ -34411,8 +34420,8 @@
       <c r="D21" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
     </row>
     <row r="22" spans="1:6" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
@@ -35075,10 +35084,10 @@
       <c r="D56" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="119" t="s">
+      <c r="E56" s="117" t="s">
         <v>897</v>
       </c>
-      <c r="F56" s="119" t="s">
+      <c r="F56" s="117" t="s">
         <v>898</v>
       </c>
     </row>
@@ -35095,8 +35104,8 @@
       <c r="D57" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="120"/>
-      <c r="F57" s="120"/>
+      <c r="E57" s="118"/>
+      <c r="F57" s="118"/>
     </row>
     <row r="58" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A58" s="22" t="s">
@@ -35331,10 +35340,10 @@
       <c r="D70" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E70" s="119" t="s">
+      <c r="E70" s="117" t="s">
         <v>799</v>
       </c>
-      <c r="F70" s="119" t="s">
+      <c r="F70" s="117" t="s">
         <v>800</v>
       </c>
     </row>
@@ -35351,8 +35360,8 @@
       <c r="D71" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E71" s="120"/>
-      <c r="F71" s="120"/>
+      <c r="E71" s="118"/>
+      <c r="F71" s="118"/>
     </row>
     <row r="72" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="22" t="s">
@@ -35407,10 +35416,10 @@
       <c r="D74" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="115" t="s">
+      <c r="E74" s="113" t="s">
         <v>802</v>
       </c>
-      <c r="F74" s="115" t="s">
+      <c r="F74" s="113" t="s">
         <v>801</v>
       </c>
     </row>
@@ -35427,8 +35436,8 @@
       <c r="D75" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="116"/>
-      <c r="F75" s="116"/>
+      <c r="E75" s="114"/>
+      <c r="F75" s="114"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="22" t="s">
@@ -36163,10 +36172,10 @@
       <c r="D114" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="114" t="s">
+      <c r="E114" s="112" t="s">
         <v>811</v>
       </c>
-      <c r="F114" s="115" t="s">
+      <c r="F114" s="113" t="s">
         <v>812</v>
       </c>
     </row>
@@ -36183,8 +36192,8 @@
       <c r="D115" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="114"/>
-      <c r="F115" s="116"/>
+      <c r="E115" s="112"/>
+      <c r="F115" s="114"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="22" t="s">
@@ -37178,6 +37187,28 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="E74:E75"/>
     <mergeCell ref="F152:F153"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="F114:F115"/>
@@ -37188,28 +37219,6 @@
     <mergeCell ref="E114:E115"/>
     <mergeCell ref="E126:E127"/>
     <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -37273,10 +37282,10 @@
       <c r="D3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="117" t="s">
+      <c r="E3" s="119" t="s">
         <v>720</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="117" t="s">
         <v>721</v>
       </c>
     </row>
@@ -37293,8 +37302,8 @@
       <c r="D4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="117"/>
-      <c r="F4" s="120"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="118"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
@@ -37419,10 +37428,10 @@
       <c r="D11" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="117" t="s">
         <v>929</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="117" t="s">
         <v>726</v>
       </c>
     </row>
@@ -37439,8 +37448,8 @@
       <c r="D12" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
     </row>
     <row r="13" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
@@ -37455,8 +37464,8 @@
       <c r="D13" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
     </row>
     <row r="14" spans="1:6" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
@@ -37581,10 +37590,10 @@
       <c r="D20" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="117" t="s">
+      <c r="E20" s="119" t="s">
         <v>729</v>
       </c>
-      <c r="F20" s="119" t="s">
+      <c r="F20" s="117" t="s">
         <v>730</v>
       </c>
     </row>
@@ -37601,8 +37610,8 @@
       <c r="D21" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="117"/>
-      <c r="F21" s="120"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="118"/>
     </row>
     <row r="22" spans="1:6" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
@@ -38415,10 +38424,10 @@
       <c r="D64" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="119" t="s">
+      <c r="E64" s="117" t="s">
         <v>740</v>
       </c>
-      <c r="F64" s="119" t="s">
+      <c r="F64" s="117" t="s">
         <v>741</v>
       </c>
     </row>
@@ -38435,8 +38444,8 @@
       <c r="D65" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E65" s="120"/>
-      <c r="F65" s="120"/>
+      <c r="E65" s="118"/>
+      <c r="F65" s="118"/>
     </row>
     <row r="66" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="22" t="s">
@@ -38521,10 +38530,10 @@
       <c r="D70" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="117" t="s">
+      <c r="E70" s="119" t="s">
         <v>742</v>
       </c>
-      <c r="F70" s="119" t="s">
+      <c r="F70" s="117" t="s">
         <v>743</v>
       </c>
     </row>
@@ -38541,8 +38550,8 @@
       <c r="D71" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="117"/>
-      <c r="F71" s="120"/>
+      <c r="E71" s="119"/>
+      <c r="F71" s="118"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="22" t="s">
@@ -38597,10 +38606,10 @@
       <c r="D74" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="119" t="s">
+      <c r="E74" s="117" t="s">
         <v>744</v>
       </c>
-      <c r="F74" s="121" t="s">
+      <c r="F74" s="120" t="s">
         <v>200</v>
       </c>
     </row>
@@ -38617,8 +38626,8 @@
       <c r="D75" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="120"/>
-      <c r="F75" s="120"/>
+      <c r="E75" s="118"/>
+      <c r="F75" s="118"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="22" t="s">
@@ -39353,10 +39362,10 @@
       <c r="D114" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="119" t="s">
+      <c r="E114" s="117" t="s">
         <v>755</v>
       </c>
-      <c r="F114" s="119" t="s">
+      <c r="F114" s="117" t="s">
         <v>756</v>
       </c>
     </row>
@@ -39373,8 +39382,8 @@
       <c r="D115" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="120"/>
-      <c r="F115" s="120"/>
+      <c r="E115" s="118"/>
+      <c r="F115" s="118"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="22" t="s">
@@ -40370,22 +40379,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="F20:F21"/>
     <mergeCell ref="A155:F155"/>
     <mergeCell ref="E64:E65"/>
     <mergeCell ref="E70:E71"/>
@@ -40402,6 +40395,22 @@
     <mergeCell ref="F126:F127"/>
     <mergeCell ref="A131:F131"/>
     <mergeCell ref="A142:F142"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A82:F82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -40465,10 +40474,10 @@
       <c r="D3" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="119" t="s">
+      <c r="E3" s="117" t="s">
         <v>550</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="117" t="s">
         <v>551</v>
       </c>
     </row>
@@ -40485,8 +40494,8 @@
       <c r="D4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
     </row>
     <row r="5" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
@@ -40611,10 +40620,10 @@
       <c r="D11" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="119" t="s">
+      <c r="E11" s="117" t="s">
         <v>930</v>
       </c>
-      <c r="F11" s="119" t="s">
+      <c r="F11" s="117" t="s">
         <v>559</v>
       </c>
     </row>
@@ -40631,8 +40640,8 @@
       <c r="D12" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
     </row>
     <row r="13" spans="1:6" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
@@ -40647,8 +40656,8 @@
       <c r="D13" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
     </row>
     <row r="14" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
@@ -40663,8 +40672,8 @@
       <c r="D14" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
     </row>
     <row r="15" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
@@ -40769,10 +40778,10 @@
       <c r="D20" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="119" t="s">
+      <c r="E20" s="117" t="s">
         <v>936</v>
       </c>
-      <c r="F20" s="119" t="s">
+      <c r="F20" s="117" t="s">
         <v>560</v>
       </c>
     </row>
@@ -40789,8 +40798,8 @@
       <c r="D21" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
     </row>
     <row r="22" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
@@ -41713,10 +41722,10 @@
       <c r="D70" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="119" t="s">
+      <c r="E70" s="117" t="s">
         <v>567</v>
       </c>
-      <c r="F70" s="119" t="s">
+      <c r="F70" s="117" t="s">
         <v>568</v>
       </c>
     </row>
@@ -41733,8 +41742,8 @@
       <c r="D71" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="120"/>
-      <c r="F71" s="120"/>
+      <c r="E71" s="118"/>
+      <c r="F71" s="118"/>
     </row>
     <row r="72" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A72" s="22" t="s">
@@ -41789,10 +41798,10 @@
       <c r="D74" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E74" s="114" t="s">
+      <c r="E74" s="112" t="s">
         <v>569</v>
       </c>
-      <c r="F74" s="114" t="s">
+      <c r="F74" s="112" t="s">
         <v>569</v>
       </c>
     </row>
@@ -41809,8 +41818,8 @@
       <c r="D75" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E75" s="114"/>
-      <c r="F75" s="114"/>
+      <c r="E75" s="112"/>
+      <c r="F75" s="112"/>
     </row>
     <row r="76" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A76" s="22" t="s">
@@ -42145,10 +42154,10 @@
       <c r="D93" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="119" t="s">
+      <c r="E93" s="117" t="s">
         <v>577</v>
       </c>
-      <c r="F93" s="119" t="s">
+      <c r="F93" s="117" t="s">
         <v>565</v>
       </c>
     </row>
@@ -42165,8 +42174,8 @@
       <c r="D94" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="120"/>
-      <c r="F94" s="120"/>
+      <c r="E94" s="118"/>
+      <c r="F94" s="118"/>
     </row>
     <row r="95" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A95" s="22" t="s">
@@ -42541,10 +42550,10 @@
       <c r="D114" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="117" t="s">
+      <c r="E114" s="119" t="s">
         <v>584</v>
       </c>
-      <c r="F114" s="119" t="s">
+      <c r="F114" s="117" t="s">
         <v>585</v>
       </c>
     </row>
@@ -42561,8 +42570,8 @@
       <c r="D115" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="117"/>
-      <c r="F115" s="120"/>
+      <c r="E115" s="119"/>
+      <c r="F115" s="118"/>
     </row>
     <row r="116" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A116" s="22" t="s">
@@ -43558,6 +43567,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="A102:F102"/>
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="E3:E4"/>
@@ -43570,26 +43599,6 @@
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="A131:F131"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
